--- a/data/dados_morfologicos.xlsx
+++ b/data/dados_morfologicos.xlsx
@@ -304,7 +304,7 @@
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -377,9 +377,6 @@
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -392,16 +389,10 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -409,12 +400,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
@@ -461,11 +446,17 @@
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
@@ -665,9 +656,9 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
@@ -747,7 +738,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -775,10 +766,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1034,9 +1025,9 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
+          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
             <a:srgbClr val="000000">
-              <a:alpha val="38000"/>
+              <a:alpha val="35000"/>
             </a:srgbClr>
           </a:outerShdw>
         </a:effectLst>
@@ -1324,7 +1315,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1352,10 +1343,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -3144,45 +3135,42 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M97"/>
+  <dimension ref="A1:J89"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8333" defaultRowHeight="13" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="10.8516" style="51" customWidth="1"/>
-    <col min="2" max="2" width="10.6719" style="51" customWidth="1"/>
-    <col min="3" max="3" width="10.6719" style="51" customWidth="1"/>
-    <col min="4" max="4" width="10.8516" style="51" customWidth="1"/>
-    <col min="5" max="5" width="10.8516" style="51" customWidth="1"/>
-    <col min="6" max="6" width="10.6719" style="51" customWidth="1"/>
-    <col min="7" max="7" width="10.8516" style="51" customWidth="1"/>
-    <col min="8" max="8" width="10.8516" style="51" customWidth="1"/>
-    <col min="9" max="9" width="10.8516" style="51" customWidth="1"/>
-    <col min="10" max="10" width="10.8516" style="51" customWidth="1"/>
-    <col min="11" max="11" width="10.8516" style="51" customWidth="1"/>
-    <col min="12" max="12" width="10.8516" style="51" customWidth="1"/>
-    <col min="13" max="13" width="10.8516" style="51" customWidth="1"/>
-    <col min="14" max="256" width="10.8516" style="51" customWidth="1"/>
+    <col min="1" max="1" width="10.8516" style="46" customWidth="1"/>
+    <col min="2" max="2" width="10.6719" style="46" customWidth="1"/>
+    <col min="3" max="3" width="10.6719" style="46" customWidth="1"/>
+    <col min="4" max="4" width="10.8516" style="46" customWidth="1"/>
+    <col min="5" max="5" width="10.8516" style="46" customWidth="1"/>
+    <col min="6" max="6" width="10.6719" style="46" customWidth="1"/>
+    <col min="7" max="7" width="10.8516" style="46" customWidth="1"/>
+    <col min="8" max="8" width="10.8516" style="46" customWidth="1"/>
+    <col min="9" max="9" width="10.8516" style="46" customWidth="1"/>
+    <col min="10" max="10" width="10.8516" style="46" customWidth="1"/>
+    <col min="11" max="256" width="10.8516" style="46" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" customHeight="1">
-      <c r="A1" t="s" s="52">
+      <c r="A1" t="s" s="47">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="52">
+      <c r="B1" t="s" s="47">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="52">
+      <c r="C1" t="s" s="47">
         <v>2</v>
       </c>
-      <c r="D1" s="53">
+      <c r="D1" s="48">
         <v>40564</v>
       </c>
-      <c r="E1" s="53">
+      <c r="E1" s="48">
         <v>40602</v>
       </c>
-      <c r="F1" s="53">
+      <c r="F1" s="48">
         <v>40642</v>
       </c>
       <c r="G1" s="49">
@@ -3197,9 +3185,6 @@
       <c r="J1" s="50">
         <v>40778</v>
       </c>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
     </row>
     <row r="2" ht="15" customHeight="1">
       <c r="A2" s="4">
@@ -3232,9 +3217,6 @@
       <c r="J2" s="4">
         <v>4.2</v>
       </c>
-      <c r="K2" s="24"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
     </row>
     <row r="3" ht="15" customHeight="1">
       <c r="A3" s="4">
@@ -3267,9 +3249,6 @@
       <c r="J3" s="4">
         <v>5.7</v>
       </c>
-      <c r="K3" s="25"/>
-      <c r="L3" s="35"/>
-      <c r="M3" s="35"/>
     </row>
     <row r="4" ht="15" customHeight="1">
       <c r="A4" s="4">
@@ -3302,9 +3281,6 @@
       <c r="J4" s="4">
         <v>3.3</v>
       </c>
-      <c r="K4" s="25"/>
-      <c r="L4" s="35"/>
-      <c r="M4" s="35"/>
     </row>
     <row r="5" ht="15" customHeight="1">
       <c r="A5" s="7">
@@ -3337,9 +3313,6 @@
       <c r="J5" s="4">
         <v>3.7</v>
       </c>
-      <c r="K5" s="25"/>
-      <c r="L5" s="35"/>
-      <c r="M5" s="35"/>
     </row>
     <row r="6" ht="15" customHeight="1">
       <c r="A6" s="7">
@@ -3372,9 +3345,6 @@
       <c r="J6" s="4">
         <v>3.6</v>
       </c>
-      <c r="K6" s="25"/>
-      <c r="L6" s="35"/>
-      <c r="M6" s="35"/>
     </row>
     <row r="7" ht="15" customHeight="1">
       <c r="A7" s="4">
@@ -3407,9 +3377,6 @@
       <c r="J7" s="4">
         <v>5.1</v>
       </c>
-      <c r="K7" s="25"/>
-      <c r="L7" s="35"/>
-      <c r="M7" s="35"/>
     </row>
     <row r="8" ht="15" customHeight="1">
       <c r="A8" s="4">
@@ -3442,9 +3409,6 @@
       <c r="J8" s="4">
         <v>3.6</v>
       </c>
-      <c r="K8" s="25"/>
-      <c r="L8" s="35"/>
-      <c r="M8" s="35"/>
     </row>
     <row r="9" ht="15" customHeight="1">
       <c r="A9" s="7">
@@ -3477,9 +3441,6 @@
       <c r="J9" s="4">
         <v>3.7</v>
       </c>
-      <c r="K9" s="25"/>
-      <c r="L9" s="35"/>
-      <c r="M9" s="35"/>
     </row>
     <row r="10" ht="15" customHeight="1">
       <c r="A10" s="4">
@@ -3512,9 +3473,6 @@
       <c r="J10" s="4">
         <v>3.5</v>
       </c>
-      <c r="K10" s="25"/>
-      <c r="L10" s="35"/>
-      <c r="M10" s="35"/>
     </row>
     <row r="11" ht="15" customHeight="1">
       <c r="A11" s="7">
@@ -3547,9 +3505,6 @@
       <c r="J11" s="4">
         <v>3.6</v>
       </c>
-      <c r="K11" s="25"/>
-      <c r="L11" s="35"/>
-      <c r="M11" s="35"/>
     </row>
     <row r="12" ht="15" customHeight="1">
       <c r="A12" s="7">
@@ -3582,9 +3537,6 @@
       <c r="J12" s="4">
         <v>6</v>
       </c>
-      <c r="K12" s="25"/>
-      <c r="L12" s="35"/>
-      <c r="M12" s="35"/>
     </row>
     <row r="13" ht="15" customHeight="1">
       <c r="A13" s="4">
@@ -3617,9 +3569,6 @@
       <c r="J13" t="s" s="5">
         <v>11</v>
       </c>
-      <c r="K13" s="25"/>
-      <c r="L13" s="35"/>
-      <c r="M13" s="35"/>
     </row>
     <row r="14" ht="15" customHeight="1">
       <c r="A14" s="4">
@@ -3652,9 +3601,6 @@
       <c r="J14" t="s" s="5">
         <v>11</v>
       </c>
-      <c r="K14" s="25"/>
-      <c r="L14" s="35"/>
-      <c r="M14" s="35"/>
     </row>
     <row r="15" ht="15" customHeight="1">
       <c r="A15" s="7">
@@ -3687,9 +3633,6 @@
       <c r="J15" s="4">
         <v>4</v>
       </c>
-      <c r="K15" s="25"/>
-      <c r="L15" s="35"/>
-      <c r="M15" s="35"/>
     </row>
     <row r="16" ht="15" customHeight="1">
       <c r="A16" s="4">
@@ -3722,9 +3665,6 @@
       <c r="J16" s="4">
         <v>5.1</v>
       </c>
-      <c r="K16" s="25"/>
-      <c r="L16" s="35"/>
-      <c r="M16" s="35"/>
     </row>
     <row r="17" ht="15" customHeight="1">
       <c r="A17" s="7">
@@ -3757,9 +3697,6 @@
       <c r="J17" s="4">
         <v>7.3</v>
       </c>
-      <c r="K17" s="25"/>
-      <c r="L17" s="35"/>
-      <c r="M17" s="35"/>
     </row>
     <row r="18" ht="15" customHeight="1">
       <c r="A18" s="7">
@@ -3792,9 +3729,6 @@
       <c r="J18" s="4">
         <v>5.7</v>
       </c>
-      <c r="K18" s="25"/>
-      <c r="L18" s="35"/>
-      <c r="M18" s="35"/>
     </row>
     <row r="19" ht="15" customHeight="1">
       <c r="A19" s="4">
@@ -3827,9 +3761,6 @@
       <c r="J19" s="4">
         <v>4.8</v>
       </c>
-      <c r="K19" s="25"/>
-      <c r="L19" s="35"/>
-      <c r="M19" s="35"/>
     </row>
     <row r="20" ht="15" customHeight="1">
       <c r="A20" s="7">
@@ -3862,9 +3793,6 @@
       <c r="J20" s="4">
         <v>5.6</v>
       </c>
-      <c r="K20" s="25"/>
-      <c r="L20" s="35"/>
-      <c r="M20" s="35"/>
     </row>
     <row r="21" ht="15" customHeight="1">
       <c r="A21" s="7">
@@ -3897,9 +3825,6 @@
       <c r="J21" s="4">
         <v>4.4</v>
       </c>
-      <c r="K21" s="25"/>
-      <c r="L21" s="35"/>
-      <c r="M21" s="35"/>
     </row>
     <row r="22" ht="15" customHeight="1">
       <c r="A22" s="7">
@@ -3932,9 +3857,6 @@
       <c r="J22" s="4">
         <v>4</v>
       </c>
-      <c r="K22" s="25"/>
-      <c r="L22" s="35"/>
-      <c r="M22" s="35"/>
     </row>
     <row r="23" ht="15" customHeight="1">
       <c r="A23" s="4">
@@ -3967,9 +3889,6 @@
       <c r="J23" s="4">
         <v>3.8</v>
       </c>
-      <c r="K23" s="25"/>
-      <c r="L23" s="35"/>
-      <c r="M23" s="35"/>
     </row>
     <row r="24" ht="15" customHeight="1">
       <c r="A24" s="4">
@@ -4002,9 +3921,6 @@
       <c r="J24" s="4">
         <v>5.8</v>
       </c>
-      <c r="K24" s="25"/>
-      <c r="L24" s="35"/>
-      <c r="M24" s="35"/>
     </row>
     <row r="25" ht="15" customHeight="1">
       <c r="A25" s="7">
@@ -4037,9 +3953,6 @@
       <c r="J25" s="4">
         <v>6</v>
       </c>
-      <c r="K25" s="25"/>
-      <c r="L25" s="35"/>
-      <c r="M25" s="35"/>
     </row>
     <row r="26" ht="15" customHeight="1">
       <c r="A26" s="7">
@@ -4072,9 +3985,6 @@
       <c r="J26" s="4">
         <v>3.9</v>
       </c>
-      <c r="K26" s="25"/>
-      <c r="L26" s="35"/>
-      <c r="M26" s="35"/>
     </row>
     <row r="27" ht="15" customHeight="1">
       <c r="A27" s="7">
@@ -4107,9 +4017,6 @@
       <c r="J27" s="4">
         <v>4.1</v>
       </c>
-      <c r="K27" s="25"/>
-      <c r="L27" s="35"/>
-      <c r="M27" s="35"/>
     </row>
     <row r="28" ht="15" customHeight="1">
       <c r="A28" s="7">
@@ -4142,9 +4049,6 @@
       <c r="J28" s="4">
         <v>5.8</v>
       </c>
-      <c r="K28" s="25"/>
-      <c r="L28" s="35"/>
-      <c r="M28" s="35"/>
     </row>
     <row r="29" ht="15" customHeight="1">
       <c r="A29" s="4">
@@ -4177,9 +4081,6 @@
       <c r="J29" s="4">
         <v>4.7</v>
       </c>
-      <c r="K29" s="25"/>
-      <c r="L29" s="35"/>
-      <c r="M29" s="35"/>
     </row>
     <row r="30" ht="15" customHeight="1">
       <c r="A30" s="4">
@@ -4212,9 +4113,6 @@
       <c r="J30" s="4">
         <v>3.7</v>
       </c>
-      <c r="K30" s="25"/>
-      <c r="L30" s="35"/>
-      <c r="M30" s="35"/>
     </row>
     <row r="31" ht="15" customHeight="1">
       <c r="A31" s="7">
@@ -4247,9 +4145,6 @@
       <c r="J31" s="4">
         <v>5.4</v>
       </c>
-      <c r="K31" s="25"/>
-      <c r="L31" s="35"/>
-      <c r="M31" s="35"/>
     </row>
     <row r="32" ht="15" customHeight="1">
       <c r="A32" s="4">
@@ -4282,9 +4177,6 @@
       <c r="J32" s="4">
         <v>5.9</v>
       </c>
-      <c r="K32" s="25"/>
-      <c r="L32" s="35"/>
-      <c r="M32" s="35"/>
     </row>
     <row r="33" ht="15" customHeight="1">
       <c r="A33" s="7">
@@ -4317,9 +4209,6 @@
       <c r="J33" t="s" s="5">
         <v>11</v>
       </c>
-      <c r="K33" s="25"/>
-      <c r="L33" s="35"/>
-      <c r="M33" s="35"/>
     </row>
     <row r="34" ht="14" customHeight="1">
       <c r="A34" s="7">
@@ -4352,9 +4241,6 @@
       <c r="J34" s="4">
         <v>5.3</v>
       </c>
-      <c r="K34" s="25"/>
-      <c r="L34" s="35"/>
-      <c r="M34" s="35"/>
     </row>
     <row r="35" ht="15" customHeight="1">
       <c r="A35" s="7">
@@ -4387,9 +4273,6 @@
       <c r="J35" s="4">
         <v>5.7</v>
       </c>
-      <c r="K35" s="25"/>
-      <c r="L35" s="35"/>
-      <c r="M35" s="35"/>
     </row>
     <row r="36" ht="15" customHeight="1">
       <c r="A36" s="7">
@@ -4422,9 +4305,6 @@
       <c r="J36" s="4">
         <v>6.5</v>
       </c>
-      <c r="K36" s="25"/>
-      <c r="L36" s="35"/>
-      <c r="M36" s="35"/>
     </row>
     <row r="37" ht="15" customHeight="1">
       <c r="A37" s="7">
@@ -4457,9 +4337,6 @@
       <c r="J37" s="4">
         <v>5.3</v>
       </c>
-      <c r="K37" s="25"/>
-      <c r="L37" s="35"/>
-      <c r="M37" s="35"/>
     </row>
     <row r="38" ht="15" customHeight="1">
       <c r="A38" s="4">
@@ -4492,9 +4369,6 @@
       <c r="J38" s="4">
         <v>5.8</v>
       </c>
-      <c r="K38" s="25"/>
-      <c r="L38" s="35"/>
-      <c r="M38" s="35"/>
     </row>
     <row r="39" ht="15" customHeight="1">
       <c r="A39" s="4">
@@ -4527,9 +4401,6 @@
       <c r="J39" s="4">
         <v>5.1</v>
       </c>
-      <c r="K39" s="25"/>
-      <c r="L39" s="35"/>
-      <c r="M39" s="35"/>
     </row>
     <row r="40" ht="15" customHeight="1">
       <c r="A40" s="4">
@@ -4562,9 +4433,6 @@
       <c r="J40" s="4">
         <v>6.7</v>
       </c>
-      <c r="K40" s="25"/>
-      <c r="L40" s="35"/>
-      <c r="M40" s="35"/>
     </row>
     <row r="41" ht="15" customHeight="1">
       <c r="A41" s="7">
@@ -4597,9 +4465,6 @@
       <c r="J41" s="4">
         <v>6.4</v>
       </c>
-      <c r="K41" s="25"/>
-      <c r="L41" s="35"/>
-      <c r="M41" s="35"/>
     </row>
     <row r="42" ht="15" customHeight="1">
       <c r="A42" s="7">
@@ -4632,9 +4497,6 @@
       <c r="J42" t="s" s="5">
         <v>11</v>
       </c>
-      <c r="K42" s="25"/>
-      <c r="L42" s="35"/>
-      <c r="M42" s="35"/>
     </row>
     <row r="43" ht="15" customHeight="1">
       <c r="A43" s="7">
@@ -4667,9 +4529,6 @@
       <c r="J43" s="4">
         <v>5.4</v>
       </c>
-      <c r="K43" s="25"/>
-      <c r="L43" s="35"/>
-      <c r="M43" s="35"/>
     </row>
     <row r="44" ht="15" customHeight="1">
       <c r="A44" s="7">
@@ -4702,9 +4561,6 @@
       <c r="J44" s="4">
         <v>5.5</v>
       </c>
-      <c r="K44" s="25"/>
-      <c r="L44" s="35"/>
-      <c r="M44" s="35"/>
     </row>
     <row r="45" ht="14" customHeight="1">
       <c r="A45" s="10">
@@ -4737,9 +4593,6 @@
       <c r="J45" s="21">
         <v>4.8</v>
       </c>
-      <c r="K45" s="25"/>
-      <c r="L45" s="35"/>
-      <c r="M45" s="35"/>
     </row>
     <row r="46" ht="15.5" customHeight="1">
       <c r="A46" s="14">
@@ -4772,9 +4625,6 @@
       <c r="J46" s="14">
         <v>6.2</v>
       </c>
-      <c r="K46" s="25"/>
-      <c r="L46" s="35"/>
-      <c r="M46" s="35"/>
     </row>
     <row r="47" ht="15" customHeight="1">
       <c r="A47" s="4">
@@ -4807,9 +4657,6 @@
       <c r="J47" t="s" s="5">
         <v>11</v>
       </c>
-      <c r="K47" s="25"/>
-      <c r="L47" s="35"/>
-      <c r="M47" s="35"/>
     </row>
     <row r="48" ht="15" customHeight="1">
       <c r="A48" s="4">
@@ -4842,9 +4689,6 @@
       <c r="J48" t="s" s="5">
         <v>11</v>
       </c>
-      <c r="K48" s="25"/>
-      <c r="L48" s="35"/>
-      <c r="M48" s="35"/>
     </row>
     <row r="49" ht="15" customHeight="1">
       <c r="A49" s="4">
@@ -4877,9 +4721,6 @@
       <c r="J49" s="4">
         <v>7.2</v>
       </c>
-      <c r="K49" s="25"/>
-      <c r="L49" s="35"/>
-      <c r="M49" s="35"/>
     </row>
     <row r="50" ht="15" customHeight="1">
       <c r="A50" s="4">
@@ -4912,9 +4753,6 @@
       <c r="J50" s="4">
         <v>5</v>
       </c>
-      <c r="K50" s="25"/>
-      <c r="L50" s="35"/>
-      <c r="M50" s="35"/>
     </row>
     <row r="51" ht="15" customHeight="1">
       <c r="A51" s="4">
@@ -4947,9 +4785,6 @@
       <c r="J51" s="4">
         <v>6.1</v>
       </c>
-      <c r="K51" s="25"/>
-      <c r="L51" s="35"/>
-      <c r="M51" s="35"/>
     </row>
     <row r="52" ht="15" customHeight="1">
       <c r="A52" s="4">
@@ -4982,9 +4817,6 @@
       <c r="J52" s="4">
         <v>5.9</v>
       </c>
-      <c r="K52" s="25"/>
-      <c r="L52" s="35"/>
-      <c r="M52" s="35"/>
     </row>
     <row r="53" ht="15" customHeight="1">
       <c r="A53" s="4">
@@ -5017,9 +4849,6 @@
       <c r="J53" s="4">
         <v>7.2</v>
       </c>
-      <c r="K53" s="25"/>
-      <c r="L53" s="35"/>
-      <c r="M53" s="35"/>
     </row>
     <row r="54" ht="15" customHeight="1">
       <c r="A54" s="4">
@@ -5052,9 +4881,6 @@
       <c r="J54" s="4">
         <v>6.7</v>
       </c>
-      <c r="K54" s="25"/>
-      <c r="L54" s="35"/>
-      <c r="M54" s="35"/>
     </row>
     <row r="55" ht="15" customHeight="1">
       <c r="A55" s="4">
@@ -5087,9 +4913,6 @@
       <c r="J55" s="4">
         <v>5</v>
       </c>
-      <c r="K55" s="25"/>
-      <c r="L55" s="35"/>
-      <c r="M55" s="35"/>
     </row>
     <row r="56" ht="15" customHeight="1">
       <c r="A56" s="4">
@@ -5122,9 +4945,6 @@
       <c r="J56" s="4">
         <v>6</v>
       </c>
-      <c r="K56" s="25"/>
-      <c r="L56" s="35"/>
-      <c r="M56" s="35"/>
     </row>
     <row r="57" ht="15" customHeight="1">
       <c r="A57" s="4">
@@ -5157,9 +4977,6 @@
       <c r="J57" s="4">
         <v>7.4</v>
       </c>
-      <c r="K57" s="25"/>
-      <c r="L57" s="35"/>
-      <c r="M57" s="35"/>
     </row>
     <row r="58" ht="15" customHeight="1">
       <c r="A58" s="4">
@@ -5192,9 +5009,6 @@
       <c r="J58" s="4">
         <v>7</v>
       </c>
-      <c r="K58" s="25"/>
-      <c r="L58" s="35"/>
-      <c r="M58" s="35"/>
     </row>
     <row r="59" ht="15" customHeight="1">
       <c r="A59" s="4">
@@ -5227,9 +5041,6 @@
       <c r="J59" s="4">
         <v>7.4</v>
       </c>
-      <c r="K59" s="25"/>
-      <c r="L59" s="35"/>
-      <c r="M59" s="35"/>
     </row>
     <row r="60" ht="15" customHeight="1">
       <c r="A60" s="4">
@@ -5262,9 +5073,6 @@
       <c r="J60" s="4">
         <v>6.1</v>
       </c>
-      <c r="K60" s="25"/>
-      <c r="L60" s="35"/>
-      <c r="M60" s="35"/>
     </row>
     <row r="61" ht="15" customHeight="1">
       <c r="A61" s="4">
@@ -5297,9 +5105,6 @@
       <c r="J61" s="4">
         <v>7.7</v>
       </c>
-      <c r="K61" s="25"/>
-      <c r="L61" s="35"/>
-      <c r="M61" s="35"/>
     </row>
     <row r="62" ht="15" customHeight="1">
       <c r="A62" s="4">
@@ -5332,9 +5137,6 @@
       <c r="J62" s="4">
         <v>5.7</v>
       </c>
-      <c r="K62" s="25"/>
-      <c r="L62" s="35"/>
-      <c r="M62" s="35"/>
     </row>
     <row r="63" ht="15" customHeight="1">
       <c r="A63" s="4">
@@ -5367,9 +5169,6 @@
       <c r="J63" s="4">
         <v>7.1</v>
       </c>
-      <c r="K63" s="25"/>
-      <c r="L63" s="35"/>
-      <c r="M63" s="35"/>
     </row>
     <row r="64" ht="15" customHeight="1">
       <c r="A64" s="4">
@@ -5402,9 +5201,6 @@
       <c r="J64" s="4">
         <v>6.4</v>
       </c>
-      <c r="K64" s="25"/>
-      <c r="L64" s="35"/>
-      <c r="M64" s="35"/>
     </row>
     <row r="65" ht="15" customHeight="1">
       <c r="A65" s="4">
@@ -5437,9 +5233,6 @@
       <c r="J65" s="4">
         <v>7.5</v>
       </c>
-      <c r="K65" s="25"/>
-      <c r="L65" s="35"/>
-      <c r="M65" s="35"/>
     </row>
     <row r="66" ht="15" customHeight="1">
       <c r="A66" s="4">
@@ -5472,9 +5265,6 @@
       <c r="J66" s="4">
         <v>6.2</v>
       </c>
-      <c r="K66" s="25"/>
-      <c r="L66" s="35"/>
-      <c r="M66" s="35"/>
     </row>
     <row r="67" ht="15" customHeight="1">
       <c r="A67" s="4">
@@ -5507,9 +5297,6 @@
       <c r="J67" s="4">
         <v>6.7</v>
       </c>
-      <c r="K67" s="25"/>
-      <c r="L67" s="35"/>
-      <c r="M67" s="35"/>
     </row>
     <row r="68" ht="15" customHeight="1">
       <c r="A68" s="4">
@@ -5542,9 +5329,6 @@
       <c r="J68" s="4">
         <v>5</v>
       </c>
-      <c r="K68" s="25"/>
-      <c r="L68" s="35"/>
-      <c r="M68" s="35"/>
     </row>
     <row r="69" ht="15" customHeight="1">
       <c r="A69" s="4">
@@ -5577,9 +5361,6 @@
       <c r="J69" s="4">
         <v>6.3</v>
       </c>
-      <c r="K69" s="25"/>
-      <c r="L69" s="35"/>
-      <c r="M69" s="35"/>
     </row>
     <row r="70" ht="15" customHeight="1">
       <c r="A70" s="4">
@@ -5612,9 +5393,6 @@
       <c r="J70" s="4">
         <v>5.4</v>
       </c>
-      <c r="K70" s="25"/>
-      <c r="L70" s="35"/>
-      <c r="M70" s="35"/>
     </row>
     <row r="71" ht="15" customHeight="1">
       <c r="A71" s="4">
@@ -5647,9 +5425,6 @@
       <c r="J71" s="4">
         <v>5.3</v>
       </c>
-      <c r="K71" s="25"/>
-      <c r="L71" s="35"/>
-      <c r="M71" s="35"/>
     </row>
     <row r="72" ht="15" customHeight="1">
       <c r="A72" s="4">
@@ -5682,9 +5457,6 @@
       <c r="J72" s="4">
         <v>5.8</v>
       </c>
-      <c r="K72" s="25"/>
-      <c r="L72" s="35"/>
-      <c r="M72" s="35"/>
     </row>
     <row r="73" ht="15" customHeight="1">
       <c r="A73" s="4">
@@ -5717,9 +5489,6 @@
       <c r="J73" s="4">
         <v>6.3</v>
       </c>
-      <c r="K73" s="25"/>
-      <c r="L73" s="35"/>
-      <c r="M73" s="35"/>
     </row>
     <row r="74" ht="15" customHeight="1">
       <c r="A74" s="4">
@@ -5752,9 +5521,6 @@
       <c r="J74" s="4">
         <v>7.7</v>
       </c>
-      <c r="K74" s="25"/>
-      <c r="L74" s="35"/>
-      <c r="M74" s="35"/>
     </row>
     <row r="75" ht="13" customHeight="1">
       <c r="A75" s="4">
@@ -5787,9 +5553,6 @@
       <c r="J75" s="4">
         <v>5.8</v>
       </c>
-      <c r="K75" s="25"/>
-      <c r="L75" s="35"/>
-      <c r="M75" s="35"/>
     </row>
     <row r="76" ht="15" customHeight="1">
       <c r="A76" s="4">
@@ -5822,9 +5585,6 @@
       <c r="J76" s="4">
         <v>6.1</v>
       </c>
-      <c r="K76" s="25"/>
-      <c r="L76" s="35"/>
-      <c r="M76" s="35"/>
     </row>
     <row r="77" ht="15" customHeight="1">
       <c r="A77" s="4">
@@ -5857,9 +5617,6 @@
       <c r="J77" s="4">
         <v>6</v>
       </c>
-      <c r="K77" s="25"/>
-      <c r="L77" s="35"/>
-      <c r="M77" s="35"/>
     </row>
     <row r="78" ht="15" customHeight="1">
       <c r="A78" s="4">
@@ -5892,9 +5649,6 @@
       <c r="J78" s="4">
         <v>7.3</v>
       </c>
-      <c r="K78" s="25"/>
-      <c r="L78" s="35"/>
-      <c r="M78" s="35"/>
     </row>
     <row r="79" ht="15" customHeight="1">
       <c r="A79" s="4">
@@ -5927,9 +5681,6 @@
       <c r="J79" s="4">
         <v>5.3</v>
       </c>
-      <c r="K79" s="25"/>
-      <c r="L79" s="35"/>
-      <c r="M79" s="35"/>
     </row>
     <row r="80" ht="15" customHeight="1">
       <c r="A80" s="4">
@@ -5962,9 +5713,6 @@
       <c r="J80" s="4">
         <v>5.5</v>
       </c>
-      <c r="K80" s="25"/>
-      <c r="L80" s="35"/>
-      <c r="M80" s="35"/>
     </row>
     <row r="81" ht="15" customHeight="1">
       <c r="A81" s="4">
@@ -5997,9 +5745,6 @@
       <c r="J81" s="4">
         <v>3.5</v>
       </c>
-      <c r="K81" s="25"/>
-      <c r="L81" s="35"/>
-      <c r="M81" s="35"/>
     </row>
     <row r="82" ht="15" customHeight="1">
       <c r="A82" s="4">
@@ -6032,9 +5777,6 @@
       <c r="J82" s="4">
         <v>7.2</v>
       </c>
-      <c r="K82" s="25"/>
-      <c r="L82" s="35"/>
-      <c r="M82" s="35"/>
     </row>
     <row r="83" ht="15" customHeight="1">
       <c r="A83" s="4">
@@ -6067,9 +5809,6 @@
       <c r="J83" s="4">
         <v>6.8</v>
       </c>
-      <c r="K83" s="25"/>
-      <c r="L83" s="35"/>
-      <c r="M83" s="35"/>
     </row>
     <row r="84" ht="15" customHeight="1">
       <c r="A84" s="4">
@@ -6102,9 +5841,6 @@
       <c r="J84" s="4">
         <v>6.7</v>
       </c>
-      <c r="K84" s="25"/>
-      <c r="L84" s="35"/>
-      <c r="M84" s="35"/>
     </row>
     <row r="85" ht="15" customHeight="1">
       <c r="A85" s="4">
@@ -6137,9 +5873,6 @@
       <c r="J85" s="4">
         <v>6.5</v>
       </c>
-      <c r="K85" s="25"/>
-      <c r="L85" s="35"/>
-      <c r="M85" s="35"/>
     </row>
     <row r="86" ht="15" customHeight="1">
       <c r="A86" s="4">
@@ -6172,9 +5905,6 @@
       <c r="J86" s="4">
         <v>7</v>
       </c>
-      <c r="K86" s="25"/>
-      <c r="L86" s="35"/>
-      <c r="M86" s="35"/>
     </row>
     <row r="87" ht="15" customHeight="1">
       <c r="A87" s="4">
@@ -6207,9 +5937,6 @@
       <c r="J87" s="4">
         <v>6.3</v>
       </c>
-      <c r="K87" s="25"/>
-      <c r="L87" s="35"/>
-      <c r="M87" s="35"/>
     </row>
     <row r="88" ht="15" customHeight="1">
       <c r="A88" s="4">
@@ -6242,9 +5969,6 @@
       <c r="J88" s="4">
         <v>4.8</v>
       </c>
-      <c r="K88" s="25"/>
-      <c r="L88" s="35"/>
-      <c r="M88" s="35"/>
     </row>
     <row r="89" ht="13" customHeight="1">
       <c r="A89" s="4">
@@ -6262,7 +5986,7 @@
       <c r="E89" s="9">
         <v>3.3</v>
       </c>
-      <c r="F89" s="38">
+      <c r="F89" s="33">
         <v>3.7</v>
       </c>
       <c r="G89" s="9">
@@ -6277,129 +6001,6 @@
       <c r="J89" s="4">
         <v>6.1</v>
       </c>
-      <c r="K89" s="25"/>
-      <c r="L89" s="35"/>
-      <c r="M89" s="35"/>
-    </row>
-    <row r="90" ht="15" customHeight="1">
-      <c r="A90" s="31"/>
-      <c r="B90" s="32"/>
-      <c r="C90" s="32"/>
-      <c r="D90" s="31"/>
-      <c r="E90" s="31"/>
-      <c r="F90" s="32"/>
-      <c r="G90" s="31"/>
-      <c r="H90" s="31"/>
-      <c r="I90" s="33"/>
-      <c r="J90" s="33"/>
-      <c r="K90" s="35"/>
-      <c r="L90" s="35"/>
-      <c r="M90" s="35"/>
-    </row>
-    <row r="91" ht="15" customHeight="1">
-      <c r="A91" s="29"/>
-      <c r="B91" s="36"/>
-      <c r="C91" s="36"/>
-      <c r="D91" s="29"/>
-      <c r="E91" s="29"/>
-      <c r="F91" s="36"/>
-      <c r="G91" s="29"/>
-      <c r="H91" s="29"/>
-      <c r="I91" s="35"/>
-      <c r="J91" s="35"/>
-      <c r="K91" s="35"/>
-      <c r="L91" s="35"/>
-      <c r="M91" s="35"/>
-    </row>
-    <row r="92" ht="15" customHeight="1">
-      <c r="A92" s="29"/>
-      <c r="B92" s="36"/>
-      <c r="C92" s="36"/>
-      <c r="D92" s="29"/>
-      <c r="E92" s="29"/>
-      <c r="F92" s="36"/>
-      <c r="G92" s="29"/>
-      <c r="H92" s="29"/>
-      <c r="I92" s="35"/>
-      <c r="J92" s="35"/>
-      <c r="K92" s="35"/>
-      <c r="L92" s="35"/>
-      <c r="M92" s="35"/>
-    </row>
-    <row r="93" ht="15" customHeight="1">
-      <c r="A93" s="29"/>
-      <c r="B93" s="36"/>
-      <c r="C93" s="36"/>
-      <c r="D93" s="29"/>
-      <c r="E93" s="29"/>
-      <c r="F93" s="36"/>
-      <c r="G93" s="29"/>
-      <c r="H93" s="29"/>
-      <c r="I93" s="35"/>
-      <c r="J93" s="35"/>
-      <c r="K93" s="35"/>
-      <c r="L93" s="35"/>
-      <c r="M93" s="35"/>
-    </row>
-    <row r="94" ht="15" customHeight="1">
-      <c r="A94" s="29"/>
-      <c r="B94" s="36"/>
-      <c r="C94" s="36"/>
-      <c r="D94" s="29"/>
-      <c r="E94" s="29"/>
-      <c r="F94" s="36"/>
-      <c r="G94" s="29"/>
-      <c r="H94" s="29"/>
-      <c r="I94" s="35"/>
-      <c r="J94" s="35"/>
-      <c r="K94" s="35"/>
-      <c r="L94" s="35"/>
-      <c r="M94" s="35"/>
-    </row>
-    <row r="95" ht="15" customHeight="1">
-      <c r="A95" s="29"/>
-      <c r="B95" s="36"/>
-      <c r="C95" s="36"/>
-      <c r="D95" s="29"/>
-      <c r="E95" s="29"/>
-      <c r="F95" s="36"/>
-      <c r="G95" s="29"/>
-      <c r="H95" s="29"/>
-      <c r="I95" s="35"/>
-      <c r="J95" s="35"/>
-      <c r="K95" s="35"/>
-      <c r="L95" s="35"/>
-      <c r="M95" s="35"/>
-    </row>
-    <row r="96" ht="15" customHeight="1">
-      <c r="A96" s="29"/>
-      <c r="B96" s="36"/>
-      <c r="C96" s="36"/>
-      <c r="D96" s="29"/>
-      <c r="E96" s="29"/>
-      <c r="F96" s="36"/>
-      <c r="G96" s="29"/>
-      <c r="H96" s="29"/>
-      <c r="I96" s="35"/>
-      <c r="J96" s="35"/>
-      <c r="K96" s="35"/>
-      <c r="L96" s="35"/>
-      <c r="M96" s="35"/>
-    </row>
-    <row r="97" ht="15" customHeight="1">
-      <c r="A97" s="29"/>
-      <c r="B97" s="36"/>
-      <c r="C97" s="36"/>
-      <c r="D97" s="29"/>
-      <c r="E97" s="29"/>
-      <c r="F97" s="36"/>
-      <c r="G97" s="29"/>
-      <c r="H97" s="29"/>
-      <c r="I97" s="35"/>
-      <c r="J97" s="35"/>
-      <c r="K97" s="35"/>
-      <c r="L97" s="35"/>
-      <c r="M97" s="35"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6418,62 +6019,62 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8333" defaultRowHeight="13" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="10.8516" style="54" customWidth="1"/>
-    <col min="2" max="2" width="10.6719" style="54" customWidth="1"/>
-    <col min="3" max="3" width="10.6719" style="54" customWidth="1"/>
-    <col min="4" max="4" width="10.8516" style="54" customWidth="1"/>
-    <col min="5" max="5" width="10.8516" style="54" customWidth="1"/>
-    <col min="6" max="6" width="10.8516" style="54" customWidth="1"/>
-    <col min="7" max="7" width="10.6719" style="54" customWidth="1"/>
-    <col min="8" max="8" width="10.8516" style="54" customWidth="1"/>
-    <col min="9" max="9" width="10.8516" style="54" customWidth="1"/>
-    <col min="10" max="10" width="10.8516" style="54" customWidth="1"/>
-    <col min="11" max="11" width="10.8516" style="54" customWidth="1"/>
-    <col min="12" max="12" width="10.8516" style="54" customWidth="1"/>
-    <col min="13" max="13" width="10.8516" style="54" customWidth="1"/>
-    <col min="14" max="14" width="10.8516" style="54" customWidth="1"/>
-    <col min="15" max="15" width="10.8516" style="54" customWidth="1"/>
-    <col min="16" max="256" width="10.8516" style="54" customWidth="1"/>
+    <col min="1" max="1" width="10.8516" style="51" customWidth="1"/>
+    <col min="2" max="2" width="10.6719" style="51" customWidth="1"/>
+    <col min="3" max="3" width="10.6719" style="51" customWidth="1"/>
+    <col min="4" max="4" width="10.8516" style="51" customWidth="1"/>
+    <col min="5" max="5" width="10.8516" style="51" customWidth="1"/>
+    <col min="6" max="6" width="10.8516" style="51" customWidth="1"/>
+    <col min="7" max="7" width="10.6719" style="51" customWidth="1"/>
+    <col min="8" max="8" width="10.8516" style="51" customWidth="1"/>
+    <col min="9" max="9" width="10.8516" style="51" customWidth="1"/>
+    <col min="10" max="10" width="10.8516" style="51" customWidth="1"/>
+    <col min="11" max="11" width="10.8516" style="51" customWidth="1"/>
+    <col min="12" max="12" width="10.8516" style="51" customWidth="1"/>
+    <col min="13" max="13" width="10.8516" style="51" customWidth="1"/>
+    <col min="14" max="14" width="10.8516" style="51" customWidth="1"/>
+    <col min="15" max="15" width="10.8516" style="51" customWidth="1"/>
+    <col min="16" max="256" width="10.8516" style="51" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" customHeight="1">
-      <c r="A1" t="s" s="55">
+      <c r="A1" t="s" s="52">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="55">
+      <c r="B1" t="s" s="52">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="55">
+      <c r="C1" t="s" s="52">
         <v>2</v>
       </c>
-      <c r="D1" s="48">
+      <c r="D1" s="43">
         <v>40554</v>
       </c>
-      <c r="E1" s="48">
+      <c r="E1" s="43">
         <v>40564</v>
       </c>
-      <c r="F1" s="48">
+      <c r="F1" s="43">
         <v>40602</v>
       </c>
-      <c r="G1" s="48">
+      <c r="G1" s="43">
         <v>40642</v>
       </c>
-      <c r="H1" s="49">
+      <c r="H1" s="44">
         <v>40674</v>
       </c>
-      <c r="I1" s="48">
+      <c r="I1" s="43">
         <v>40701</v>
       </c>
-      <c r="J1" s="48">
+      <c r="J1" s="43">
         <v>40732</v>
       </c>
-      <c r="K1" s="50">
+      <c r="K1" s="45">
         <v>40778</v>
       </c>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
-      <c r="N1" s="29"/>
-      <c r="O1" s="29"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="28"/>
     </row>
     <row r="2" ht="15" customHeight="1">
       <c r="A2" s="4">
@@ -6485,34 +6086,34 @@
       <c r="C2" t="s" s="5">
         <v>6</v>
       </c>
-      <c r="D2" s="56">
-        <v>4</v>
-      </c>
-      <c r="E2" s="57">
-        <v>4</v>
-      </c>
-      <c r="F2" s="57">
-        <v>4</v>
-      </c>
-      <c r="G2" s="57">
-        <v>8</v>
-      </c>
-      <c r="H2" s="57">
+      <c r="D2" s="53">
+        <v>4</v>
+      </c>
+      <c r="E2" s="54">
+        <v>4</v>
+      </c>
+      <c r="F2" s="54">
+        <v>4</v>
+      </c>
+      <c r="G2" s="54">
+        <v>8</v>
+      </c>
+      <c r="H2" s="54">
         <v>14</v>
       </c>
-      <c r="I2" s="57">
+      <c r="I2" s="54">
         <v>20</v>
       </c>
-      <c r="J2" s="57">
+      <c r="J2" s="54">
         <v>22</v>
       </c>
       <c r="K2" s="4">
         <v>22</v>
       </c>
       <c r="L2" s="24"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="29"/>
-      <c r="O2" s="29"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="28"/>
+      <c r="O2" s="28"/>
     </row>
     <row r="3" ht="15" customHeight="1">
       <c r="A3" s="4">
@@ -6524,34 +6125,34 @@
       <c r="C3" t="s" s="5">
         <v>7</v>
       </c>
-      <c r="D3" s="56">
-        <v>4</v>
-      </c>
-      <c r="E3" s="57">
-        <v>4</v>
-      </c>
-      <c r="F3" s="57">
-        <v>6</v>
-      </c>
-      <c r="G3" s="57">
-        <v>10</v>
-      </c>
-      <c r="H3" s="57">
+      <c r="D3" s="53">
+        <v>4</v>
+      </c>
+      <c r="E3" s="54">
+        <v>4</v>
+      </c>
+      <c r="F3" s="54">
+        <v>6</v>
+      </c>
+      <c r="G3" s="54">
+        <v>10</v>
+      </c>
+      <c r="H3" s="54">
         <v>32</v>
       </c>
-      <c r="I3" s="57">
+      <c r="I3" s="54">
         <v>44</v>
       </c>
-      <c r="J3" s="57">
+      <c r="J3" s="54">
         <v>62</v>
       </c>
       <c r="K3" s="4">
         <v>92</v>
       </c>
-      <c r="L3" s="25"/>
-      <c r="M3" s="35"/>
-      <c r="N3" s="35"/>
-      <c r="O3" s="35"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="28"/>
+      <c r="N3" s="28"/>
+      <c r="O3" s="28"/>
     </row>
     <row r="4" ht="15" customHeight="1">
       <c r="A4" s="4">
@@ -6563,34 +6164,34 @@
       <c r="C4" t="s" s="5">
         <v>6</v>
       </c>
-      <c r="D4" s="56">
-        <v>4</v>
-      </c>
-      <c r="E4" s="57">
-        <v>4</v>
-      </c>
-      <c r="F4" s="57">
-        <v>4</v>
-      </c>
-      <c r="G4" s="57">
-        <v>10</v>
-      </c>
-      <c r="H4" s="57">
+      <c r="D4" s="53">
+        <v>4</v>
+      </c>
+      <c r="E4" s="54">
+        <v>4</v>
+      </c>
+      <c r="F4" s="54">
+        <v>4</v>
+      </c>
+      <c r="G4" s="54">
+        <v>10</v>
+      </c>
+      <c r="H4" s="54">
         <v>32</v>
       </c>
-      <c r="I4" s="57">
+      <c r="I4" s="54">
         <v>38</v>
       </c>
-      <c r="J4" s="57">
+      <c r="J4" s="54">
         <v>52</v>
       </c>
       <c r="K4" s="4">
         <v>52</v>
       </c>
-      <c r="L4" s="25"/>
-      <c r="M4" s="35"/>
-      <c r="N4" s="35"/>
-      <c r="O4" s="35"/>
+      <c r="L4" s="24"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="28"/>
     </row>
     <row r="5" ht="15" customHeight="1">
       <c r="A5" s="7">
@@ -6602,34 +6203,34 @@
       <c r="C5" t="s" s="8">
         <v>7</v>
       </c>
-      <c r="D5" s="56">
-        <v>4</v>
-      </c>
-      <c r="E5" s="57">
-        <v>6</v>
-      </c>
-      <c r="F5" s="57">
-        <v>6</v>
-      </c>
-      <c r="G5" s="57">
+      <c r="D5" s="53">
+        <v>4</v>
+      </c>
+      <c r="E5" s="54">
+        <v>6</v>
+      </c>
+      <c r="F5" s="54">
+        <v>6</v>
+      </c>
+      <c r="G5" s="54">
         <v>13</v>
       </c>
-      <c r="H5" s="57">
+      <c r="H5" s="54">
         <v>32</v>
       </c>
-      <c r="I5" s="57">
+      <c r="I5" s="54">
         <v>32</v>
       </c>
-      <c r="J5" s="57">
+      <c r="J5" s="54">
         <v>46</v>
       </c>
       <c r="K5" s="4">
         <v>46</v>
       </c>
-      <c r="L5" s="25"/>
-      <c r="M5" s="35"/>
-      <c r="N5" s="35"/>
-      <c r="O5" s="35"/>
+      <c r="L5" s="24"/>
+      <c r="M5" s="28"/>
+      <c r="N5" s="28"/>
+      <c r="O5" s="28"/>
     </row>
     <row r="6" ht="15" customHeight="1">
       <c r="A6" s="7">
@@ -6641,34 +6242,34 @@
       <c r="C6" t="s" s="8">
         <v>8</v>
       </c>
-      <c r="D6" s="56">
-        <v>4</v>
-      </c>
-      <c r="E6" s="57">
-        <v>4</v>
-      </c>
-      <c r="F6" s="57">
-        <v>6</v>
-      </c>
-      <c r="G6" s="57">
+      <c r="D6" s="53">
+        <v>4</v>
+      </c>
+      <c r="E6" s="54">
+        <v>4</v>
+      </c>
+      <c r="F6" s="54">
+        <v>6</v>
+      </c>
+      <c r="G6" s="54">
         <v>19</v>
       </c>
-      <c r="H6" s="57">
+      <c r="H6" s="54">
         <v>37</v>
       </c>
-      <c r="I6" s="57">
+      <c r="I6" s="54">
         <v>43</v>
       </c>
-      <c r="J6" s="57">
+      <c r="J6" s="54">
         <v>77</v>
       </c>
       <c r="K6" s="4">
         <v>77</v>
       </c>
-      <c r="L6" s="25"/>
-      <c r="M6" s="35"/>
-      <c r="N6" s="35"/>
-      <c r="O6" s="35"/>
+      <c r="L6" s="24"/>
+      <c r="M6" s="28"/>
+      <c r="N6" s="28"/>
+      <c r="O6" s="28"/>
     </row>
     <row r="7" ht="15" customHeight="1">
       <c r="A7" s="4">
@@ -6680,34 +6281,34 @@
       <c r="C7" t="s" s="5">
         <v>7</v>
       </c>
-      <c r="D7" s="56">
-        <v>4</v>
-      </c>
-      <c r="E7" s="57">
-        <v>4</v>
-      </c>
-      <c r="F7" s="57">
-        <v>4</v>
-      </c>
-      <c r="G7" s="57">
-        <v>8</v>
-      </c>
-      <c r="H7" s="57">
+      <c r="D7" s="53">
+        <v>4</v>
+      </c>
+      <c r="E7" s="54">
+        <v>4</v>
+      </c>
+      <c r="F7" s="54">
+        <v>4</v>
+      </c>
+      <c r="G7" s="54">
+        <v>8</v>
+      </c>
+      <c r="H7" s="54">
         <v>28</v>
       </c>
-      <c r="I7" s="57">
+      <c r="I7" s="54">
         <v>54</v>
       </c>
-      <c r="J7" s="57">
+      <c r="J7" s="54">
         <v>80</v>
       </c>
       <c r="K7" s="4">
         <v>118</v>
       </c>
-      <c r="L7" s="25"/>
-      <c r="M7" s="35"/>
-      <c r="N7" s="35"/>
-      <c r="O7" s="35"/>
+      <c r="L7" s="24"/>
+      <c r="M7" s="28"/>
+      <c r="N7" s="28"/>
+      <c r="O7" s="28"/>
     </row>
     <row r="8" ht="15" customHeight="1">
       <c r="A8" s="4">
@@ -6719,34 +6320,34 @@
       <c r="C8" t="s" s="5">
         <v>8</v>
       </c>
-      <c r="D8" s="56">
-        <v>4</v>
-      </c>
-      <c r="E8" s="57">
-        <v>4</v>
-      </c>
-      <c r="F8" s="57">
-        <v>6</v>
-      </c>
-      <c r="G8" s="57">
-        <v>10</v>
-      </c>
-      <c r="H8" s="57">
+      <c r="D8" s="53">
+        <v>4</v>
+      </c>
+      <c r="E8" s="54">
+        <v>4</v>
+      </c>
+      <c r="F8" s="54">
+        <v>6</v>
+      </c>
+      <c r="G8" s="54">
+        <v>10</v>
+      </c>
+      <c r="H8" s="54">
         <v>28</v>
       </c>
-      <c r="I8" s="57">
+      <c r="I8" s="54">
         <v>27</v>
       </c>
-      <c r="J8" s="57">
+      <c r="J8" s="54">
         <v>28</v>
       </c>
       <c r="K8" s="4">
         <v>29</v>
       </c>
-      <c r="L8" s="25"/>
-      <c r="M8" s="35"/>
-      <c r="N8" s="35"/>
-      <c r="O8" s="35"/>
+      <c r="L8" s="24"/>
+      <c r="M8" s="28"/>
+      <c r="N8" s="28"/>
+      <c r="O8" s="28"/>
     </row>
     <row r="9" ht="15" customHeight="1">
       <c r="A9" s="7">
@@ -6758,34 +6359,34 @@
       <c r="C9" t="s" s="8">
         <v>6</v>
       </c>
-      <c r="D9" s="56">
-        <v>4</v>
-      </c>
-      <c r="E9" s="57">
-        <v>4</v>
-      </c>
-      <c r="F9" s="57">
-        <v>6</v>
-      </c>
-      <c r="G9" s="57">
+      <c r="D9" s="53">
+        <v>4</v>
+      </c>
+      <c r="E9" s="54">
+        <v>4</v>
+      </c>
+      <c r="F9" s="54">
+        <v>6</v>
+      </c>
+      <c r="G9" s="54">
         <v>16</v>
       </c>
-      <c r="H9" s="57">
+      <c r="H9" s="54">
         <v>30</v>
       </c>
-      <c r="I9" s="57">
+      <c r="I9" s="54">
         <v>31</v>
       </c>
-      <c r="J9" s="57">
+      <c r="J9" s="54">
         <v>36</v>
       </c>
       <c r="K9" s="4">
         <v>36</v>
       </c>
-      <c r="L9" s="25"/>
-      <c r="M9" s="35"/>
-      <c r="N9" s="35"/>
-      <c r="O9" s="35"/>
+      <c r="L9" s="24"/>
+      <c r="M9" s="28"/>
+      <c r="N9" s="28"/>
+      <c r="O9" s="28"/>
     </row>
     <row r="10" ht="15" customHeight="1">
       <c r="A10" s="4">
@@ -6797,34 +6398,34 @@
       <c r="C10" t="s" s="5">
         <v>6</v>
       </c>
-      <c r="D10" s="56">
-        <v>4</v>
-      </c>
-      <c r="E10" s="57">
-        <v>4</v>
-      </c>
-      <c r="F10" s="57">
-        <v>4</v>
-      </c>
-      <c r="G10" s="57">
-        <v>6</v>
-      </c>
-      <c r="H10" s="57">
+      <c r="D10" s="53">
+        <v>4</v>
+      </c>
+      <c r="E10" s="54">
+        <v>4</v>
+      </c>
+      <c r="F10" s="54">
+        <v>4</v>
+      </c>
+      <c r="G10" s="54">
+        <v>6</v>
+      </c>
+      <c r="H10" s="54">
         <v>13</v>
       </c>
-      <c r="I10" s="57">
-        <v>11</v>
-      </c>
-      <c r="J10" s="57">
+      <c r="I10" s="54">
+        <v>11</v>
+      </c>
+      <c r="J10" s="54">
         <v>11</v>
       </c>
       <c r="K10" s="4">
         <v>11</v>
       </c>
-      <c r="L10" s="25"/>
-      <c r="M10" s="35"/>
-      <c r="N10" s="35"/>
-      <c r="O10" s="35"/>
+      <c r="L10" s="24"/>
+      <c r="M10" s="28"/>
+      <c r="N10" s="28"/>
+      <c r="O10" s="28"/>
     </row>
     <row r="11" ht="15" customHeight="1">
       <c r="A11" s="7">
@@ -6836,34 +6437,34 @@
       <c r="C11" t="s" s="8">
         <v>7</v>
       </c>
-      <c r="D11" s="56">
-        <v>4</v>
-      </c>
-      <c r="E11" s="57">
-        <v>4</v>
-      </c>
-      <c r="F11" s="57">
-        <v>6</v>
-      </c>
-      <c r="G11" s="57">
+      <c r="D11" s="53">
+        <v>4</v>
+      </c>
+      <c r="E11" s="54">
+        <v>4</v>
+      </c>
+      <c r="F11" s="54">
+        <v>6</v>
+      </c>
+      <c r="G11" s="54">
         <v>16</v>
       </c>
-      <c r="H11" s="57">
+      <c r="H11" s="54">
         <v>24</v>
       </c>
-      <c r="I11" s="57">
+      <c r="I11" s="54">
         <v>26</v>
       </c>
-      <c r="J11" s="57">
+      <c r="J11" s="54">
         <v>26</v>
       </c>
       <c r="K11" s="4">
         <v>26</v>
       </c>
-      <c r="L11" s="25"/>
-      <c r="M11" s="35"/>
-      <c r="N11" s="35"/>
-      <c r="O11" s="35"/>
+      <c r="L11" s="24"/>
+      <c r="M11" s="28"/>
+      <c r="N11" s="28"/>
+      <c r="O11" s="28"/>
     </row>
     <row r="12" ht="15" customHeight="1">
       <c r="A12" s="7">
@@ -6875,34 +6476,34 @@
       <c r="C12" t="s" s="8">
         <v>8</v>
       </c>
-      <c r="D12" s="56">
-        <v>4</v>
-      </c>
-      <c r="E12" s="57">
-        <v>4</v>
-      </c>
-      <c r="F12" s="57">
-        <v>6</v>
-      </c>
-      <c r="G12" s="57">
+      <c r="D12" s="53">
+        <v>4</v>
+      </c>
+      <c r="E12" s="54">
+        <v>4</v>
+      </c>
+      <c r="F12" s="54">
+        <v>6</v>
+      </c>
+      <c r="G12" s="54">
         <v>16</v>
       </c>
-      <c r="H12" s="57">
+      <c r="H12" s="54">
         <v>32</v>
       </c>
-      <c r="I12" s="57">
+      <c r="I12" s="54">
         <v>52</v>
       </c>
-      <c r="J12" s="57">
+      <c r="J12" s="54">
         <v>81</v>
       </c>
       <c r="K12" s="4">
         <v>134</v>
       </c>
-      <c r="L12" s="25"/>
-      <c r="M12" s="35"/>
-      <c r="N12" s="35"/>
-      <c r="O12" s="35"/>
+      <c r="L12" s="24"/>
+      <c r="M12" s="28"/>
+      <c r="N12" s="28"/>
+      <c r="O12" s="28"/>
     </row>
     <row r="13" ht="15" customHeight="1">
       <c r="A13" s="4">
@@ -6914,34 +6515,34 @@
       <c r="C13" t="s" s="5">
         <v>7</v>
       </c>
-      <c r="D13" s="56">
-        <v>4</v>
-      </c>
-      <c r="E13" s="57">
-        <v>4</v>
-      </c>
-      <c r="F13" s="57">
-        <v>6</v>
-      </c>
-      <c r="G13" s="57">
-        <v>8</v>
-      </c>
-      <c r="H13" s="57">
+      <c r="D13" s="53">
+        <v>4</v>
+      </c>
+      <c r="E13" s="54">
+        <v>4</v>
+      </c>
+      <c r="F13" s="54">
+        <v>6</v>
+      </c>
+      <c r="G13" s="54">
+        <v>8</v>
+      </c>
+      <c r="H13" s="54">
         <v>18</v>
       </c>
-      <c r="I13" s="57">
+      <c r="I13" s="54">
         <v>30</v>
       </c>
-      <c r="J13" s="57">
+      <c r="J13" s="54">
         <v>45</v>
       </c>
       <c r="K13" t="s" s="5">
         <v>11</v>
       </c>
-      <c r="L13" s="25"/>
-      <c r="M13" s="35"/>
-      <c r="N13" s="35"/>
-      <c r="O13" s="35"/>
+      <c r="L13" s="24"/>
+      <c r="M13" s="28"/>
+      <c r="N13" s="28"/>
+      <c r="O13" s="28"/>
     </row>
     <row r="14" ht="15" customHeight="1">
       <c r="A14" s="4">
@@ -6953,34 +6554,34 @@
       <c r="C14" t="s" s="5">
         <v>8</v>
       </c>
-      <c r="D14" s="56">
-        <v>4</v>
-      </c>
-      <c r="E14" s="57">
-        <v>4</v>
-      </c>
-      <c r="F14" s="57">
-        <v>4</v>
-      </c>
-      <c r="G14" s="57">
-        <v>8</v>
-      </c>
-      <c r="H14" s="57">
+      <c r="D14" s="53">
+        <v>4</v>
+      </c>
+      <c r="E14" s="54">
+        <v>4</v>
+      </c>
+      <c r="F14" s="54">
+        <v>4</v>
+      </c>
+      <c r="G14" s="54">
+        <v>8</v>
+      </c>
+      <c r="H14" s="54">
         <v>16</v>
       </c>
-      <c r="I14" s="57">
+      <c r="I14" s="54">
         <v>20</v>
       </c>
-      <c r="J14" s="57">
+      <c r="J14" s="54">
         <v>22</v>
       </c>
       <c r="K14" t="s" s="5">
         <v>11</v>
       </c>
-      <c r="L14" s="25"/>
-      <c r="M14" s="35"/>
-      <c r="N14" s="35"/>
-      <c r="O14" s="35"/>
+      <c r="L14" s="24"/>
+      <c r="M14" s="28"/>
+      <c r="N14" s="28"/>
+      <c r="O14" s="28"/>
     </row>
     <row r="15" ht="15" customHeight="1">
       <c r="A15" s="7">
@@ -6992,34 +6593,34 @@
       <c r="C15" t="s" s="8">
         <v>6</v>
       </c>
-      <c r="D15" s="56">
-        <v>4</v>
-      </c>
-      <c r="E15" s="57">
-        <v>4</v>
-      </c>
-      <c r="F15" s="57">
-        <v>4</v>
-      </c>
-      <c r="G15" s="57">
-        <v>8</v>
-      </c>
-      <c r="H15" s="57">
+      <c r="D15" s="53">
+        <v>4</v>
+      </c>
+      <c r="E15" s="54">
+        <v>4</v>
+      </c>
+      <c r="F15" s="54">
+        <v>4</v>
+      </c>
+      <c r="G15" s="54">
+        <v>8</v>
+      </c>
+      <c r="H15" s="54">
         <v>14</v>
       </c>
-      <c r="I15" s="57">
+      <c r="I15" s="54">
         <v>22</v>
       </c>
-      <c r="J15" s="57">
+      <c r="J15" s="54">
         <v>40</v>
       </c>
       <c r="K15" s="4">
         <v>40</v>
       </c>
-      <c r="L15" s="25"/>
-      <c r="M15" s="35"/>
-      <c r="N15" s="35"/>
-      <c r="O15" s="35"/>
+      <c r="L15" s="24"/>
+      <c r="M15" s="28"/>
+      <c r="N15" s="28"/>
+      <c r="O15" s="28"/>
     </row>
     <row r="16" ht="15" customHeight="1">
       <c r="A16" s="4">
@@ -7031,34 +6632,34 @@
       <c r="C16" t="s" s="5">
         <v>6</v>
       </c>
-      <c r="D16" s="56">
-        <v>4</v>
-      </c>
-      <c r="E16" s="57">
-        <v>4</v>
-      </c>
-      <c r="F16" s="57">
-        <v>6</v>
-      </c>
-      <c r="G16" s="57">
-        <v>10</v>
-      </c>
-      <c r="H16" s="57">
+      <c r="D16" s="53">
+        <v>4</v>
+      </c>
+      <c r="E16" s="54">
+        <v>4</v>
+      </c>
+      <c r="F16" s="54">
+        <v>6</v>
+      </c>
+      <c r="G16" s="54">
+        <v>10</v>
+      </c>
+      <c r="H16" s="54">
         <v>32</v>
       </c>
-      <c r="I16" s="57">
+      <c r="I16" s="54">
         <v>54</v>
       </c>
-      <c r="J16" s="57">
+      <c r="J16" s="54">
         <v>87</v>
       </c>
       <c r="K16" s="4">
         <v>154</v>
       </c>
-      <c r="L16" s="25"/>
-      <c r="M16" s="35"/>
-      <c r="N16" s="35"/>
-      <c r="O16" s="35"/>
+      <c r="L16" s="24"/>
+      <c r="M16" s="28"/>
+      <c r="N16" s="28"/>
+      <c r="O16" s="28"/>
     </row>
     <row r="17" ht="15" customHeight="1">
       <c r="A17" s="7">
@@ -7070,34 +6671,34 @@
       <c r="C17" t="s" s="8">
         <v>8</v>
       </c>
-      <c r="D17" s="56">
-        <v>6</v>
-      </c>
-      <c r="E17" s="57">
-        <v>6</v>
-      </c>
-      <c r="F17" s="57">
-        <v>7</v>
-      </c>
-      <c r="G17" s="57">
+      <c r="D17" s="53">
+        <v>6</v>
+      </c>
+      <c r="E17" s="54">
+        <v>6</v>
+      </c>
+      <c r="F17" s="54">
+        <v>7</v>
+      </c>
+      <c r="G17" s="54">
         <v>21</v>
       </c>
-      <c r="H17" s="57">
+      <c r="H17" s="54">
         <v>53</v>
       </c>
-      <c r="I17" s="57">
+      <c r="I17" s="54">
         <v>83</v>
       </c>
-      <c r="J17" s="57">
+      <c r="J17" s="54">
         <v>120</v>
       </c>
       <c r="K17" s="4">
         <v>182</v>
       </c>
-      <c r="L17" s="25"/>
-      <c r="M17" s="35"/>
-      <c r="N17" s="35"/>
-      <c r="O17" s="35"/>
+      <c r="L17" s="24"/>
+      <c r="M17" s="28"/>
+      <c r="N17" s="28"/>
+      <c r="O17" s="28"/>
     </row>
     <row r="18" ht="15" customHeight="1">
       <c r="A18" s="7">
@@ -7109,34 +6710,34 @@
       <c r="C18" t="s" s="8">
         <v>7</v>
       </c>
-      <c r="D18" s="56">
-        <v>4</v>
-      </c>
-      <c r="E18" s="57">
-        <v>4</v>
-      </c>
-      <c r="F18" s="57">
-        <v>6</v>
-      </c>
-      <c r="G18" s="57">
-        <v>10</v>
-      </c>
-      <c r="H18" s="57">
+      <c r="D18" s="53">
+        <v>4</v>
+      </c>
+      <c r="E18" s="54">
+        <v>4</v>
+      </c>
+      <c r="F18" s="54">
+        <v>6</v>
+      </c>
+      <c r="G18" s="54">
+        <v>10</v>
+      </c>
+      <c r="H18" s="54">
         <v>34</v>
       </c>
-      <c r="I18" s="57">
+      <c r="I18" s="54">
         <v>62</v>
       </c>
-      <c r="J18" s="57">
+      <c r="J18" s="54">
         <v>94</v>
       </c>
       <c r="K18" s="4">
         <v>146</v>
       </c>
-      <c r="L18" s="25"/>
-      <c r="M18" s="35"/>
-      <c r="N18" s="35"/>
-      <c r="O18" s="35"/>
+      <c r="L18" s="24"/>
+      <c r="M18" s="28"/>
+      <c r="N18" s="28"/>
+      <c r="O18" s="28"/>
     </row>
     <row r="19" ht="15" customHeight="1">
       <c r="A19" s="4">
@@ -7148,34 +6749,34 @@
       <c r="C19" t="s" s="5">
         <v>8</v>
       </c>
-      <c r="D19" s="56">
-        <v>4</v>
-      </c>
-      <c r="E19" s="57">
-        <v>4</v>
-      </c>
-      <c r="F19" s="57">
-        <v>6</v>
-      </c>
-      <c r="G19" s="57">
-        <v>10</v>
-      </c>
-      <c r="H19" s="57">
+      <c r="D19" s="53">
+        <v>4</v>
+      </c>
+      <c r="E19" s="54">
+        <v>4</v>
+      </c>
+      <c r="F19" s="54">
+        <v>6</v>
+      </c>
+      <c r="G19" s="54">
+        <v>10</v>
+      </c>
+      <c r="H19" s="54">
         <v>24</v>
       </c>
-      <c r="I19" s="57">
+      <c r="I19" s="54">
         <v>58</v>
       </c>
-      <c r="J19" s="57">
+      <c r="J19" s="54">
         <v>76</v>
       </c>
       <c r="K19" s="4">
         <v>124</v>
       </c>
-      <c r="L19" s="25"/>
-      <c r="M19" s="35"/>
-      <c r="N19" s="35"/>
-      <c r="O19" s="35"/>
+      <c r="L19" s="24"/>
+      <c r="M19" s="28"/>
+      <c r="N19" s="28"/>
+      <c r="O19" s="28"/>
     </row>
     <row r="20" ht="15" customHeight="1">
       <c r="A20" s="7">
@@ -7187,34 +6788,34 @@
       <c r="C20" t="s" s="8">
         <v>9</v>
       </c>
-      <c r="D20" s="56">
-        <v>4</v>
-      </c>
-      <c r="E20" s="57">
-        <v>4</v>
-      </c>
-      <c r="F20" s="57">
-        <v>4</v>
-      </c>
-      <c r="G20" s="57">
-        <v>6</v>
-      </c>
-      <c r="H20" s="57">
+      <c r="D20" s="53">
+        <v>4</v>
+      </c>
+      <c r="E20" s="54">
+        <v>4</v>
+      </c>
+      <c r="F20" s="54">
+        <v>4</v>
+      </c>
+      <c r="G20" s="54">
+        <v>6</v>
+      </c>
+      <c r="H20" s="54">
         <v>22</v>
       </c>
-      <c r="I20" s="57">
+      <c r="I20" s="54">
         <v>44</v>
       </c>
-      <c r="J20" s="57">
+      <c r="J20" s="54">
         <v>67</v>
       </c>
       <c r="K20" s="4">
         <v>120</v>
       </c>
-      <c r="L20" s="25"/>
-      <c r="M20" s="35"/>
-      <c r="N20" s="35"/>
-      <c r="O20" s="35"/>
+      <c r="L20" s="24"/>
+      <c r="M20" s="28"/>
+      <c r="N20" s="28"/>
+      <c r="O20" s="28"/>
     </row>
     <row r="21" ht="15" customHeight="1">
       <c r="A21" s="7">
@@ -7226,34 +6827,34 @@
       <c r="C21" t="s" s="8">
         <v>6</v>
       </c>
-      <c r="D21" s="56">
-        <v>4</v>
-      </c>
-      <c r="E21" s="57">
-        <v>4</v>
-      </c>
-      <c r="F21" s="57">
-        <v>8</v>
-      </c>
-      <c r="G21" s="57">
+      <c r="D21" s="53">
+        <v>4</v>
+      </c>
+      <c r="E21" s="54">
+        <v>4</v>
+      </c>
+      <c r="F21" s="54">
+        <v>8</v>
+      </c>
+      <c r="G21" s="54">
         <v>17</v>
       </c>
-      <c r="H21" s="57">
+      <c r="H21" s="54">
         <v>31</v>
       </c>
-      <c r="I21" s="57">
+      <c r="I21" s="54">
         <v>54</v>
       </c>
-      <c r="J21" s="57">
+      <c r="J21" s="54">
         <v>88</v>
       </c>
       <c r="K21" s="4">
         <v>118</v>
       </c>
-      <c r="L21" s="25"/>
-      <c r="M21" s="35"/>
-      <c r="N21" s="35"/>
-      <c r="O21" s="35"/>
+      <c r="L21" s="24"/>
+      <c r="M21" s="28"/>
+      <c r="N21" s="28"/>
+      <c r="O21" s="28"/>
     </row>
     <row r="22" ht="15" customHeight="1">
       <c r="A22" s="7">
@@ -7265,34 +6866,34 @@
       <c r="C22" t="s" s="8">
         <v>7</v>
       </c>
-      <c r="D22" s="56">
-        <v>4</v>
-      </c>
-      <c r="E22" s="57">
-        <v>4</v>
-      </c>
-      <c r="F22" s="57">
-        <v>4</v>
-      </c>
-      <c r="G22" s="57">
-        <v>6</v>
-      </c>
-      <c r="H22" s="57">
-        <v>10</v>
-      </c>
-      <c r="I22" s="57">
+      <c r="D22" s="53">
+        <v>4</v>
+      </c>
+      <c r="E22" s="54">
+        <v>4</v>
+      </c>
+      <c r="F22" s="54">
+        <v>4</v>
+      </c>
+      <c r="G22" s="54">
+        <v>6</v>
+      </c>
+      <c r="H22" s="54">
+        <v>10</v>
+      </c>
+      <c r="I22" s="54">
         <v>22</v>
       </c>
-      <c r="J22" s="57">
+      <c r="J22" s="54">
         <v>56</v>
       </c>
       <c r="K22" s="4">
         <v>98</v>
       </c>
-      <c r="L22" s="25"/>
-      <c r="M22" s="35"/>
-      <c r="N22" s="35"/>
-      <c r="O22" s="35"/>
+      <c r="L22" s="24"/>
+      <c r="M22" s="28"/>
+      <c r="N22" s="28"/>
+      <c r="O22" s="28"/>
     </row>
     <row r="23" ht="15" customHeight="1">
       <c r="A23" s="4">
@@ -7304,34 +6905,34 @@
       <c r="C23" t="s" s="5">
         <v>6</v>
       </c>
-      <c r="D23" s="56">
-        <v>4</v>
-      </c>
-      <c r="E23" s="57">
-        <v>4</v>
-      </c>
-      <c r="F23" s="57">
-        <v>4</v>
-      </c>
-      <c r="G23" s="57">
-        <v>8</v>
-      </c>
-      <c r="H23" s="57">
+      <c r="D23" s="53">
+        <v>4</v>
+      </c>
+      <c r="E23" s="54">
+        <v>4</v>
+      </c>
+      <c r="F23" s="54">
+        <v>4</v>
+      </c>
+      <c r="G23" s="54">
+        <v>8</v>
+      </c>
+      <c r="H23" s="54">
         <v>16</v>
       </c>
-      <c r="I23" s="57">
+      <c r="I23" s="54">
         <v>28</v>
       </c>
-      <c r="J23" s="57">
+      <c r="J23" s="54">
         <v>44</v>
       </c>
       <c r="K23" s="4">
         <v>76</v>
       </c>
-      <c r="L23" s="25"/>
-      <c r="M23" s="35"/>
-      <c r="N23" s="35"/>
-      <c r="O23" s="35"/>
+      <c r="L23" s="24"/>
+      <c r="M23" s="28"/>
+      <c r="N23" s="28"/>
+      <c r="O23" s="28"/>
     </row>
     <row r="24" ht="15" customHeight="1">
       <c r="A24" s="4">
@@ -7343,34 +6944,34 @@
       <c r="C24" t="s" s="5">
         <v>7</v>
       </c>
-      <c r="D24" s="56">
-        <v>4</v>
-      </c>
-      <c r="E24" s="57">
-        <v>4</v>
-      </c>
-      <c r="F24" s="57">
-        <v>6</v>
-      </c>
-      <c r="G24" s="57">
+      <c r="D24" s="53">
+        <v>4</v>
+      </c>
+      <c r="E24" s="54">
+        <v>4</v>
+      </c>
+      <c r="F24" s="54">
+        <v>6</v>
+      </c>
+      <c r="G24" s="54">
         <v>12</v>
       </c>
-      <c r="H24" s="57">
+      <c r="H24" s="54">
         <v>30</v>
       </c>
-      <c r="I24" s="57">
+      <c r="I24" s="54">
         <v>58</v>
       </c>
-      <c r="J24" s="57">
+      <c r="J24" s="54">
         <v>80</v>
       </c>
       <c r="K24" s="4">
         <v>126</v>
       </c>
-      <c r="L24" s="25"/>
-      <c r="M24" s="35"/>
-      <c r="N24" s="35"/>
-      <c r="O24" s="35"/>
+      <c r="L24" s="24"/>
+      <c r="M24" s="28"/>
+      <c r="N24" s="28"/>
+      <c r="O24" s="28"/>
     </row>
     <row r="25" ht="15" customHeight="1">
       <c r="A25" s="7">
@@ -7382,34 +6983,34 @@
       <c r="C25" t="s" s="8">
         <v>8</v>
       </c>
-      <c r="D25" s="56">
-        <v>4</v>
-      </c>
-      <c r="E25" s="57">
-        <v>4</v>
-      </c>
-      <c r="F25" s="57">
-        <v>6</v>
-      </c>
-      <c r="G25" s="57">
-        <v>8</v>
-      </c>
-      <c r="H25" s="57">
+      <c r="D25" s="53">
+        <v>4</v>
+      </c>
+      <c r="E25" s="54">
+        <v>4</v>
+      </c>
+      <c r="F25" s="54">
+        <v>6</v>
+      </c>
+      <c r="G25" s="54">
+        <v>8</v>
+      </c>
+      <c r="H25" s="54">
         <v>20</v>
       </c>
-      <c r="I25" s="57">
+      <c r="I25" s="54">
         <v>50</v>
       </c>
-      <c r="J25" s="57">
+      <c r="J25" s="54">
         <v>68</v>
       </c>
       <c r="K25" s="4">
         <v>96</v>
       </c>
-      <c r="L25" s="25"/>
-      <c r="M25" s="35"/>
-      <c r="N25" s="35"/>
-      <c r="O25" s="35"/>
+      <c r="L25" s="24"/>
+      <c r="M25" s="28"/>
+      <c r="N25" s="28"/>
+      <c r="O25" s="28"/>
     </row>
     <row r="26" ht="15" customHeight="1">
       <c r="A26" s="7">
@@ -7421,34 +7022,34 @@
       <c r="C26" t="s" s="8">
         <v>6</v>
       </c>
-      <c r="D26" s="56">
-        <v>4</v>
-      </c>
-      <c r="E26" s="57">
-        <v>4</v>
-      </c>
-      <c r="F26" s="57">
-        <v>4</v>
-      </c>
-      <c r="G26" s="57">
-        <v>6</v>
-      </c>
-      <c r="H26" s="57">
-        <v>6</v>
-      </c>
-      <c r="I26" s="57">
-        <v>8</v>
-      </c>
-      <c r="J26" s="57">
+      <c r="D26" s="53">
+        <v>4</v>
+      </c>
+      <c r="E26" s="54">
+        <v>4</v>
+      </c>
+      <c r="F26" s="54">
+        <v>4</v>
+      </c>
+      <c r="G26" s="54">
+        <v>6</v>
+      </c>
+      <c r="H26" s="54">
+        <v>6</v>
+      </c>
+      <c r="I26" s="54">
+        <v>8</v>
+      </c>
+      <c r="J26" s="54">
         <v>10</v>
       </c>
       <c r="K26" s="4">
         <v>11</v>
       </c>
-      <c r="L26" s="25"/>
-      <c r="M26" s="35"/>
-      <c r="N26" s="35"/>
-      <c r="O26" s="35"/>
+      <c r="L26" s="24"/>
+      <c r="M26" s="28"/>
+      <c r="N26" s="28"/>
+      <c r="O26" s="28"/>
     </row>
     <row r="27" ht="15" customHeight="1">
       <c r="A27" s="7">
@@ -7460,34 +7061,34 @@
       <c r="C27" t="s" s="8">
         <v>7</v>
       </c>
-      <c r="D27" s="56">
-        <v>4</v>
-      </c>
-      <c r="E27" s="57">
-        <v>4</v>
-      </c>
-      <c r="F27" s="57">
-        <v>6</v>
-      </c>
-      <c r="G27" s="57">
-        <v>8</v>
-      </c>
-      <c r="H27" s="57">
+      <c r="D27" s="53">
+        <v>4</v>
+      </c>
+      <c r="E27" s="54">
+        <v>4</v>
+      </c>
+      <c r="F27" s="54">
+        <v>6</v>
+      </c>
+      <c r="G27" s="54">
+        <v>8</v>
+      </c>
+      <c r="H27" s="54">
         <v>22</v>
       </c>
-      <c r="I27" s="57">
+      <c r="I27" s="54">
         <v>32</v>
       </c>
-      <c r="J27" s="57">
+      <c r="J27" s="54">
         <v>50</v>
       </c>
       <c r="K27" s="4">
         <v>78</v>
       </c>
-      <c r="L27" s="25"/>
-      <c r="M27" s="35"/>
-      <c r="N27" s="35"/>
-      <c r="O27" s="35"/>
+      <c r="L27" s="24"/>
+      <c r="M27" s="28"/>
+      <c r="N27" s="28"/>
+      <c r="O27" s="28"/>
     </row>
     <row r="28" ht="15" customHeight="1">
       <c r="A28" s="7">
@@ -7499,34 +7100,34 @@
       <c r="C28" t="s" s="8">
         <v>8</v>
       </c>
-      <c r="D28" s="56">
-        <v>4</v>
-      </c>
-      <c r="E28" s="57">
-        <v>4</v>
-      </c>
-      <c r="F28" s="57">
-        <v>6</v>
-      </c>
-      <c r="G28" s="57">
-        <v>10</v>
-      </c>
-      <c r="H28" s="57">
+      <c r="D28" s="53">
+        <v>4</v>
+      </c>
+      <c r="E28" s="54">
+        <v>4</v>
+      </c>
+      <c r="F28" s="54">
+        <v>6</v>
+      </c>
+      <c r="G28" s="54">
+        <v>10</v>
+      </c>
+      <c r="H28" s="54">
         <v>36</v>
       </c>
-      <c r="I28" s="57">
+      <c r="I28" s="54">
         <v>56</v>
       </c>
-      <c r="J28" s="57">
+      <c r="J28" s="54">
         <v>80</v>
       </c>
       <c r="K28" s="4">
         <v>110</v>
       </c>
-      <c r="L28" s="25"/>
-      <c r="M28" s="35"/>
-      <c r="N28" s="35"/>
-      <c r="O28" s="35"/>
+      <c r="L28" s="24"/>
+      <c r="M28" s="28"/>
+      <c r="N28" s="28"/>
+      <c r="O28" s="28"/>
     </row>
     <row r="29" ht="15" customHeight="1">
       <c r="A29" s="4">
@@ -7538,34 +7139,34 @@
       <c r="C29" t="s" s="5">
         <v>6</v>
       </c>
-      <c r="D29" s="56">
-        <v>4</v>
-      </c>
-      <c r="E29" s="57">
-        <v>6</v>
-      </c>
-      <c r="F29" s="57">
-        <v>6</v>
-      </c>
-      <c r="G29" s="57">
-        <v>8</v>
-      </c>
-      <c r="H29" s="57">
+      <c r="D29" s="53">
+        <v>4</v>
+      </c>
+      <c r="E29" s="54">
+        <v>6</v>
+      </c>
+      <c r="F29" s="54">
+        <v>6</v>
+      </c>
+      <c r="G29" s="54">
+        <v>8</v>
+      </c>
+      <c r="H29" s="54">
         <v>24</v>
       </c>
-      <c r="I29" s="57">
+      <c r="I29" s="54">
         <v>36</v>
       </c>
-      <c r="J29" s="57">
+      <c r="J29" s="54">
         <v>62</v>
       </c>
       <c r="K29" s="4">
         <v>108</v>
       </c>
-      <c r="L29" s="25"/>
-      <c r="M29" s="35"/>
-      <c r="N29" s="35"/>
-      <c r="O29" s="35"/>
+      <c r="L29" s="24"/>
+      <c r="M29" s="28"/>
+      <c r="N29" s="28"/>
+      <c r="O29" s="28"/>
     </row>
     <row r="30" ht="15" customHeight="1">
       <c r="A30" s="4">
@@ -7577,34 +7178,34 @@
       <c r="C30" t="s" s="5">
         <v>7</v>
       </c>
-      <c r="D30" s="56">
-        <v>4</v>
-      </c>
-      <c r="E30" s="57">
-        <v>4</v>
-      </c>
-      <c r="F30" s="57">
-        <v>6</v>
-      </c>
-      <c r="G30" s="57">
-        <v>8</v>
-      </c>
-      <c r="H30" s="57">
+      <c r="D30" s="53">
+        <v>4</v>
+      </c>
+      <c r="E30" s="54">
+        <v>4</v>
+      </c>
+      <c r="F30" s="54">
+        <v>6</v>
+      </c>
+      <c r="G30" s="54">
+        <v>8</v>
+      </c>
+      <c r="H30" s="54">
         <v>20</v>
       </c>
-      <c r="I30" s="57">
+      <c r="I30" s="54">
         <v>46</v>
       </c>
-      <c r="J30" s="57">
+      <c r="J30" s="54">
         <v>76</v>
       </c>
       <c r="K30" s="4">
         <v>100</v>
       </c>
-      <c r="L30" s="25"/>
-      <c r="M30" s="35"/>
-      <c r="N30" s="35"/>
-      <c r="O30" s="35"/>
+      <c r="L30" s="24"/>
+      <c r="M30" s="28"/>
+      <c r="N30" s="28"/>
+      <c r="O30" s="28"/>
     </row>
     <row r="31" ht="15" customHeight="1">
       <c r="A31" s="7">
@@ -7616,34 +7217,34 @@
       <c r="C31" t="s" s="8">
         <v>8</v>
       </c>
-      <c r="D31" s="56">
-        <v>4</v>
-      </c>
-      <c r="E31" s="57">
-        <v>4</v>
-      </c>
-      <c r="F31" s="57">
-        <v>6</v>
-      </c>
-      <c r="G31" s="57">
+      <c r="D31" s="53">
+        <v>4</v>
+      </c>
+      <c r="E31" s="54">
+        <v>4</v>
+      </c>
+      <c r="F31" s="54">
+        <v>6</v>
+      </c>
+      <c r="G31" s="54">
         <v>20</v>
       </c>
-      <c r="H31" s="57">
+      <c r="H31" s="54">
         <v>34</v>
       </c>
-      <c r="I31" s="57">
+      <c r="I31" s="54">
         <v>58</v>
       </c>
-      <c r="J31" s="57">
+      <c r="J31" s="54">
         <v>84</v>
       </c>
       <c r="K31" s="4">
         <v>120</v>
       </c>
-      <c r="L31" s="25"/>
-      <c r="M31" s="35"/>
-      <c r="N31" s="35"/>
-      <c r="O31" s="35"/>
+      <c r="L31" s="24"/>
+      <c r="M31" s="28"/>
+      <c r="N31" s="28"/>
+      <c r="O31" s="28"/>
     </row>
     <row r="32" ht="15" customHeight="1">
       <c r="A32" s="4">
@@ -7655,34 +7256,34 @@
       <c r="C32" t="s" s="5">
         <v>6</v>
       </c>
-      <c r="D32" s="56">
-        <v>4</v>
-      </c>
-      <c r="E32" s="57">
-        <v>4</v>
-      </c>
-      <c r="F32" s="57">
-        <v>6</v>
-      </c>
-      <c r="G32" s="57">
+      <c r="D32" s="53">
+        <v>4</v>
+      </c>
+      <c r="E32" s="54">
+        <v>4</v>
+      </c>
+      <c r="F32" s="54">
+        <v>6</v>
+      </c>
+      <c r="G32" s="54">
         <v>12</v>
       </c>
-      <c r="H32" s="57">
+      <c r="H32" s="54">
         <v>34</v>
       </c>
-      <c r="I32" s="57">
+      <c r="I32" s="54">
         <v>57</v>
       </c>
-      <c r="J32" s="57">
+      <c r="J32" s="54">
         <v>71</v>
       </c>
       <c r="K32" s="4">
         <v>120</v>
       </c>
-      <c r="L32" s="25"/>
-      <c r="M32" s="35"/>
-      <c r="N32" s="35"/>
-      <c r="O32" s="35"/>
+      <c r="L32" s="24"/>
+      <c r="M32" s="28"/>
+      <c r="N32" s="28"/>
+      <c r="O32" s="28"/>
     </row>
     <row r="33" ht="15" customHeight="1">
       <c r="A33" s="7">
@@ -7694,19 +7295,19 @@
       <c r="C33" t="s" s="8">
         <v>8</v>
       </c>
-      <c r="D33" s="56">
-        <v>4</v>
-      </c>
-      <c r="E33" s="57">
-        <v>4</v>
-      </c>
-      <c r="F33" s="57">
-        <v>6</v>
-      </c>
-      <c r="G33" s="57">
-        <v>8</v>
-      </c>
-      <c r="H33" s="57">
+      <c r="D33" s="53">
+        <v>4</v>
+      </c>
+      <c r="E33" s="54">
+        <v>4</v>
+      </c>
+      <c r="F33" s="54">
+        <v>6</v>
+      </c>
+      <c r="G33" s="54">
+        <v>8</v>
+      </c>
+      <c r="H33" s="54">
         <v>6</v>
       </c>
       <c r="I33" t="s" s="5">
@@ -7718,10 +7319,10 @@
       <c r="K33" t="s" s="5">
         <v>11</v>
       </c>
-      <c r="L33" s="25"/>
-      <c r="M33" s="35"/>
-      <c r="N33" s="35"/>
-      <c r="O33" s="35"/>
+      <c r="L33" s="24"/>
+      <c r="M33" s="28"/>
+      <c r="N33" s="28"/>
+      <c r="O33" s="28"/>
     </row>
     <row r="34" ht="14" customHeight="1">
       <c r="A34" s="7">
@@ -7733,34 +7334,34 @@
       <c r="C34" t="s" s="8">
         <v>7</v>
       </c>
-      <c r="D34" s="56">
-        <v>4</v>
-      </c>
-      <c r="E34" s="57">
-        <v>4</v>
-      </c>
-      <c r="F34" s="57">
-        <v>4</v>
-      </c>
-      <c r="G34" s="57">
-        <v>8</v>
-      </c>
-      <c r="H34" s="57">
+      <c r="D34" s="53">
+        <v>4</v>
+      </c>
+      <c r="E34" s="54">
+        <v>4</v>
+      </c>
+      <c r="F34" s="54">
+        <v>4</v>
+      </c>
+      <c r="G34" s="54">
+        <v>8</v>
+      </c>
+      <c r="H34" s="54">
         <v>30</v>
       </c>
-      <c r="I34" s="57">
+      <c r="I34" s="54">
         <v>60</v>
       </c>
-      <c r="J34" s="57">
+      <c r="J34" s="54">
         <v>94</v>
       </c>
       <c r="K34" s="4">
         <v>160</v>
       </c>
-      <c r="L34" s="25"/>
-      <c r="M34" s="35"/>
-      <c r="N34" s="35"/>
-      <c r="O34" s="35"/>
+      <c r="L34" s="24"/>
+      <c r="M34" s="28"/>
+      <c r="N34" s="28"/>
+      <c r="O34" s="28"/>
     </row>
     <row r="35" ht="15" customHeight="1">
       <c r="A35" s="7">
@@ -7772,34 +7373,34 @@
       <c r="C35" t="s" s="8">
         <v>8</v>
       </c>
-      <c r="D35" s="56">
-        <v>4</v>
-      </c>
-      <c r="E35" s="57">
-        <v>4</v>
-      </c>
-      <c r="F35" s="57">
-        <v>6</v>
-      </c>
-      <c r="G35" s="57">
-        <v>8</v>
-      </c>
-      <c r="H35" s="57">
+      <c r="D35" s="53">
+        <v>4</v>
+      </c>
+      <c r="E35" s="54">
+        <v>4</v>
+      </c>
+      <c r="F35" s="54">
+        <v>6</v>
+      </c>
+      <c r="G35" s="54">
+        <v>8</v>
+      </c>
+      <c r="H35" s="54">
         <v>24</v>
       </c>
-      <c r="I35" s="57">
+      <c r="I35" s="54">
         <v>42</v>
       </c>
-      <c r="J35" s="57">
+      <c r="J35" s="54">
         <v>70</v>
       </c>
       <c r="K35" s="4">
         <v>112</v>
       </c>
-      <c r="L35" s="25"/>
-      <c r="M35" s="35"/>
-      <c r="N35" s="35"/>
-      <c r="O35" s="35"/>
+      <c r="L35" s="24"/>
+      <c r="M35" s="28"/>
+      <c r="N35" s="28"/>
+      <c r="O35" s="28"/>
     </row>
     <row r="36" ht="15" customHeight="1">
       <c r="A36" s="7">
@@ -7811,34 +7412,34 @@
       <c r="C36" t="s" s="8">
         <v>6</v>
       </c>
-      <c r="D36" s="56">
-        <v>4</v>
-      </c>
-      <c r="E36" s="57">
-        <v>6</v>
-      </c>
-      <c r="F36" s="57">
-        <v>6</v>
-      </c>
-      <c r="G36" s="57">
+      <c r="D36" s="53">
+        <v>4</v>
+      </c>
+      <c r="E36" s="54">
+        <v>6</v>
+      </c>
+      <c r="F36" s="54">
+        <v>6</v>
+      </c>
+      <c r="G36" s="54">
         <v>18</v>
       </c>
-      <c r="H36" s="57">
+      <c r="H36" s="54">
         <v>24</v>
       </c>
-      <c r="I36" s="57">
+      <c r="I36" s="54">
         <v>64</v>
       </c>
-      <c r="J36" s="57">
+      <c r="J36" s="54">
         <v>86</v>
       </c>
       <c r="K36" s="4">
         <v>154</v>
       </c>
-      <c r="L36" s="25"/>
-      <c r="M36" s="35"/>
-      <c r="N36" s="35"/>
-      <c r="O36" s="35"/>
+      <c r="L36" s="24"/>
+      <c r="M36" s="28"/>
+      <c r="N36" s="28"/>
+      <c r="O36" s="28"/>
     </row>
     <row r="37" ht="15" customHeight="1">
       <c r="A37" s="7">
@@ -7850,34 +7451,34 @@
       <c r="C37" t="s" s="8">
         <v>7</v>
       </c>
-      <c r="D37" s="56">
-        <v>4</v>
-      </c>
-      <c r="E37" s="57">
-        <v>4</v>
-      </c>
-      <c r="F37" s="57">
-        <v>4</v>
-      </c>
-      <c r="G37" s="57">
-        <v>6</v>
-      </c>
-      <c r="H37" s="57">
+      <c r="D37" s="53">
+        <v>4</v>
+      </c>
+      <c r="E37" s="54">
+        <v>4</v>
+      </c>
+      <c r="F37" s="54">
+        <v>4</v>
+      </c>
+      <c r="G37" s="54">
+        <v>6</v>
+      </c>
+      <c r="H37" s="54">
         <v>12</v>
       </c>
-      <c r="I37" s="57">
+      <c r="I37" s="54">
         <v>28</v>
       </c>
-      <c r="J37" s="57">
+      <c r="J37" s="54">
         <v>64</v>
       </c>
       <c r="K37" s="4">
         <v>98</v>
       </c>
-      <c r="L37" s="25"/>
-      <c r="M37" s="35"/>
-      <c r="N37" s="35"/>
-      <c r="O37" s="35"/>
+      <c r="L37" s="24"/>
+      <c r="M37" s="28"/>
+      <c r="N37" s="28"/>
+      <c r="O37" s="28"/>
     </row>
     <row r="38" ht="15" customHeight="1">
       <c r="A38" s="4">
@@ -7889,34 +7490,34 @@
       <c r="C38" t="s" s="5">
         <v>6</v>
       </c>
-      <c r="D38" s="56">
-        <v>4</v>
-      </c>
-      <c r="E38" s="57">
-        <v>4</v>
-      </c>
-      <c r="F38" s="57">
-        <v>6</v>
-      </c>
-      <c r="G38" s="57">
+      <c r="D38" s="53">
+        <v>4</v>
+      </c>
+      <c r="E38" s="54">
+        <v>4</v>
+      </c>
+      <c r="F38" s="54">
+        <v>6</v>
+      </c>
+      <c r="G38" s="54">
         <v>13</v>
       </c>
-      <c r="H38" s="57">
+      <c r="H38" s="54">
         <v>28</v>
       </c>
-      <c r="I38" s="57">
+      <c r="I38" s="54">
         <v>40</v>
       </c>
-      <c r="J38" s="57">
+      <c r="J38" s="54">
         <v>81</v>
       </c>
       <c r="K38" s="4">
         <v>113</v>
       </c>
-      <c r="L38" s="25"/>
-      <c r="M38" s="35"/>
-      <c r="N38" s="35"/>
-      <c r="O38" s="35"/>
+      <c r="L38" s="24"/>
+      <c r="M38" s="28"/>
+      <c r="N38" s="28"/>
+      <c r="O38" s="28"/>
     </row>
     <row r="39" ht="15" customHeight="1">
       <c r="A39" s="4">
@@ -7928,34 +7529,34 @@
       <c r="C39" t="s" s="5">
         <v>7</v>
       </c>
-      <c r="D39" s="56">
-        <v>4</v>
-      </c>
-      <c r="E39" s="57">
-        <v>4</v>
-      </c>
-      <c r="F39" s="57">
-        <v>6</v>
-      </c>
-      <c r="G39" s="57">
+      <c r="D39" s="53">
+        <v>4</v>
+      </c>
+      <c r="E39" s="54">
+        <v>4</v>
+      </c>
+      <c r="F39" s="54">
+        <v>6</v>
+      </c>
+      <c r="G39" s="54">
         <v>14</v>
       </c>
-      <c r="H39" s="57">
+      <c r="H39" s="54">
         <v>31</v>
       </c>
-      <c r="I39" s="57">
+      <c r="I39" s="54">
         <v>56</v>
       </c>
-      <c r="J39" s="57">
+      <c r="J39" s="54">
         <v>73</v>
       </c>
       <c r="K39" s="4">
         <v>112</v>
       </c>
-      <c r="L39" s="25"/>
-      <c r="M39" s="35"/>
-      <c r="N39" s="35"/>
-      <c r="O39" s="35"/>
+      <c r="L39" s="24"/>
+      <c r="M39" s="28"/>
+      <c r="N39" s="28"/>
+      <c r="O39" s="28"/>
     </row>
     <row r="40" ht="15" customHeight="1">
       <c r="A40" s="4">
@@ -7967,34 +7568,34 @@
       <c r="C40" t="s" s="5">
         <v>6</v>
       </c>
-      <c r="D40" s="56">
-        <v>4</v>
-      </c>
-      <c r="E40" s="57">
-        <v>6</v>
-      </c>
-      <c r="F40" s="57">
-        <v>6</v>
-      </c>
-      <c r="G40" s="57">
-        <v>10</v>
-      </c>
-      <c r="H40" s="57">
+      <c r="D40" s="53">
+        <v>4</v>
+      </c>
+      <c r="E40" s="54">
+        <v>6</v>
+      </c>
+      <c r="F40" s="54">
+        <v>6</v>
+      </c>
+      <c r="G40" s="54">
+        <v>10</v>
+      </c>
+      <c r="H40" s="54">
         <v>27</v>
       </c>
-      <c r="I40" s="57">
+      <c r="I40" s="54">
         <v>42</v>
       </c>
-      <c r="J40" s="57">
+      <c r="J40" s="54">
         <v>66</v>
       </c>
       <c r="K40" s="4">
         <v>92</v>
       </c>
-      <c r="L40" s="25"/>
-      <c r="M40" s="35"/>
-      <c r="N40" s="35"/>
-      <c r="O40" s="35"/>
+      <c r="L40" s="24"/>
+      <c r="M40" s="28"/>
+      <c r="N40" s="28"/>
+      <c r="O40" s="28"/>
     </row>
     <row r="41" ht="15" customHeight="1">
       <c r="A41" s="7">
@@ -8006,34 +7607,34 @@
       <c r="C41" t="s" s="8">
         <v>8</v>
       </c>
-      <c r="D41" s="56">
-        <v>4</v>
-      </c>
-      <c r="E41" s="57">
-        <v>6</v>
-      </c>
-      <c r="F41" s="57">
-        <v>6</v>
-      </c>
-      <c r="G41" s="57">
-        <v>10</v>
-      </c>
-      <c r="H41" s="57">
+      <c r="D41" s="53">
+        <v>4</v>
+      </c>
+      <c r="E41" s="54">
+        <v>6</v>
+      </c>
+      <c r="F41" s="54">
+        <v>6</v>
+      </c>
+      <c r="G41" s="54">
+        <v>10</v>
+      </c>
+      <c r="H41" s="54">
         <v>37</v>
       </c>
-      <c r="I41" s="57">
+      <c r="I41" s="54">
         <v>64</v>
       </c>
-      <c r="J41" s="57">
+      <c r="J41" s="54">
         <v>100</v>
       </c>
       <c r="K41" s="4">
         <v>140</v>
       </c>
-      <c r="L41" s="25"/>
-      <c r="M41" s="35"/>
-      <c r="N41" s="35"/>
-      <c r="O41" s="35"/>
+      <c r="L41" s="24"/>
+      <c r="M41" s="28"/>
+      <c r="N41" s="28"/>
+      <c r="O41" s="28"/>
     </row>
     <row r="42" ht="15" customHeight="1">
       <c r="A42" s="7">
@@ -8045,34 +7646,34 @@
       <c r="C42" t="s" s="8">
         <v>7</v>
       </c>
-      <c r="D42" s="56">
-        <v>4</v>
-      </c>
-      <c r="E42" s="57">
-        <v>4</v>
-      </c>
-      <c r="F42" s="57">
-        <v>6</v>
-      </c>
-      <c r="G42" s="57">
+      <c r="D42" s="53">
+        <v>4</v>
+      </c>
+      <c r="E42" s="54">
+        <v>4</v>
+      </c>
+      <c r="F42" s="54">
+        <v>6</v>
+      </c>
+      <c r="G42" s="54">
         <v>12</v>
       </c>
-      <c r="H42" s="57">
+      <c r="H42" s="54">
         <v>36</v>
       </c>
-      <c r="I42" s="57">
+      <c r="I42" s="54">
         <v>48</v>
       </c>
-      <c r="J42" s="57">
+      <c r="J42" s="54">
         <v>52</v>
       </c>
       <c r="K42" t="s" s="5">
         <v>11</v>
       </c>
-      <c r="L42" s="25"/>
-      <c r="M42" s="35"/>
-      <c r="N42" s="35"/>
-      <c r="O42" s="35"/>
+      <c r="L42" s="24"/>
+      <c r="M42" s="28"/>
+      <c r="N42" s="28"/>
+      <c r="O42" s="28"/>
     </row>
     <row r="43" ht="15" customHeight="1">
       <c r="A43" s="7">
@@ -8084,34 +7685,34 @@
       <c r="C43" t="s" s="8">
         <v>8</v>
       </c>
-      <c r="D43" s="56">
-        <v>4</v>
-      </c>
-      <c r="E43" s="57">
-        <v>4</v>
-      </c>
-      <c r="F43" s="57">
-        <v>5</v>
-      </c>
-      <c r="G43" s="57">
-        <v>10</v>
-      </c>
-      <c r="H43" s="57">
+      <c r="D43" s="53">
+        <v>4</v>
+      </c>
+      <c r="E43" s="54">
+        <v>4</v>
+      </c>
+      <c r="F43" s="54">
+        <v>5</v>
+      </c>
+      <c r="G43" s="54">
+        <v>10</v>
+      </c>
+      <c r="H43" s="54">
         <v>21</v>
       </c>
-      <c r="I43" s="57">
+      <c r="I43" s="54">
         <v>30</v>
       </c>
-      <c r="J43" s="57">
+      <c r="J43" s="54">
         <v>62</v>
       </c>
       <c r="K43" s="4">
         <v>108</v>
       </c>
-      <c r="L43" s="25"/>
-      <c r="M43" s="35"/>
-      <c r="N43" s="35"/>
-      <c r="O43" s="35"/>
+      <c r="L43" s="24"/>
+      <c r="M43" s="28"/>
+      <c r="N43" s="28"/>
+      <c r="O43" s="28"/>
     </row>
     <row r="44" ht="15" customHeight="1">
       <c r="A44" s="7">
@@ -8123,34 +7724,34 @@
       <c r="C44" t="s" s="8">
         <v>6</v>
       </c>
-      <c r="D44" s="56">
-        <v>4</v>
-      </c>
-      <c r="E44" s="57">
-        <v>4</v>
-      </c>
-      <c r="F44" s="57">
-        <v>6</v>
-      </c>
-      <c r="G44" s="57">
-        <v>8</v>
-      </c>
-      <c r="H44" s="57">
+      <c r="D44" s="53">
+        <v>4</v>
+      </c>
+      <c r="E44" s="54">
+        <v>4</v>
+      </c>
+      <c r="F44" s="54">
+        <v>6</v>
+      </c>
+      <c r="G44" s="54">
+        <v>8</v>
+      </c>
+      <c r="H44" s="54">
         <v>34</v>
       </c>
-      <c r="I44" s="57">
+      <c r="I44" s="54">
         <v>60</v>
       </c>
-      <c r="J44" s="57">
+      <c r="J44" s="54">
         <v>88</v>
       </c>
       <c r="K44" s="4">
         <v>138</v>
       </c>
-      <c r="L44" s="25"/>
-      <c r="M44" s="35"/>
-      <c r="N44" s="35"/>
-      <c r="O44" s="35"/>
+      <c r="L44" s="24"/>
+      <c r="M44" s="28"/>
+      <c r="N44" s="28"/>
+      <c r="O44" s="28"/>
     </row>
     <row r="45" ht="14" customHeight="1">
       <c r="A45" s="10">
@@ -8162,34 +7763,34 @@
       <c r="C45" t="s" s="12">
         <v>7</v>
       </c>
-      <c r="D45" s="58">
-        <v>4</v>
-      </c>
-      <c r="E45" s="59">
-        <v>4</v>
-      </c>
-      <c r="F45" s="59">
-        <v>6</v>
-      </c>
-      <c r="G45" s="59">
+      <c r="D45" s="55">
+        <v>4</v>
+      </c>
+      <c r="E45" s="56">
+        <v>4</v>
+      </c>
+      <c r="F45" s="56">
+        <v>6</v>
+      </c>
+      <c r="G45" s="56">
         <v>12</v>
       </c>
-      <c r="H45" s="59">
+      <c r="H45" s="56">
         <v>26</v>
       </c>
-      <c r="I45" s="59">
+      <c r="I45" s="56">
         <v>45</v>
       </c>
-      <c r="J45" s="59">
+      <c r="J45" s="56">
         <v>74</v>
       </c>
       <c r="K45" s="21">
         <v>134</v>
       </c>
-      <c r="L45" s="25"/>
-      <c r="M45" s="35"/>
-      <c r="N45" s="35"/>
-      <c r="O45" s="35"/>
+      <c r="L45" s="24"/>
+      <c r="M45" s="28"/>
+      <c r="N45" s="28"/>
+      <c r="O45" s="28"/>
     </row>
     <row r="46" ht="15.5" customHeight="1">
       <c r="A46" s="14">
@@ -8201,34 +7802,34 @@
       <c r="C46" t="s" s="15">
         <v>6</v>
       </c>
-      <c r="D46" s="60">
-        <v>6</v>
-      </c>
-      <c r="E46" s="61">
-        <v>8</v>
-      </c>
-      <c r="F46" s="61">
-        <v>10</v>
-      </c>
-      <c r="G46" s="61">
+      <c r="D46" s="57">
+        <v>6</v>
+      </c>
+      <c r="E46" s="58">
+        <v>8</v>
+      </c>
+      <c r="F46" s="58">
+        <v>10</v>
+      </c>
+      <c r="G46" s="58">
         <v>13</v>
       </c>
-      <c r="H46" s="61">
+      <c r="H46" s="58">
         <v>22</v>
       </c>
-      <c r="I46" s="61">
+      <c r="I46" s="58">
         <v>32</v>
       </c>
-      <c r="J46" s="61">
+      <c r="J46" s="58">
         <v>59</v>
       </c>
       <c r="K46" s="14">
         <v>114</v>
       </c>
-      <c r="L46" s="25"/>
-      <c r="M46" s="35"/>
-      <c r="N46" s="35"/>
-      <c r="O46" s="35"/>
+      <c r="L46" s="24"/>
+      <c r="M46" s="28"/>
+      <c r="N46" s="28"/>
+      <c r="O46" s="28"/>
     </row>
     <row r="47" ht="15" customHeight="1">
       <c r="A47" s="4">
@@ -8240,7 +7841,7 @@
       <c r="C47" t="s" s="5">
         <v>6</v>
       </c>
-      <c r="D47" s="56">
+      <c r="D47" s="53">
         <v>6</v>
       </c>
       <c r="E47" t="s" s="5">
@@ -8264,10 +7865,10 @@
       <c r="K47" t="s" s="5">
         <v>11</v>
       </c>
-      <c r="L47" s="25"/>
-      <c r="M47" s="35"/>
-      <c r="N47" s="35"/>
-      <c r="O47" s="35"/>
+      <c r="L47" s="24"/>
+      <c r="M47" s="28"/>
+      <c r="N47" s="28"/>
+      <c r="O47" s="28"/>
     </row>
     <row r="48" ht="15" customHeight="1">
       <c r="A48" s="4">
@@ -8279,10 +7880,10 @@
       <c r="C48" t="s" s="5">
         <v>6</v>
       </c>
-      <c r="D48" s="56">
-        <v>6</v>
-      </c>
-      <c r="E48" s="57">
+      <c r="D48" s="53">
+        <v>6</v>
+      </c>
+      <c r="E48" s="54">
         <v>8</v>
       </c>
       <c r="F48" t="s" s="5">
@@ -8303,10 +7904,10 @@
       <c r="K48" t="s" s="5">
         <v>11</v>
       </c>
-      <c r="L48" s="25"/>
-      <c r="M48" s="35"/>
-      <c r="N48" s="35"/>
-      <c r="O48" s="35"/>
+      <c r="L48" s="24"/>
+      <c r="M48" s="28"/>
+      <c r="N48" s="28"/>
+      <c r="O48" s="28"/>
     </row>
     <row r="49" ht="15" customHeight="1">
       <c r="A49" s="4">
@@ -8318,34 +7919,34 @@
       <c r="C49" t="s" s="5">
         <v>7</v>
       </c>
-      <c r="D49" s="56">
-        <v>6</v>
-      </c>
-      <c r="E49" s="57">
-        <v>6</v>
-      </c>
-      <c r="F49" s="57">
-        <v>6</v>
-      </c>
-      <c r="G49" s="57">
+      <c r="D49" s="53">
+        <v>6</v>
+      </c>
+      <c r="E49" s="54">
+        <v>6</v>
+      </c>
+      <c r="F49" s="54">
+        <v>6</v>
+      </c>
+      <c r="G49" s="54">
         <v>14</v>
       </c>
-      <c r="H49" s="57">
+      <c r="H49" s="54">
         <v>42</v>
       </c>
-      <c r="I49" s="57">
+      <c r="I49" s="54">
         <v>78</v>
       </c>
-      <c r="J49" s="57">
+      <c r="J49" s="54">
         <v>116</v>
       </c>
       <c r="K49" s="4">
         <v>186</v>
       </c>
-      <c r="L49" s="25"/>
-      <c r="M49" s="35"/>
-      <c r="N49" s="35"/>
-      <c r="O49" s="35"/>
+      <c r="L49" s="24"/>
+      <c r="M49" s="28"/>
+      <c r="N49" s="28"/>
+      <c r="O49" s="28"/>
     </row>
     <row r="50" ht="15" customHeight="1">
       <c r="A50" s="4">
@@ -8357,34 +7958,34 @@
       <c r="C50" t="s" s="5">
         <v>6</v>
       </c>
-      <c r="D50" s="56">
-        <v>6</v>
-      </c>
-      <c r="E50" s="57">
-        <v>6</v>
-      </c>
-      <c r="F50" s="57">
-        <v>8</v>
-      </c>
-      <c r="G50" s="57">
+      <c r="D50" s="53">
+        <v>6</v>
+      </c>
+      <c r="E50" s="54">
+        <v>6</v>
+      </c>
+      <c r="F50" s="54">
+        <v>8</v>
+      </c>
+      <c r="G50" s="54">
         <v>18</v>
       </c>
-      <c r="H50" s="57">
+      <c r="H50" s="54">
         <v>25</v>
       </c>
-      <c r="I50" s="57">
+      <c r="I50" s="54">
         <v>39</v>
       </c>
-      <c r="J50" s="57">
+      <c r="J50" s="54">
         <v>59</v>
       </c>
       <c r="K50" s="4">
         <v>114</v>
       </c>
-      <c r="L50" s="25"/>
-      <c r="M50" s="35"/>
-      <c r="N50" s="35"/>
-      <c r="O50" s="35"/>
+      <c r="L50" s="24"/>
+      <c r="M50" s="28"/>
+      <c r="N50" s="28"/>
+      <c r="O50" s="28"/>
     </row>
     <row r="51" ht="15" customHeight="1">
       <c r="A51" s="4">
@@ -8396,34 +7997,34 @@
       <c r="C51" t="s" s="5">
         <v>7</v>
       </c>
-      <c r="D51" s="56">
-        <v>6</v>
-      </c>
-      <c r="E51" s="57">
-        <v>6</v>
-      </c>
-      <c r="F51" s="57">
-        <v>8</v>
-      </c>
-      <c r="G51" s="57">
+      <c r="D51" s="53">
+        <v>6</v>
+      </c>
+      <c r="E51" s="54">
+        <v>6</v>
+      </c>
+      <c r="F51" s="54">
+        <v>8</v>
+      </c>
+      <c r="G51" s="54">
         <v>14</v>
       </c>
-      <c r="H51" s="57">
+      <c r="H51" s="54">
         <v>34</v>
       </c>
-      <c r="I51" s="57">
+      <c r="I51" s="54">
         <v>52</v>
       </c>
-      <c r="J51" s="57">
+      <c r="J51" s="54">
         <v>72</v>
       </c>
       <c r="K51" s="4">
         <v>116</v>
       </c>
-      <c r="L51" s="25"/>
-      <c r="M51" s="35"/>
-      <c r="N51" s="35"/>
-      <c r="O51" s="35"/>
+      <c r="L51" s="24"/>
+      <c r="M51" s="28"/>
+      <c r="N51" s="28"/>
+      <c r="O51" s="28"/>
     </row>
     <row r="52" ht="15" customHeight="1">
       <c r="A52" s="4">
@@ -8435,34 +8036,34 @@
       <c r="C52" t="s" s="5">
         <v>7</v>
       </c>
-      <c r="D52" s="56">
-        <v>4</v>
-      </c>
-      <c r="E52" s="57">
-        <v>6</v>
-      </c>
-      <c r="F52" s="57">
-        <v>6</v>
-      </c>
-      <c r="G52" s="57">
-        <v>8</v>
-      </c>
-      <c r="H52" s="57">
+      <c r="D52" s="53">
+        <v>4</v>
+      </c>
+      <c r="E52" s="54">
+        <v>6</v>
+      </c>
+      <c r="F52" s="54">
+        <v>6</v>
+      </c>
+      <c r="G52" s="54">
+        <v>8</v>
+      </c>
+      <c r="H52" s="54">
         <v>18</v>
       </c>
-      <c r="I52" s="57">
+      <c r="I52" s="54">
         <v>39</v>
       </c>
-      <c r="J52" s="57">
+      <c r="J52" s="54">
         <v>57</v>
       </c>
       <c r="K52" s="4">
         <v>100</v>
       </c>
-      <c r="L52" s="25"/>
-      <c r="M52" s="35"/>
-      <c r="N52" s="35"/>
-      <c r="O52" s="35"/>
+      <c r="L52" s="24"/>
+      <c r="M52" s="28"/>
+      <c r="N52" s="28"/>
+      <c r="O52" s="28"/>
     </row>
     <row r="53" ht="15" customHeight="1">
       <c r="A53" s="4">
@@ -8474,34 +8075,34 @@
       <c r="C53" t="s" s="5">
         <v>8</v>
       </c>
-      <c r="D53" s="56">
-        <v>4</v>
-      </c>
-      <c r="E53" s="57">
-        <v>6</v>
-      </c>
-      <c r="F53" s="57">
-        <v>8</v>
-      </c>
-      <c r="G53" s="57">
+      <c r="D53" s="53">
+        <v>4</v>
+      </c>
+      <c r="E53" s="54">
+        <v>6</v>
+      </c>
+      <c r="F53" s="54">
+        <v>8</v>
+      </c>
+      <c r="G53" s="54">
         <v>12</v>
       </c>
-      <c r="H53" s="57">
+      <c r="H53" s="54">
         <v>42</v>
       </c>
-      <c r="I53" s="57">
+      <c r="I53" s="54">
         <v>66</v>
       </c>
-      <c r="J53" s="57">
+      <c r="J53" s="54">
         <v>88</v>
       </c>
       <c r="K53" s="4">
         <v>140</v>
       </c>
-      <c r="L53" s="25"/>
-      <c r="M53" s="35"/>
-      <c r="N53" s="35"/>
-      <c r="O53" s="35"/>
+      <c r="L53" s="24"/>
+      <c r="M53" s="28"/>
+      <c r="N53" s="28"/>
+      <c r="O53" s="28"/>
     </row>
     <row r="54" ht="15" customHeight="1">
       <c r="A54" s="4">
@@ -8513,34 +8114,34 @@
       <c r="C54" t="s" s="5">
         <v>6</v>
       </c>
-      <c r="D54" s="56">
-        <v>6</v>
-      </c>
-      <c r="E54" s="57">
-        <v>8</v>
-      </c>
-      <c r="F54" s="57">
-        <v>8</v>
-      </c>
-      <c r="G54" s="57">
+      <c r="D54" s="53">
+        <v>6</v>
+      </c>
+      <c r="E54" s="54">
+        <v>8</v>
+      </c>
+      <c r="F54" s="54">
+        <v>8</v>
+      </c>
+      <c r="G54" s="54">
         <v>12</v>
       </c>
-      <c r="H54" s="57">
+      <c r="H54" s="54">
         <v>32</v>
       </c>
-      <c r="I54" s="57">
+      <c r="I54" s="54">
         <v>56</v>
       </c>
-      <c r="J54" s="57">
+      <c r="J54" s="54">
         <v>82</v>
       </c>
       <c r="K54" s="4">
         <v>140</v>
       </c>
-      <c r="L54" s="25"/>
-      <c r="M54" s="35"/>
-      <c r="N54" s="35"/>
-      <c r="O54" s="35"/>
+      <c r="L54" s="24"/>
+      <c r="M54" s="28"/>
+      <c r="N54" s="28"/>
+      <c r="O54" s="28"/>
     </row>
     <row r="55" ht="15" customHeight="1">
       <c r="A55" s="4">
@@ -8552,34 +8153,34 @@
       <c r="C55" t="s" s="5">
         <v>6</v>
       </c>
-      <c r="D55" s="56">
-        <v>6</v>
-      </c>
-      <c r="E55" s="57">
-        <v>6</v>
-      </c>
-      <c r="F55" s="57">
-        <v>8</v>
-      </c>
-      <c r="G55" s="57">
+      <c r="D55" s="53">
+        <v>6</v>
+      </c>
+      <c r="E55" s="54">
+        <v>6</v>
+      </c>
+      <c r="F55" s="54">
+        <v>8</v>
+      </c>
+      <c r="G55" s="54">
         <v>16</v>
       </c>
-      <c r="H55" s="57">
+      <c r="H55" s="54">
         <v>26</v>
       </c>
-      <c r="I55" s="57">
+      <c r="I55" s="54">
         <v>34</v>
       </c>
-      <c r="J55" s="57">
+      <c r="J55" s="54">
         <v>52</v>
       </c>
       <c r="K55" s="4">
         <v>84</v>
       </c>
-      <c r="L55" s="25"/>
-      <c r="M55" s="35"/>
-      <c r="N55" s="35"/>
-      <c r="O55" s="35"/>
+      <c r="L55" s="24"/>
+      <c r="M55" s="28"/>
+      <c r="N55" s="28"/>
+      <c r="O55" s="28"/>
     </row>
     <row r="56" ht="15" customHeight="1">
       <c r="A56" s="4">
@@ -8591,34 +8192,34 @@
       <c r="C56" t="s" s="5">
         <v>7</v>
       </c>
-      <c r="D56" s="56">
-        <v>4</v>
-      </c>
-      <c r="E56" s="57">
-        <v>6</v>
-      </c>
-      <c r="F56" s="57">
-        <v>6</v>
-      </c>
-      <c r="G56" s="57">
-        <v>11</v>
-      </c>
-      <c r="H56" s="57">
+      <c r="D56" s="53">
+        <v>4</v>
+      </c>
+      <c r="E56" s="54">
+        <v>6</v>
+      </c>
+      <c r="F56" s="54">
+        <v>6</v>
+      </c>
+      <c r="G56" s="54">
+        <v>11</v>
+      </c>
+      <c r="H56" s="54">
         <v>26</v>
       </c>
-      <c r="I56" s="57">
+      <c r="I56" s="54">
         <v>44</v>
       </c>
-      <c r="J56" s="57">
+      <c r="J56" s="54">
         <v>60</v>
       </c>
       <c r="K56" s="4">
         <v>100</v>
       </c>
-      <c r="L56" s="25"/>
-      <c r="M56" s="35"/>
-      <c r="N56" s="35"/>
-      <c r="O56" s="35"/>
+      <c r="L56" s="24"/>
+      <c r="M56" s="28"/>
+      <c r="N56" s="28"/>
+      <c r="O56" s="28"/>
     </row>
     <row r="57" ht="15" customHeight="1">
       <c r="A57" s="4">
@@ -8633,31 +8234,31 @@
       <c r="D57" t="s" s="8">
         <v>11</v>
       </c>
-      <c r="E57" s="57">
-        <v>8</v>
-      </c>
-      <c r="F57" s="57">
-        <v>10</v>
-      </c>
-      <c r="G57" s="57">
+      <c r="E57" s="54">
+        <v>8</v>
+      </c>
+      <c r="F57" s="54">
+        <v>10</v>
+      </c>
+      <c r="G57" s="54">
         <v>16</v>
       </c>
-      <c r="H57" s="57">
+      <c r="H57" s="54">
         <v>40</v>
       </c>
-      <c r="I57" s="57">
+      <c r="I57" s="54">
         <v>73</v>
       </c>
-      <c r="J57" s="57">
+      <c r="J57" s="54">
         <v>90</v>
       </c>
       <c r="K57" s="4">
         <v>142</v>
       </c>
-      <c r="L57" s="25"/>
-      <c r="M57" s="35"/>
-      <c r="N57" s="35"/>
-      <c r="O57" s="35"/>
+      <c r="L57" s="24"/>
+      <c r="M57" s="28"/>
+      <c r="N57" s="28"/>
+      <c r="O57" s="28"/>
     </row>
     <row r="58" ht="15" customHeight="1">
       <c r="A58" s="4">
@@ -8672,31 +8273,31 @@
       <c r="D58" t="s" s="8">
         <v>11</v>
       </c>
-      <c r="E58" s="57">
-        <v>6</v>
-      </c>
-      <c r="F58" s="57">
-        <v>6</v>
-      </c>
-      <c r="G58" s="57">
-        <v>10</v>
-      </c>
-      <c r="H58" s="57">
+      <c r="E58" s="54">
+        <v>6</v>
+      </c>
+      <c r="F58" s="54">
+        <v>6</v>
+      </c>
+      <c r="G58" s="54">
+        <v>10</v>
+      </c>
+      <c r="H58" s="54">
         <v>29</v>
       </c>
-      <c r="I58" s="57">
+      <c r="I58" s="54">
         <v>49</v>
       </c>
-      <c r="J58" s="57">
+      <c r="J58" s="54">
         <v>67</v>
       </c>
       <c r="K58" s="4">
         <v>112</v>
       </c>
-      <c r="L58" s="25"/>
-      <c r="M58" s="35"/>
-      <c r="N58" s="35"/>
-      <c r="O58" s="35"/>
+      <c r="L58" s="24"/>
+      <c r="M58" s="28"/>
+      <c r="N58" s="28"/>
+      <c r="O58" s="28"/>
     </row>
     <row r="59" ht="15" customHeight="1">
       <c r="A59" s="4">
@@ -8708,34 +8309,34 @@
       <c r="C59" t="s" s="5">
         <v>6</v>
       </c>
-      <c r="D59" s="56">
-        <v>6</v>
-      </c>
-      <c r="E59" s="57">
-        <v>8</v>
-      </c>
-      <c r="F59" s="57">
-        <v>10</v>
-      </c>
-      <c r="G59" s="57">
+      <c r="D59" s="53">
+        <v>6</v>
+      </c>
+      <c r="E59" s="54">
+        <v>8</v>
+      </c>
+      <c r="F59" s="54">
+        <v>10</v>
+      </c>
+      <c r="G59" s="54">
         <v>22</v>
       </c>
-      <c r="H59" s="57">
+      <c r="H59" s="54">
         <v>52</v>
       </c>
-      <c r="I59" s="57">
+      <c r="I59" s="54">
         <v>70</v>
       </c>
-      <c r="J59" s="57">
+      <c r="J59" s="54">
         <v>102</v>
       </c>
       <c r="K59" s="4">
         <v>154</v>
       </c>
-      <c r="L59" s="25"/>
-      <c r="M59" s="35"/>
-      <c r="N59" s="35"/>
-      <c r="O59" s="35"/>
+      <c r="L59" s="24"/>
+      <c r="M59" s="28"/>
+      <c r="N59" s="28"/>
+      <c r="O59" s="28"/>
     </row>
     <row r="60" ht="15" customHeight="1">
       <c r="A60" s="4">
@@ -8747,34 +8348,34 @@
       <c r="C60" t="s" s="5">
         <v>8</v>
       </c>
-      <c r="D60" s="56">
-        <v>6</v>
-      </c>
-      <c r="E60" s="57">
-        <v>6</v>
-      </c>
-      <c r="F60" s="57">
+      <c r="D60" s="53">
+        <v>6</v>
+      </c>
+      <c r="E60" s="54">
+        <v>6</v>
+      </c>
+      <c r="F60" s="54">
         <v>9</v>
       </c>
-      <c r="G60" s="57">
+      <c r="G60" s="54">
         <v>17</v>
       </c>
-      <c r="H60" s="57">
+      <c r="H60" s="54">
         <v>24</v>
       </c>
-      <c r="I60" s="57">
+      <c r="I60" s="54">
         <v>50</v>
       </c>
-      <c r="J60" s="57">
+      <c r="J60" s="54">
         <v>66</v>
       </c>
       <c r="K60" s="4">
         <v>110</v>
       </c>
-      <c r="L60" s="25"/>
-      <c r="M60" s="35"/>
-      <c r="N60" s="35"/>
-      <c r="O60" s="35"/>
+      <c r="L60" s="24"/>
+      <c r="M60" s="28"/>
+      <c r="N60" s="28"/>
+      <c r="O60" s="28"/>
     </row>
     <row r="61" ht="15" customHeight="1">
       <c r="A61" s="4">
@@ -8786,34 +8387,34 @@
       <c r="C61" t="s" s="5">
         <v>7</v>
       </c>
-      <c r="D61" s="56">
-        <v>6</v>
-      </c>
-      <c r="E61" s="57">
-        <v>6</v>
-      </c>
-      <c r="F61" s="57">
-        <v>8</v>
-      </c>
-      <c r="G61" s="57">
+      <c r="D61" s="53">
+        <v>6</v>
+      </c>
+      <c r="E61" s="54">
+        <v>6</v>
+      </c>
+      <c r="F61" s="54">
+        <v>8</v>
+      </c>
+      <c r="G61" s="54">
         <v>18</v>
       </c>
-      <c r="H61" s="57">
+      <c r="H61" s="54">
         <v>44</v>
       </c>
-      <c r="I61" s="57">
+      <c r="I61" s="54">
         <v>72</v>
       </c>
-      <c r="J61" s="57">
+      <c r="J61" s="54">
         <v>94</v>
       </c>
       <c r="K61" s="4">
         <v>136</v>
       </c>
-      <c r="L61" s="25"/>
-      <c r="M61" s="35"/>
-      <c r="N61" s="35"/>
-      <c r="O61" s="35"/>
+      <c r="L61" s="24"/>
+      <c r="M61" s="28"/>
+      <c r="N61" s="28"/>
+      <c r="O61" s="28"/>
     </row>
     <row r="62" ht="15" customHeight="1">
       <c r="A62" s="4">
@@ -8825,34 +8426,34 @@
       <c r="C62" t="s" s="5">
         <v>12</v>
       </c>
-      <c r="D62" s="56">
+      <c r="D62" s="53">
         <v>9</v>
       </c>
-      <c r="E62" s="57">
-        <v>10</v>
-      </c>
-      <c r="F62" s="57">
+      <c r="E62" s="54">
+        <v>10</v>
+      </c>
+      <c r="F62" s="54">
         <v>12</v>
       </c>
-      <c r="G62" s="57">
+      <c r="G62" s="54">
         <v>21</v>
       </c>
-      <c r="H62" s="57">
+      <c r="H62" s="54">
         <v>48</v>
       </c>
-      <c r="I62" s="57">
+      <c r="I62" s="54">
         <v>65</v>
       </c>
-      <c r="J62" s="57">
+      <c r="J62" s="54">
         <v>80</v>
       </c>
       <c r="K62" s="4">
         <v>126</v>
       </c>
-      <c r="L62" s="25"/>
-      <c r="M62" s="35"/>
-      <c r="N62" s="35"/>
-      <c r="O62" s="35"/>
+      <c r="L62" s="24"/>
+      <c r="M62" s="28"/>
+      <c r="N62" s="28"/>
+      <c r="O62" s="28"/>
     </row>
     <row r="63" ht="15" customHeight="1">
       <c r="A63" s="4">
@@ -8864,34 +8465,34 @@
       <c r="C63" t="s" s="5">
         <v>9</v>
       </c>
-      <c r="D63" s="56">
-        <v>6</v>
-      </c>
-      <c r="E63" s="57">
-        <v>6</v>
-      </c>
-      <c r="F63" s="57">
-        <v>8</v>
-      </c>
-      <c r="G63" s="57">
+      <c r="D63" s="53">
+        <v>6</v>
+      </c>
+      <c r="E63" s="54">
+        <v>6</v>
+      </c>
+      <c r="F63" s="54">
+        <v>8</v>
+      </c>
+      <c r="G63" s="54">
         <v>21</v>
       </c>
-      <c r="H63" s="57">
+      <c r="H63" s="54">
         <v>47</v>
       </c>
-      <c r="I63" s="57">
+      <c r="I63" s="54">
         <v>63</v>
       </c>
-      <c r="J63" s="57">
+      <c r="J63" s="54">
         <v>89</v>
       </c>
       <c r="K63" s="4">
         <v>136</v>
       </c>
-      <c r="L63" s="25"/>
-      <c r="M63" s="35"/>
-      <c r="N63" s="35"/>
-      <c r="O63" s="35"/>
+      <c r="L63" s="24"/>
+      <c r="M63" s="28"/>
+      <c r="N63" s="28"/>
+      <c r="O63" s="28"/>
     </row>
     <row r="64" ht="15" customHeight="1">
       <c r="A64" s="4">
@@ -8903,34 +8504,34 @@
       <c r="C64" t="s" s="5">
         <v>6</v>
       </c>
-      <c r="D64" s="56">
-        <v>6</v>
-      </c>
-      <c r="E64" s="57">
-        <v>6</v>
-      </c>
-      <c r="F64" s="57">
-        <v>8</v>
-      </c>
-      <c r="G64" s="57">
+      <c r="D64" s="53">
+        <v>6</v>
+      </c>
+      <c r="E64" s="54">
+        <v>6</v>
+      </c>
+      <c r="F64" s="54">
+        <v>8</v>
+      </c>
+      <c r="G64" s="54">
         <v>16</v>
       </c>
-      <c r="H64" s="57">
+      <c r="H64" s="54">
         <v>24</v>
       </c>
-      <c r="I64" s="57">
+      <c r="I64" s="54">
         <v>50</v>
       </c>
-      <c r="J64" s="57">
+      <c r="J64" s="54">
         <v>78</v>
       </c>
       <c r="K64" s="4">
         <v>132</v>
       </c>
-      <c r="L64" s="25"/>
-      <c r="M64" s="35"/>
-      <c r="N64" s="35"/>
-      <c r="O64" s="35"/>
+      <c r="L64" s="24"/>
+      <c r="M64" s="28"/>
+      <c r="N64" s="28"/>
+      <c r="O64" s="28"/>
     </row>
     <row r="65" ht="15" customHeight="1">
       <c r="A65" s="4">
@@ -8942,34 +8543,34 @@
       <c r="C65" t="s" s="5">
         <v>8</v>
       </c>
-      <c r="D65" s="56">
-        <v>6</v>
-      </c>
-      <c r="E65" s="57">
-        <v>8</v>
-      </c>
-      <c r="F65" s="57">
-        <v>10</v>
-      </c>
-      <c r="G65" s="57">
+      <c r="D65" s="53">
+        <v>6</v>
+      </c>
+      <c r="E65" s="54">
+        <v>8</v>
+      </c>
+      <c r="F65" s="54">
+        <v>10</v>
+      </c>
+      <c r="G65" s="54">
         <v>20</v>
       </c>
-      <c r="H65" s="57">
+      <c r="H65" s="54">
         <v>46</v>
       </c>
-      <c r="I65" s="57">
+      <c r="I65" s="54">
         <v>73</v>
       </c>
-      <c r="J65" s="57">
+      <c r="J65" s="54">
         <v>92</v>
       </c>
       <c r="K65" s="4">
         <v>140</v>
       </c>
-      <c r="L65" s="25"/>
-      <c r="M65" s="35"/>
-      <c r="N65" s="35"/>
-      <c r="O65" s="35"/>
+      <c r="L65" s="24"/>
+      <c r="M65" s="28"/>
+      <c r="N65" s="28"/>
+      <c r="O65" s="28"/>
     </row>
     <row r="66" ht="15" customHeight="1">
       <c r="A66" s="4">
@@ -8981,34 +8582,34 @@
       <c r="C66" t="s" s="5">
         <v>9</v>
       </c>
-      <c r="D66" s="56">
-        <v>6</v>
-      </c>
-      <c r="E66" s="57">
-        <v>6</v>
-      </c>
-      <c r="F66" s="57">
-        <v>8</v>
-      </c>
-      <c r="G66" s="57">
+      <c r="D66" s="53">
+        <v>6</v>
+      </c>
+      <c r="E66" s="54">
+        <v>6</v>
+      </c>
+      <c r="F66" s="54">
+        <v>8</v>
+      </c>
+      <c r="G66" s="54">
         <v>12</v>
       </c>
-      <c r="H66" s="57">
+      <c r="H66" s="54">
         <v>16</v>
       </c>
-      <c r="I66" s="57">
+      <c r="I66" s="54">
         <v>22</v>
       </c>
-      <c r="J66" s="57">
+      <c r="J66" s="54">
         <v>42</v>
       </c>
       <c r="K66" s="4">
         <v>74</v>
       </c>
-      <c r="L66" s="25"/>
-      <c r="M66" s="35"/>
-      <c r="N66" s="35"/>
-      <c r="O66" s="35"/>
+      <c r="L66" s="24"/>
+      <c r="M66" s="28"/>
+      <c r="N66" s="28"/>
+      <c r="O66" s="28"/>
     </row>
     <row r="67" ht="15" customHeight="1">
       <c r="A67" s="4">
@@ -9020,34 +8621,34 @@
       <c r="C67" t="s" s="5">
         <v>12</v>
       </c>
-      <c r="D67" s="56">
-        <v>6</v>
-      </c>
-      <c r="E67" s="57">
-        <v>6</v>
-      </c>
-      <c r="F67" s="57">
-        <v>6</v>
-      </c>
-      <c r="G67" s="57">
+      <c r="D67" s="53">
+        <v>6</v>
+      </c>
+      <c r="E67" s="54">
+        <v>6</v>
+      </c>
+      <c r="F67" s="54">
+        <v>6</v>
+      </c>
+      <c r="G67" s="54">
         <v>14</v>
       </c>
-      <c r="H67" s="57">
+      <c r="H67" s="54">
         <v>30</v>
       </c>
-      <c r="I67" s="57">
+      <c r="I67" s="54">
         <v>52</v>
       </c>
-      <c r="J67" s="57">
+      <c r="J67" s="54">
         <v>78</v>
       </c>
       <c r="K67" s="4">
         <v>116</v>
       </c>
-      <c r="L67" s="25"/>
-      <c r="M67" s="35"/>
-      <c r="N67" s="35"/>
-      <c r="O67" s="35"/>
+      <c r="L67" s="24"/>
+      <c r="M67" s="28"/>
+      <c r="N67" s="28"/>
+      <c r="O67" s="28"/>
     </row>
     <row r="68" ht="15" customHeight="1">
       <c r="A68" s="4">
@@ -9059,34 +8660,34 @@
       <c r="C68" t="s" s="5">
         <v>6</v>
       </c>
-      <c r="D68" s="56">
-        <v>6</v>
-      </c>
-      <c r="E68" s="57">
-        <v>6</v>
-      </c>
-      <c r="F68" s="57">
-        <v>8</v>
-      </c>
-      <c r="G68" s="57">
+      <c r="D68" s="53">
+        <v>6</v>
+      </c>
+      <c r="E68" s="54">
+        <v>6</v>
+      </c>
+      <c r="F68" s="54">
+        <v>8</v>
+      </c>
+      <c r="G68" s="54">
         <v>19</v>
       </c>
-      <c r="H68" s="57">
+      <c r="H68" s="54">
         <v>30</v>
       </c>
-      <c r="I68" s="57">
+      <c r="I68" s="54">
         <v>28</v>
       </c>
-      <c r="J68" s="57">
+      <c r="J68" s="54">
         <v>26</v>
       </c>
       <c r="K68" s="4">
         <v>28</v>
       </c>
-      <c r="L68" s="25"/>
-      <c r="M68" s="35"/>
-      <c r="N68" s="35"/>
-      <c r="O68" s="35"/>
+      <c r="L68" s="24"/>
+      <c r="M68" s="28"/>
+      <c r="N68" s="28"/>
+      <c r="O68" s="28"/>
     </row>
     <row r="69" ht="15" customHeight="1">
       <c r="A69" s="4">
@@ -9098,34 +8699,34 @@
       <c r="C69" t="s" s="5">
         <v>7</v>
       </c>
-      <c r="D69" s="56">
-        <v>6</v>
-      </c>
-      <c r="E69" s="57">
-        <v>8</v>
-      </c>
-      <c r="F69" s="57">
-        <v>10</v>
-      </c>
-      <c r="G69" s="57">
+      <c r="D69" s="53">
+        <v>6</v>
+      </c>
+      <c r="E69" s="54">
+        <v>8</v>
+      </c>
+      <c r="F69" s="54">
+        <v>10</v>
+      </c>
+      <c r="G69" s="54">
         <v>14</v>
       </c>
-      <c r="H69" s="57">
+      <c r="H69" s="54">
         <v>32</v>
       </c>
-      <c r="I69" s="57">
+      <c r="I69" s="54">
         <v>46</v>
       </c>
-      <c r="J69" s="57">
+      <c r="J69" s="54">
         <v>50</v>
       </c>
       <c r="K69" s="4">
         <v>72</v>
       </c>
-      <c r="L69" s="25"/>
-      <c r="M69" s="35"/>
-      <c r="N69" s="35"/>
-      <c r="O69" s="35"/>
+      <c r="L69" s="24"/>
+      <c r="M69" s="28"/>
+      <c r="N69" s="28"/>
+      <c r="O69" s="28"/>
     </row>
     <row r="70" ht="15" customHeight="1">
       <c r="A70" s="4">
@@ -9137,34 +8738,34 @@
       <c r="C70" t="s" s="5">
         <v>13</v>
       </c>
-      <c r="D70" s="56">
-        <v>6</v>
-      </c>
-      <c r="E70" s="57">
-        <v>6</v>
-      </c>
-      <c r="F70" s="57">
-        <v>8</v>
-      </c>
-      <c r="G70" s="57">
+      <c r="D70" s="53">
+        <v>6</v>
+      </c>
+      <c r="E70" s="54">
+        <v>6</v>
+      </c>
+      <c r="F70" s="54">
+        <v>8</v>
+      </c>
+      <c r="G70" s="54">
         <v>16</v>
       </c>
-      <c r="H70" s="57">
+      <c r="H70" s="54">
         <v>32</v>
       </c>
-      <c r="I70" s="57">
+      <c r="I70" s="54">
         <v>37</v>
       </c>
-      <c r="J70" s="57">
+      <c r="J70" s="54">
         <v>45</v>
       </c>
       <c r="K70" s="4">
         <v>58</v>
       </c>
-      <c r="L70" s="25"/>
-      <c r="M70" s="35"/>
-      <c r="N70" s="35"/>
-      <c r="O70" s="35"/>
+      <c r="L70" s="24"/>
+      <c r="M70" s="28"/>
+      <c r="N70" s="28"/>
+      <c r="O70" s="28"/>
     </row>
     <row r="71" ht="15" customHeight="1">
       <c r="A71" s="4">
@@ -9176,34 +8777,34 @@
       <c r="C71" t="s" s="5">
         <v>14</v>
       </c>
-      <c r="D71" s="56">
-        <v>6</v>
-      </c>
-      <c r="E71" s="57">
-        <v>6</v>
-      </c>
-      <c r="F71" s="57">
-        <v>8</v>
-      </c>
-      <c r="G71" s="57">
+      <c r="D71" s="53">
+        <v>6</v>
+      </c>
+      <c r="E71" s="54">
+        <v>6</v>
+      </c>
+      <c r="F71" s="54">
+        <v>8</v>
+      </c>
+      <c r="G71" s="54">
         <v>18</v>
       </c>
-      <c r="H71" s="57">
+      <c r="H71" s="54">
         <v>32</v>
       </c>
-      <c r="I71" s="57">
+      <c r="I71" s="54">
         <v>44</v>
       </c>
-      <c r="J71" s="57">
+      <c r="J71" s="54">
         <v>60</v>
       </c>
       <c r="K71" s="4">
         <v>98</v>
       </c>
-      <c r="L71" s="25"/>
-      <c r="M71" s="35"/>
-      <c r="N71" s="35"/>
-      <c r="O71" s="35"/>
+      <c r="L71" s="24"/>
+      <c r="M71" s="28"/>
+      <c r="N71" s="28"/>
+      <c r="O71" s="28"/>
     </row>
     <row r="72" ht="15" customHeight="1">
       <c r="A72" s="4">
@@ -9215,34 +8816,34 @@
       <c r="C72" t="s" s="5">
         <v>15</v>
       </c>
-      <c r="D72" s="56">
-        <v>6</v>
-      </c>
-      <c r="E72" s="57">
-        <v>6</v>
-      </c>
-      <c r="F72" s="57">
-        <v>10</v>
-      </c>
-      <c r="G72" s="57">
+      <c r="D72" s="53">
+        <v>6</v>
+      </c>
+      <c r="E72" s="54">
+        <v>6</v>
+      </c>
+      <c r="F72" s="54">
+        <v>10</v>
+      </c>
+      <c r="G72" s="54">
         <v>28</v>
       </c>
-      <c r="H72" s="57">
+      <c r="H72" s="54">
         <v>52</v>
       </c>
-      <c r="I72" s="57">
+      <c r="I72" s="54">
         <v>52</v>
       </c>
-      <c r="J72" s="57">
+      <c r="J72" s="54">
         <v>64</v>
       </c>
       <c r="K72" s="4">
         <v>96</v>
       </c>
-      <c r="L72" s="25"/>
-      <c r="M72" s="35"/>
-      <c r="N72" s="35"/>
-      <c r="O72" s="35"/>
+      <c r="L72" s="24"/>
+      <c r="M72" s="28"/>
+      <c r="N72" s="28"/>
+      <c r="O72" s="28"/>
     </row>
     <row r="73" ht="15" customHeight="1">
       <c r="A73" s="4">
@@ -9254,34 +8855,34 @@
       <c r="C73" t="s" s="5">
         <v>16</v>
       </c>
-      <c r="D73" s="56">
-        <v>6</v>
-      </c>
-      <c r="E73" s="57">
-        <v>6</v>
-      </c>
-      <c r="F73" s="57">
-        <v>6</v>
-      </c>
-      <c r="G73" s="57">
+      <c r="D73" s="53">
+        <v>6</v>
+      </c>
+      <c r="E73" s="54">
+        <v>6</v>
+      </c>
+      <c r="F73" s="54">
+        <v>6</v>
+      </c>
+      <c r="G73" s="54">
         <v>22</v>
       </c>
-      <c r="H73" s="57">
+      <c r="H73" s="54">
         <v>24</v>
       </c>
-      <c r="I73" s="57">
+      <c r="I73" s="54">
         <v>27</v>
       </c>
-      <c r="J73" s="57">
+      <c r="J73" s="54">
         <v>35</v>
       </c>
       <c r="K73" s="4">
         <v>72</v>
       </c>
-      <c r="L73" s="25"/>
-      <c r="M73" s="35"/>
-      <c r="N73" s="35"/>
-      <c r="O73" s="35"/>
+      <c r="L73" s="24"/>
+      <c r="M73" s="28"/>
+      <c r="N73" s="28"/>
+      <c r="O73" s="28"/>
     </row>
     <row r="74" ht="15" customHeight="1">
       <c r="A74" s="4">
@@ -9293,34 +8894,34 @@
       <c r="C74" t="s" s="5">
         <v>17</v>
       </c>
-      <c r="D74" s="56">
-        <v>7</v>
-      </c>
-      <c r="E74" s="57">
-        <v>7</v>
-      </c>
-      <c r="F74" s="57">
+      <c r="D74" s="53">
+        <v>7</v>
+      </c>
+      <c r="E74" s="54">
+        <v>7</v>
+      </c>
+      <c r="F74" s="54">
         <v>15</v>
       </c>
-      <c r="G74" s="57">
+      <c r="G74" s="54">
         <v>23</v>
       </c>
-      <c r="H74" s="57">
+      <c r="H74" s="54">
         <v>39</v>
       </c>
-      <c r="I74" s="57">
+      <c r="I74" s="54">
         <v>45</v>
       </c>
-      <c r="J74" s="57">
+      <c r="J74" s="54">
         <v>50</v>
       </c>
       <c r="K74" s="4">
         <v>72</v>
       </c>
-      <c r="L74" s="25"/>
-      <c r="M74" s="35"/>
-      <c r="N74" s="35"/>
-      <c r="O74" s="35"/>
+      <c r="L74" s="24"/>
+      <c r="M74" s="28"/>
+      <c r="N74" s="28"/>
+      <c r="O74" s="28"/>
     </row>
     <row r="75" ht="13" customHeight="1">
       <c r="A75" s="4">
@@ -9332,34 +8933,34 @@
       <c r="C75" t="s" s="5">
         <v>6</v>
       </c>
-      <c r="D75" s="56">
-        <v>4</v>
-      </c>
-      <c r="E75" s="57">
-        <v>6</v>
-      </c>
-      <c r="F75" s="57">
-        <v>8</v>
-      </c>
-      <c r="G75" s="57">
+      <c r="D75" s="53">
+        <v>4</v>
+      </c>
+      <c r="E75" s="54">
+        <v>6</v>
+      </c>
+      <c r="F75" s="54">
+        <v>8</v>
+      </c>
+      <c r="G75" s="54">
         <v>18</v>
       </c>
-      <c r="H75" s="57">
+      <c r="H75" s="54">
         <v>42</v>
       </c>
-      <c r="I75" s="57">
+      <c r="I75" s="54">
         <v>68</v>
       </c>
-      <c r="J75" s="57">
+      <c r="J75" s="54">
         <v>94</v>
       </c>
       <c r="K75" s="4">
         <v>158</v>
       </c>
-      <c r="L75" s="25"/>
-      <c r="M75" s="35"/>
-      <c r="N75" s="35"/>
-      <c r="O75" s="35"/>
+      <c r="L75" s="24"/>
+      <c r="M75" s="28"/>
+      <c r="N75" s="28"/>
+      <c r="O75" s="28"/>
     </row>
     <row r="76" ht="15" customHeight="1">
       <c r="A76" s="4">
@@ -9371,34 +8972,34 @@
       <c r="C76" t="s" s="5">
         <v>7</v>
       </c>
-      <c r="D76" s="56">
-        <v>4</v>
-      </c>
-      <c r="E76" s="57">
-        <v>6</v>
-      </c>
-      <c r="F76" s="57">
-        <v>8</v>
-      </c>
-      <c r="G76" s="57">
+      <c r="D76" s="53">
+        <v>4</v>
+      </c>
+      <c r="E76" s="54">
+        <v>6</v>
+      </c>
+      <c r="F76" s="54">
+        <v>8</v>
+      </c>
+      <c r="G76" s="54">
         <v>12</v>
       </c>
-      <c r="H76" s="57">
+      <c r="H76" s="54">
         <v>26</v>
       </c>
-      <c r="I76" s="57">
+      <c r="I76" s="54">
         <v>51</v>
       </c>
-      <c r="J76" s="57">
+      <c r="J76" s="54">
         <v>68</v>
       </c>
       <c r="K76" s="4">
         <v>110</v>
       </c>
-      <c r="L76" s="25"/>
-      <c r="M76" s="35"/>
-      <c r="N76" s="35"/>
-      <c r="O76" s="35"/>
+      <c r="L76" s="24"/>
+      <c r="M76" s="28"/>
+      <c r="N76" s="28"/>
+      <c r="O76" s="28"/>
     </row>
     <row r="77" ht="15" customHeight="1">
       <c r="A77" s="4">
@@ -9410,34 +9011,34 @@
       <c r="C77" t="s" s="5">
         <v>8</v>
       </c>
-      <c r="D77" s="56">
-        <v>4</v>
-      </c>
-      <c r="E77" s="57">
-        <v>6</v>
-      </c>
-      <c r="F77" s="57">
-        <v>8</v>
-      </c>
-      <c r="G77" s="57">
+      <c r="D77" s="53">
+        <v>4</v>
+      </c>
+      <c r="E77" s="54">
+        <v>6</v>
+      </c>
+      <c r="F77" s="54">
+        <v>8</v>
+      </c>
+      <c r="G77" s="54">
         <v>22</v>
       </c>
-      <c r="H77" s="57">
+      <c r="H77" s="54">
         <v>47</v>
       </c>
-      <c r="I77" s="57">
+      <c r="I77" s="54">
         <v>78</v>
       </c>
-      <c r="J77" s="57">
+      <c r="J77" s="54">
         <v>94</v>
       </c>
       <c r="K77" s="4">
         <v>118</v>
       </c>
-      <c r="L77" s="25"/>
-      <c r="M77" s="35"/>
-      <c r="N77" s="35"/>
-      <c r="O77" s="35"/>
+      <c r="L77" s="24"/>
+      <c r="M77" s="28"/>
+      <c r="N77" s="28"/>
+      <c r="O77" s="28"/>
     </row>
     <row r="78" ht="15" customHeight="1">
       <c r="A78" s="4">
@@ -9449,34 +9050,34 @@
       <c r="C78" t="s" s="5">
         <v>9</v>
       </c>
-      <c r="D78" s="56">
-        <v>6</v>
-      </c>
-      <c r="E78" s="57">
-        <v>6</v>
-      </c>
-      <c r="F78" s="57">
-        <v>8</v>
-      </c>
-      <c r="G78" s="57">
+      <c r="D78" s="53">
+        <v>6</v>
+      </c>
+      <c r="E78" s="54">
+        <v>6</v>
+      </c>
+      <c r="F78" s="54">
+        <v>8</v>
+      </c>
+      <c r="G78" s="54">
         <v>30</v>
       </c>
-      <c r="H78" s="57">
+      <c r="H78" s="54">
         <v>64</v>
       </c>
-      <c r="I78" s="57">
+      <c r="I78" s="54">
         <v>84</v>
       </c>
-      <c r="J78" s="57">
+      <c r="J78" s="54">
         <v>132</v>
       </c>
       <c r="K78" s="4">
         <v>188</v>
       </c>
-      <c r="L78" s="25"/>
-      <c r="M78" s="35"/>
-      <c r="N78" s="35"/>
-      <c r="O78" s="35"/>
+      <c r="L78" s="24"/>
+      <c r="M78" s="28"/>
+      <c r="N78" s="28"/>
+      <c r="O78" s="28"/>
     </row>
     <row r="79" ht="15" customHeight="1">
       <c r="A79" s="4">
@@ -9488,34 +9089,34 @@
       <c r="C79" t="s" s="5">
         <v>6</v>
       </c>
-      <c r="D79" s="56">
-        <v>4</v>
-      </c>
-      <c r="E79" s="57">
-        <v>6</v>
-      </c>
-      <c r="F79" s="57">
-        <v>6</v>
-      </c>
-      <c r="G79" s="57">
-        <v>8</v>
-      </c>
-      <c r="H79" s="57">
+      <c r="D79" s="53">
+        <v>4</v>
+      </c>
+      <c r="E79" s="54">
+        <v>6</v>
+      </c>
+      <c r="F79" s="54">
+        <v>6</v>
+      </c>
+      <c r="G79" s="54">
+        <v>8</v>
+      </c>
+      <c r="H79" s="54">
         <v>20</v>
       </c>
-      <c r="I79" s="57">
+      <c r="I79" s="54">
         <v>28</v>
       </c>
-      <c r="J79" s="57">
+      <c r="J79" s="54">
         <v>38</v>
       </c>
       <c r="K79" s="4">
         <v>74</v>
       </c>
-      <c r="L79" s="25"/>
-      <c r="M79" s="35"/>
-      <c r="N79" s="35"/>
-      <c r="O79" s="35"/>
+      <c r="L79" s="24"/>
+      <c r="M79" s="28"/>
+      <c r="N79" s="28"/>
+      <c r="O79" s="28"/>
     </row>
     <row r="80" ht="15" customHeight="1">
       <c r="A80" s="4">
@@ -9527,34 +9128,34 @@
       <c r="C80" t="s" s="5">
         <v>7</v>
       </c>
-      <c r="D80" s="56">
-        <v>4</v>
-      </c>
-      <c r="E80" s="57">
-        <v>6</v>
-      </c>
-      <c r="F80" s="57">
-        <v>6</v>
-      </c>
-      <c r="G80" s="57">
-        <v>8</v>
-      </c>
-      <c r="H80" s="57">
+      <c r="D80" s="53">
+        <v>4</v>
+      </c>
+      <c r="E80" s="54">
+        <v>6</v>
+      </c>
+      <c r="F80" s="54">
+        <v>6</v>
+      </c>
+      <c r="G80" s="54">
+        <v>8</v>
+      </c>
+      <c r="H80" s="54">
         <v>20</v>
       </c>
-      <c r="I80" s="57">
+      <c r="I80" s="54">
         <v>42</v>
       </c>
-      <c r="J80" s="57">
+      <c r="J80" s="54">
         <v>64</v>
       </c>
       <c r="K80" s="4">
         <v>108</v>
       </c>
-      <c r="L80" s="25"/>
-      <c r="M80" s="35"/>
-      <c r="N80" s="35"/>
-      <c r="O80" s="35"/>
+      <c r="L80" s="24"/>
+      <c r="M80" s="28"/>
+      <c r="N80" s="28"/>
+      <c r="O80" s="28"/>
     </row>
     <row r="81" ht="15" customHeight="1">
       <c r="A81" s="4">
@@ -9566,34 +9167,34 @@
       <c r="C81" t="s" s="5">
         <v>8</v>
       </c>
-      <c r="D81" s="56">
-        <v>6</v>
-      </c>
-      <c r="E81" s="57">
-        <v>6</v>
-      </c>
-      <c r="F81" s="57">
-        <v>6</v>
-      </c>
-      <c r="G81" s="57">
-        <v>8</v>
-      </c>
-      <c r="H81" s="57">
+      <c r="D81" s="53">
+        <v>6</v>
+      </c>
+      <c r="E81" s="54">
+        <v>6</v>
+      </c>
+      <c r="F81" s="54">
+        <v>6</v>
+      </c>
+      <c r="G81" s="54">
+        <v>8</v>
+      </c>
+      <c r="H81" s="54">
         <v>9</v>
       </c>
-      <c r="I81" s="57">
+      <c r="I81" s="54">
         <v>9</v>
       </c>
-      <c r="J81" s="57">
+      <c r="J81" s="54">
         <v>21</v>
       </c>
       <c r="K81" s="4">
         <v>39</v>
       </c>
-      <c r="L81" s="25"/>
-      <c r="M81" s="35"/>
-      <c r="N81" s="35"/>
-      <c r="O81" s="35"/>
+      <c r="L81" s="24"/>
+      <c r="M81" s="28"/>
+      <c r="N81" s="28"/>
+      <c r="O81" s="28"/>
     </row>
     <row r="82" ht="15" customHeight="1">
       <c r="A82" s="4">
@@ -9605,34 +9206,34 @@
       <c r="C82" t="s" s="5">
         <v>9</v>
       </c>
-      <c r="D82" s="56">
-        <v>6</v>
-      </c>
-      <c r="E82" s="57">
-        <v>7</v>
-      </c>
-      <c r="F82" s="57">
-        <v>7</v>
-      </c>
-      <c r="G82" s="57">
+      <c r="D82" s="53">
+        <v>6</v>
+      </c>
+      <c r="E82" s="54">
+        <v>7</v>
+      </c>
+      <c r="F82" s="54">
+        <v>7</v>
+      </c>
+      <c r="G82" s="54">
         <v>13</v>
       </c>
-      <c r="H82" s="57">
+      <c r="H82" s="54">
         <v>26</v>
       </c>
-      <c r="I82" s="57">
+      <c r="I82" s="54">
         <v>46</v>
       </c>
-      <c r="J82" s="57">
+      <c r="J82" s="54">
         <v>62</v>
       </c>
       <c r="K82" s="4">
         <v>93</v>
       </c>
-      <c r="L82" s="25"/>
-      <c r="M82" s="35"/>
-      <c r="N82" s="35"/>
-      <c r="O82" s="35"/>
+      <c r="L82" s="24"/>
+      <c r="M82" s="28"/>
+      <c r="N82" s="28"/>
+      <c r="O82" s="28"/>
     </row>
     <row r="83" ht="15" customHeight="1">
       <c r="A83" s="4">
@@ -9644,34 +9245,34 @@
       <c r="C83" t="s" s="5">
         <v>6</v>
       </c>
-      <c r="D83" s="56">
-        <v>6</v>
-      </c>
-      <c r="E83" s="57">
-        <v>6</v>
-      </c>
-      <c r="F83" s="57">
-        <v>8</v>
-      </c>
-      <c r="G83" s="57">
+      <c r="D83" s="53">
+        <v>6</v>
+      </c>
+      <c r="E83" s="54">
+        <v>6</v>
+      </c>
+      <c r="F83" s="54">
+        <v>8</v>
+      </c>
+      <c r="G83" s="54">
         <v>18</v>
       </c>
-      <c r="H83" s="57">
+      <c r="H83" s="54">
         <v>36</v>
       </c>
-      <c r="I83" s="57">
+      <c r="I83" s="54">
         <v>64</v>
       </c>
-      <c r="J83" s="57">
+      <c r="J83" s="54">
         <v>80</v>
       </c>
       <c r="K83" s="4">
         <v>122</v>
       </c>
-      <c r="L83" s="25"/>
-      <c r="M83" s="35"/>
-      <c r="N83" s="35"/>
-      <c r="O83" s="35"/>
+      <c r="L83" s="24"/>
+      <c r="M83" s="28"/>
+      <c r="N83" s="28"/>
+      <c r="O83" s="28"/>
     </row>
     <row r="84" ht="15" customHeight="1">
       <c r="A84" s="4">
@@ -9683,34 +9284,34 @@
       <c r="C84" t="s" s="5">
         <v>7</v>
       </c>
-      <c r="D84" s="56">
-        <v>4</v>
-      </c>
-      <c r="E84" s="57">
-        <v>4</v>
-      </c>
-      <c r="F84" s="57">
-        <v>6</v>
-      </c>
-      <c r="G84" s="57">
-        <v>8</v>
-      </c>
-      <c r="H84" s="57">
+      <c r="D84" s="53">
+        <v>4</v>
+      </c>
+      <c r="E84" s="54">
+        <v>4</v>
+      </c>
+      <c r="F84" s="54">
+        <v>6</v>
+      </c>
+      <c r="G84" s="54">
+        <v>8</v>
+      </c>
+      <c r="H84" s="54">
         <v>26</v>
       </c>
-      <c r="I84" s="57">
+      <c r="I84" s="54">
         <v>48</v>
       </c>
-      <c r="J84" s="57">
+      <c r="J84" s="54">
         <v>63</v>
       </c>
       <c r="K84" s="4">
         <v>106</v>
       </c>
-      <c r="L84" s="25"/>
-      <c r="M84" s="35"/>
-      <c r="N84" s="35"/>
-      <c r="O84" s="35"/>
+      <c r="L84" s="24"/>
+      <c r="M84" s="28"/>
+      <c r="N84" s="28"/>
+      <c r="O84" s="28"/>
     </row>
     <row r="85" ht="15" customHeight="1">
       <c r="A85" s="4">
@@ -9722,34 +9323,34 @@
       <c r="C85" t="s" s="5">
         <v>8</v>
       </c>
-      <c r="D85" s="56">
-        <v>6</v>
-      </c>
-      <c r="E85" s="57">
-        <v>6</v>
-      </c>
-      <c r="F85" s="57">
-        <v>8</v>
-      </c>
-      <c r="G85" s="57">
+      <c r="D85" s="53">
+        <v>6</v>
+      </c>
+      <c r="E85" s="54">
+        <v>6</v>
+      </c>
+      <c r="F85" s="54">
+        <v>8</v>
+      </c>
+      <c r="G85" s="54">
         <v>13</v>
       </c>
-      <c r="H85" s="57">
+      <c r="H85" s="54">
         <v>37</v>
       </c>
-      <c r="I85" s="57">
+      <c r="I85" s="54">
         <v>66</v>
       </c>
-      <c r="J85" s="57">
+      <c r="J85" s="54">
         <v>84</v>
       </c>
       <c r="K85" s="4">
         <v>130</v>
       </c>
-      <c r="L85" s="25"/>
-      <c r="M85" s="35"/>
-      <c r="N85" s="35"/>
-      <c r="O85" s="35"/>
+      <c r="L85" s="24"/>
+      <c r="M85" s="28"/>
+      <c r="N85" s="28"/>
+      <c r="O85" s="28"/>
     </row>
     <row r="86" ht="15" customHeight="1">
       <c r="A86" s="4">
@@ -9761,34 +9362,34 @@
       <c r="C86" t="s" s="5">
         <v>6</v>
       </c>
-      <c r="D86" s="56">
-        <v>6</v>
-      </c>
-      <c r="E86" s="57">
-        <v>6</v>
-      </c>
-      <c r="F86" s="57">
-        <v>8</v>
-      </c>
-      <c r="G86" s="57">
+      <c r="D86" s="53">
+        <v>6</v>
+      </c>
+      <c r="E86" s="54">
+        <v>6</v>
+      </c>
+      <c r="F86" s="54">
+        <v>8</v>
+      </c>
+      <c r="G86" s="54">
         <v>18</v>
       </c>
-      <c r="H86" s="57">
+      <c r="H86" s="54">
         <v>39</v>
       </c>
-      <c r="I86" s="57">
+      <c r="I86" s="54">
         <v>69</v>
       </c>
-      <c r="J86" s="57">
+      <c r="J86" s="54">
         <v>88</v>
       </c>
       <c r="K86" s="4">
         <v>144</v>
       </c>
-      <c r="L86" s="25"/>
-      <c r="M86" s="35"/>
-      <c r="N86" s="35"/>
-      <c r="O86" s="35"/>
+      <c r="L86" s="24"/>
+      <c r="M86" s="28"/>
+      <c r="N86" s="28"/>
+      <c r="O86" s="28"/>
     </row>
     <row r="87" ht="15" customHeight="1">
       <c r="A87" s="4">
@@ -9800,34 +9401,34 @@
       <c r="C87" t="s" s="5">
         <v>7</v>
       </c>
-      <c r="D87" s="56">
-        <v>6</v>
-      </c>
-      <c r="E87" s="57">
-        <v>10</v>
-      </c>
-      <c r="F87" s="57">
-        <v>10</v>
-      </c>
-      <c r="G87" s="57">
+      <c r="D87" s="53">
+        <v>6</v>
+      </c>
+      <c r="E87" s="54">
+        <v>10</v>
+      </c>
+      <c r="F87" s="54">
+        <v>10</v>
+      </c>
+      <c r="G87" s="54">
         <v>20</v>
       </c>
-      <c r="H87" s="57">
+      <c r="H87" s="54">
         <v>46</v>
       </c>
-      <c r="I87" s="57">
+      <c r="I87" s="54">
         <v>80</v>
       </c>
-      <c r="J87" s="57">
+      <c r="J87" s="54">
         <v>94</v>
       </c>
       <c r="K87" s="4">
         <v>140</v>
       </c>
-      <c r="L87" s="25"/>
-      <c r="M87" s="35"/>
-      <c r="N87" s="35"/>
-      <c r="O87" s="35"/>
+      <c r="L87" s="24"/>
+      <c r="M87" s="28"/>
+      <c r="N87" s="28"/>
+      <c r="O87" s="28"/>
     </row>
     <row r="88" ht="15" customHeight="1">
       <c r="A88" s="4">
@@ -9839,34 +9440,34 @@
       <c r="C88" t="s" s="5">
         <v>6</v>
       </c>
-      <c r="D88" s="56">
-        <v>6</v>
-      </c>
-      <c r="E88" s="57">
-        <v>8</v>
-      </c>
-      <c r="F88" s="57">
-        <v>10</v>
-      </c>
-      <c r="G88" s="57">
+      <c r="D88" s="53">
+        <v>6</v>
+      </c>
+      <c r="E88" s="54">
+        <v>8</v>
+      </c>
+      <c r="F88" s="54">
+        <v>10</v>
+      </c>
+      <c r="G88" s="54">
         <v>12</v>
       </c>
-      <c r="H88" s="57">
+      <c r="H88" s="54">
         <v>13</v>
       </c>
-      <c r="I88" s="57">
+      <c r="I88" s="54">
         <v>13</v>
       </c>
-      <c r="J88" s="57">
+      <c r="J88" s="54">
         <v>40</v>
       </c>
       <c r="K88" s="4">
         <v>84</v>
       </c>
-      <c r="L88" s="25"/>
-      <c r="M88" s="35"/>
-      <c r="N88" s="35"/>
-      <c r="O88" s="35"/>
+      <c r="L88" s="24"/>
+      <c r="M88" s="28"/>
+      <c r="N88" s="28"/>
+      <c r="O88" s="28"/>
     </row>
     <row r="89" ht="13" customHeight="1">
       <c r="A89" s="4">
@@ -9878,204 +9479,204 @@
       <c r="C89" t="s" s="5">
         <v>7</v>
       </c>
-      <c r="D89" s="56">
-        <v>6</v>
-      </c>
-      <c r="E89" s="57">
+      <c r="D89" s="53">
+        <v>6</v>
+      </c>
+      <c r="E89" s="54">
         <v>9</v>
       </c>
-      <c r="F89" s="57">
-        <v>10</v>
-      </c>
-      <c r="G89" s="62">
+      <c r="F89" s="54">
+        <v>10</v>
+      </c>
+      <c r="G89" s="59">
         <v>24</v>
       </c>
-      <c r="H89" s="57">
+      <c r="H89" s="54">
         <v>55</v>
       </c>
-      <c r="I89" s="57">
+      <c r="I89" s="54">
         <v>61</v>
       </c>
-      <c r="J89" s="57">
+      <c r="J89" s="54">
         <v>92</v>
       </c>
       <c r="K89" s="4">
         <v>142</v>
       </c>
-      <c r="L89" s="25"/>
-      <c r="M89" s="35"/>
-      <c r="N89" s="35"/>
-      <c r="O89" s="35"/>
+      <c r="L89" s="24"/>
+      <c r="M89" s="28"/>
+      <c r="N89" s="28"/>
+      <c r="O89" s="28"/>
     </row>
     <row r="90" ht="15" customHeight="1">
-      <c r="A90" s="31"/>
-      <c r="B90" s="32"/>
-      <c r="C90" s="32"/>
-      <c r="D90" s="31"/>
-      <c r="E90" s="31"/>
-      <c r="F90" s="31"/>
-      <c r="G90" s="32"/>
-      <c r="H90" s="31"/>
-      <c r="I90" s="31"/>
-      <c r="J90" s="33"/>
-      <c r="K90" s="33"/>
-      <c r="L90" s="35"/>
-      <c r="M90" s="35"/>
-      <c r="N90" s="35"/>
-      <c r="O90" s="35"/>
+      <c r="A90" s="30"/>
+      <c r="B90" s="30"/>
+      <c r="C90" s="30"/>
+      <c r="D90" s="30"/>
+      <c r="E90" s="30"/>
+      <c r="F90" s="30"/>
+      <c r="G90" s="30"/>
+      <c r="H90" s="30"/>
+      <c r="I90" s="30"/>
+      <c r="J90" s="30"/>
+      <c r="K90" s="30"/>
+      <c r="L90" s="28"/>
+      <c r="M90" s="28"/>
+      <c r="N90" s="28"/>
+      <c r="O90" s="28"/>
     </row>
     <row r="91" ht="15" customHeight="1">
-      <c r="A91" s="29"/>
-      <c r="B91" s="36"/>
-      <c r="C91" s="36"/>
-      <c r="D91" s="29"/>
-      <c r="E91" s="29"/>
-      <c r="F91" s="29"/>
-      <c r="G91" s="36"/>
-      <c r="H91" s="29"/>
-      <c r="I91" s="29"/>
-      <c r="J91" s="35"/>
-      <c r="K91" s="35"/>
-      <c r="L91" s="35"/>
-      <c r="M91" s="35"/>
-      <c r="N91" s="35"/>
-      <c r="O91" s="35"/>
+      <c r="A91" s="28"/>
+      <c r="B91" s="28"/>
+      <c r="C91" s="28"/>
+      <c r="D91" s="28"/>
+      <c r="E91" s="28"/>
+      <c r="F91" s="28"/>
+      <c r="G91" s="28"/>
+      <c r="H91" s="28"/>
+      <c r="I91" s="28"/>
+      <c r="J91" s="28"/>
+      <c r="K91" s="28"/>
+      <c r="L91" s="28"/>
+      <c r="M91" s="28"/>
+      <c r="N91" s="28"/>
+      <c r="O91" s="28"/>
     </row>
     <row r="92" ht="15" customHeight="1">
-      <c r="A92" s="29"/>
-      <c r="B92" s="36"/>
-      <c r="C92" s="36"/>
-      <c r="D92" s="29"/>
-      <c r="E92" s="29"/>
-      <c r="F92" s="29"/>
-      <c r="G92" s="36"/>
-      <c r="H92" s="29"/>
-      <c r="I92" s="29"/>
-      <c r="J92" s="35"/>
-      <c r="K92" s="35"/>
-      <c r="L92" s="35"/>
-      <c r="M92" s="35"/>
-      <c r="N92" s="35"/>
-      <c r="O92" s="35"/>
+      <c r="A92" s="28"/>
+      <c r="B92" s="28"/>
+      <c r="C92" s="28"/>
+      <c r="D92" s="28"/>
+      <c r="E92" s="28"/>
+      <c r="F92" s="28"/>
+      <c r="G92" s="28"/>
+      <c r="H92" s="28"/>
+      <c r="I92" s="28"/>
+      <c r="J92" s="28"/>
+      <c r="K92" s="28"/>
+      <c r="L92" s="28"/>
+      <c r="M92" s="28"/>
+      <c r="N92" s="28"/>
+      <c r="O92" s="28"/>
     </row>
     <row r="93" ht="15" customHeight="1">
-      <c r="A93" s="29"/>
-      <c r="B93" s="36"/>
-      <c r="C93" s="36"/>
-      <c r="D93" s="29"/>
-      <c r="E93" s="29"/>
-      <c r="F93" s="29"/>
-      <c r="G93" s="36"/>
-      <c r="H93" s="29"/>
-      <c r="I93" s="29"/>
-      <c r="J93" s="35"/>
-      <c r="K93" s="35"/>
-      <c r="L93" s="35"/>
-      <c r="M93" s="35"/>
-      <c r="N93" s="35"/>
-      <c r="O93" s="35"/>
+      <c r="A93" s="28"/>
+      <c r="B93" s="28"/>
+      <c r="C93" s="28"/>
+      <c r="D93" s="28"/>
+      <c r="E93" s="28"/>
+      <c r="F93" s="28"/>
+      <c r="G93" s="28"/>
+      <c r="H93" s="28"/>
+      <c r="I93" s="28"/>
+      <c r="J93" s="28"/>
+      <c r="K93" s="28"/>
+      <c r="L93" s="28"/>
+      <c r="M93" s="28"/>
+      <c r="N93" s="28"/>
+      <c r="O93" s="28"/>
     </row>
     <row r="94" ht="15" customHeight="1">
-      <c r="A94" s="29"/>
-      <c r="B94" s="36"/>
-      <c r="C94" s="36"/>
-      <c r="D94" s="29"/>
-      <c r="E94" s="29"/>
-      <c r="F94" s="29"/>
-      <c r="G94" s="36"/>
-      <c r="H94" s="29"/>
-      <c r="I94" s="29"/>
-      <c r="J94" s="35"/>
-      <c r="K94" s="35"/>
-      <c r="L94" s="35"/>
-      <c r="M94" s="35"/>
-      <c r="N94" s="35"/>
-      <c r="O94" s="35"/>
+      <c r="A94" s="28"/>
+      <c r="B94" s="28"/>
+      <c r="C94" s="28"/>
+      <c r="D94" s="28"/>
+      <c r="E94" s="28"/>
+      <c r="F94" s="28"/>
+      <c r="G94" s="28"/>
+      <c r="H94" s="28"/>
+      <c r="I94" s="28"/>
+      <c r="J94" s="28"/>
+      <c r="K94" s="28"/>
+      <c r="L94" s="28"/>
+      <c r="M94" s="28"/>
+      <c r="N94" s="28"/>
+      <c r="O94" s="28"/>
     </row>
     <row r="95" ht="15" customHeight="1">
-      <c r="A95" s="29"/>
-      <c r="B95" s="36"/>
-      <c r="C95" s="36"/>
-      <c r="D95" s="29"/>
-      <c r="E95" s="29"/>
-      <c r="F95" s="29"/>
-      <c r="G95" s="36"/>
-      <c r="H95" s="29"/>
-      <c r="I95" s="29"/>
-      <c r="J95" s="35"/>
-      <c r="K95" s="35"/>
-      <c r="L95" s="35"/>
-      <c r="M95" s="35"/>
-      <c r="N95" s="35"/>
-      <c r="O95" s="35"/>
+      <c r="A95" s="28"/>
+      <c r="B95" s="28"/>
+      <c r="C95" s="28"/>
+      <c r="D95" s="28"/>
+      <c r="E95" s="28"/>
+      <c r="F95" s="28"/>
+      <c r="G95" s="28"/>
+      <c r="H95" s="28"/>
+      <c r="I95" s="28"/>
+      <c r="J95" s="28"/>
+      <c r="K95" s="28"/>
+      <c r="L95" s="28"/>
+      <c r="M95" s="28"/>
+      <c r="N95" s="28"/>
+      <c r="O95" s="28"/>
     </row>
     <row r="96" ht="15" customHeight="1">
-      <c r="A96" s="29"/>
-      <c r="B96" s="36"/>
-      <c r="C96" s="36"/>
-      <c r="D96" s="29"/>
-      <c r="E96" s="29"/>
-      <c r="F96" s="29"/>
-      <c r="G96" s="36"/>
-      <c r="H96" s="29"/>
-      <c r="I96" s="29"/>
-      <c r="J96" s="35"/>
-      <c r="K96" s="35"/>
-      <c r="L96" s="35"/>
-      <c r="M96" s="35"/>
-      <c r="N96" s="35"/>
-      <c r="O96" s="35"/>
+      <c r="A96" s="28"/>
+      <c r="B96" s="28"/>
+      <c r="C96" s="28"/>
+      <c r="D96" s="28"/>
+      <c r="E96" s="28"/>
+      <c r="F96" s="28"/>
+      <c r="G96" s="28"/>
+      <c r="H96" s="28"/>
+      <c r="I96" s="28"/>
+      <c r="J96" s="28"/>
+      <c r="K96" s="28"/>
+      <c r="L96" s="28"/>
+      <c r="M96" s="28"/>
+      <c r="N96" s="28"/>
+      <c r="O96" s="28"/>
     </row>
     <row r="97" ht="15" customHeight="1">
-      <c r="A97" s="29"/>
-      <c r="B97" s="36"/>
-      <c r="C97" s="36"/>
-      <c r="D97" s="29"/>
-      <c r="E97" s="29"/>
-      <c r="F97" s="29"/>
-      <c r="G97" s="36"/>
-      <c r="H97" s="29"/>
-      <c r="I97" s="29"/>
-      <c r="J97" s="35"/>
-      <c r="K97" s="35"/>
-      <c r="L97" s="35"/>
-      <c r="M97" s="35"/>
-      <c r="N97" s="35"/>
-      <c r="O97" s="35"/>
+      <c r="A97" s="28"/>
+      <c r="B97" s="28"/>
+      <c r="C97" s="28"/>
+      <c r="D97" s="28"/>
+      <c r="E97" s="28"/>
+      <c r="F97" s="28"/>
+      <c r="G97" s="28"/>
+      <c r="H97" s="28"/>
+      <c r="I97" s="28"/>
+      <c r="J97" s="28"/>
+      <c r="K97" s="28"/>
+      <c r="L97" s="28"/>
+      <c r="M97" s="28"/>
+      <c r="N97" s="28"/>
+      <c r="O97" s="28"/>
     </row>
     <row r="98" ht="15" customHeight="1">
-      <c r="A98" s="29"/>
-      <c r="B98" s="36"/>
-      <c r="C98" s="36"/>
-      <c r="D98" s="29"/>
-      <c r="E98" s="29"/>
-      <c r="F98" s="29"/>
-      <c r="G98" s="36"/>
-      <c r="H98" s="29"/>
-      <c r="I98" s="29"/>
-      <c r="J98" s="35"/>
-      <c r="K98" s="35"/>
-      <c r="L98" s="35"/>
-      <c r="M98" s="35"/>
-      <c r="N98" s="35"/>
-      <c r="O98" s="29"/>
+      <c r="A98" s="28"/>
+      <c r="B98" s="28"/>
+      <c r="C98" s="28"/>
+      <c r="D98" s="28"/>
+      <c r="E98" s="28"/>
+      <c r="F98" s="28"/>
+      <c r="G98" s="28"/>
+      <c r="H98" s="28"/>
+      <c r="I98" s="28"/>
+      <c r="J98" s="28"/>
+      <c r="K98" s="28"/>
+      <c r="L98" s="28"/>
+      <c r="M98" s="28"/>
+      <c r="N98" s="28"/>
+      <c r="O98" s="28"/>
     </row>
     <row r="99" ht="15" customHeight="1">
-      <c r="A99" s="29"/>
-      <c r="B99" s="36"/>
-      <c r="C99" s="36"/>
-      <c r="D99" s="29"/>
-      <c r="E99" s="29"/>
-      <c r="F99" s="29"/>
-      <c r="G99" s="36"/>
-      <c r="H99" s="29"/>
-      <c r="I99" s="29"/>
-      <c r="J99" s="35"/>
-      <c r="K99" s="35"/>
-      <c r="L99" s="35"/>
-      <c r="M99" s="35"/>
-      <c r="N99" s="35"/>
-      <c r="O99" s="29"/>
+      <c r="A99" s="28"/>
+      <c r="B99" s="28"/>
+      <c r="C99" s="28"/>
+      <c r="D99" s="28"/>
+      <c r="E99" s="28"/>
+      <c r="F99" s="28"/>
+      <c r="G99" s="28"/>
+      <c r="H99" s="28"/>
+      <c r="I99" s="28"/>
+      <c r="J99" s="28"/>
+      <c r="K99" s="28"/>
+      <c r="L99" s="28"/>
+      <c r="M99" s="28"/>
+      <c r="N99" s="28"/>
+      <c r="O99" s="28"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -11971,7 +11572,7 @@
       <c r="F3" s="4">
         <v>6</v>
       </c>
-      <c r="G3" s="25"/>
+      <c r="G3" s="24"/>
     </row>
     <row r="4" ht="15" customHeight="1">
       <c r="A4" s="4">
@@ -12853,7 +12454,7 @@
       <c r="F45" s="21">
         <v>6</v>
       </c>
-      <c r="G45" s="25"/>
+      <c r="G45" s="24"/>
     </row>
     <row r="46" ht="15.5" customHeight="1">
       <c r="A46" s="14">
@@ -12895,7 +12496,7 @@
       <c r="F47" t="s" s="5">
         <v>11</v>
       </c>
-      <c r="G47" s="25"/>
+      <c r="G47" s="24"/>
     </row>
     <row r="48" ht="15" customHeight="1">
       <c r="A48" s="4">
@@ -13264,16 +12865,16 @@
       <c r="C65" t="s" s="5">
         <v>8</v>
       </c>
-      <c r="D65" s="26">
+      <c r="D65" s="25">
         <v>26.5</v>
       </c>
-      <c r="E65" s="27">
+      <c r="E65" s="26">
         <v>4.7</v>
       </c>
-      <c r="F65" s="28">
-        <v>10</v>
-      </c>
-      <c r="G65" s="29"/>
+      <c r="F65" s="27">
+        <v>10</v>
+      </c>
+      <c r="G65" s="28"/>
     </row>
     <row r="66" ht="15" customHeight="1">
       <c r="A66" s="4">
@@ -13441,7 +13042,7 @@
       <c r="F73" s="4">
         <v>6</v>
       </c>
-      <c r="G73" t="s" s="30">
+      <c r="G73" t="s" s="29">
         <v>19</v>
       </c>
     </row>
@@ -13782,22 +13383,22 @@
       <c r="G89" s="24"/>
     </row>
     <row r="90" ht="15" customHeight="1">
-      <c r="A90" s="31"/>
-      <c r="B90" s="32"/>
-      <c r="C90" s="32"/>
-      <c r="D90" s="33"/>
-      <c r="E90" s="32"/>
-      <c r="F90" s="33"/>
-      <c r="G90" s="29"/>
+      <c r="A90" s="30"/>
+      <c r="B90" s="30"/>
+      <c r="C90" s="30"/>
+      <c r="D90" s="30"/>
+      <c r="E90" s="30"/>
+      <c r="F90" s="30"/>
+      <c r="G90" s="28"/>
     </row>
     <row r="91" ht="15" customHeight="1">
-      <c r="A91" s="34"/>
-      <c r="B91" s="34"/>
-      <c r="C91" s="34"/>
-      <c r="D91" s="35"/>
-      <c r="E91" s="36"/>
-      <c r="F91" s="35"/>
-      <c r="G91" s="29"/>
+      <c r="A91" s="31"/>
+      <c r="B91" s="31"/>
+      <c r="C91" s="31"/>
+      <c r="D91" s="28"/>
+      <c r="E91" s="28"/>
+      <c r="F91" s="28"/>
+      <c r="G91" s="28"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -13816,13 +13417,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8333" defaultRowHeight="13" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="10.8516" style="37" customWidth="1"/>
-    <col min="2" max="2" width="10.6719" style="37" customWidth="1"/>
-    <col min="3" max="3" width="10.6719" style="37" customWidth="1"/>
-    <col min="4" max="4" width="10.8516" style="37" customWidth="1"/>
-    <col min="5" max="5" width="10.8516" style="37" customWidth="1"/>
-    <col min="6" max="6" width="10.8516" style="37" customWidth="1"/>
-    <col min="7" max="256" width="10.8516" style="37" customWidth="1"/>
+    <col min="1" max="1" width="10.8516" style="32" customWidth="1"/>
+    <col min="2" max="2" width="10.6719" style="32" customWidth="1"/>
+    <col min="3" max="3" width="10.6719" style="32" customWidth="1"/>
+    <col min="4" max="4" width="10.8516" style="32" customWidth="1"/>
+    <col min="5" max="5" width="10.8516" style="32" customWidth="1"/>
+    <col min="6" max="6" width="10.8516" style="32" customWidth="1"/>
+    <col min="7" max="256" width="10.8516" style="32" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" customHeight="1">
@@ -15595,13 +15196,13 @@
       <c r="C89" t="s" s="5">
         <v>7</v>
       </c>
-      <c r="D89" s="38">
+      <c r="D89" s="33">
         <v>22.5</v>
       </c>
-      <c r="E89" s="38">
+      <c r="E89" s="33">
         <v>3.7</v>
       </c>
-      <c r="F89" s="39">
+      <c r="F89" s="34">
         <v>24</v>
       </c>
     </row>
@@ -15622,13 +15223,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8333" defaultRowHeight="13" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="10.8516" style="40" customWidth="1"/>
-    <col min="2" max="2" width="10.8516" style="40" customWidth="1"/>
-    <col min="3" max="3" width="10.8516" style="40" customWidth="1"/>
-    <col min="4" max="4" width="10.8516" style="40" customWidth="1"/>
-    <col min="5" max="5" width="10.6719" style="40" customWidth="1"/>
-    <col min="6" max="6" width="10.8516" style="40" customWidth="1"/>
-    <col min="7" max="256" width="10.8516" style="40" customWidth="1"/>
+    <col min="1" max="1" width="10.8516" style="35" customWidth="1"/>
+    <col min="2" max="2" width="10.8516" style="35" customWidth="1"/>
+    <col min="3" max="3" width="10.8516" style="35" customWidth="1"/>
+    <col min="4" max="4" width="10.8516" style="35" customWidth="1"/>
+    <col min="5" max="5" width="10.6719" style="35" customWidth="1"/>
+    <col min="6" max="6" width="10.8516" style="35" customWidth="1"/>
+    <col min="7" max="256" width="10.8516" style="35" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" customHeight="1">
@@ -15641,13 +15242,13 @@
       <c r="C1" t="s" s="2">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="41">
+      <c r="D1" t="s" s="36">
         <v>3</v>
       </c>
       <c r="E1" t="s" s="19">
         <v>18</v>
       </c>
-      <c r="F1" t="s" s="41">
+      <c r="F1" t="s" s="36">
         <v>4</v>
       </c>
     </row>
@@ -17412,76 +17013,76 @@
       </c>
     </row>
     <row r="90" ht="15" customHeight="1">
-      <c r="A90" s="31"/>
-      <c r="B90" s="31"/>
-      <c r="C90" s="31"/>
-      <c r="D90" s="33"/>
-      <c r="E90" s="33"/>
-      <c r="F90" s="33"/>
+      <c r="A90" s="30"/>
+      <c r="B90" s="30"/>
+      <c r="C90" s="30"/>
+      <c r="D90" s="30"/>
+      <c r="E90" s="30"/>
+      <c r="F90" s="30"/>
     </row>
     <row r="91" ht="15" customHeight="1">
-      <c r="A91" s="29"/>
-      <c r="B91" s="29"/>
-      <c r="C91" s="29"/>
-      <c r="D91" s="35"/>
-      <c r="E91" s="35"/>
-      <c r="F91" s="35"/>
+      <c r="A91" s="28"/>
+      <c r="B91" s="28"/>
+      <c r="C91" s="28"/>
+      <c r="D91" s="28"/>
+      <c r="E91" s="28"/>
+      <c r="F91" s="28"/>
     </row>
     <row r="92" ht="15" customHeight="1">
-      <c r="A92" s="29"/>
-      <c r="B92" s="29"/>
-      <c r="C92" s="29"/>
-      <c r="D92" s="35"/>
-      <c r="E92" s="35"/>
-      <c r="F92" s="35"/>
+      <c r="A92" s="28"/>
+      <c r="B92" s="28"/>
+      <c r="C92" s="28"/>
+      <c r="D92" s="28"/>
+      <c r="E92" s="28"/>
+      <c r="F92" s="28"/>
     </row>
     <row r="93" ht="15" customHeight="1">
-      <c r="A93" s="29"/>
-      <c r="B93" s="29"/>
-      <c r="C93" s="29"/>
-      <c r="D93" s="35"/>
-      <c r="E93" s="35"/>
-      <c r="F93" s="35"/>
+      <c r="A93" s="28"/>
+      <c r="B93" s="28"/>
+      <c r="C93" s="28"/>
+      <c r="D93" s="28"/>
+      <c r="E93" s="28"/>
+      <c r="F93" s="28"/>
     </row>
     <row r="94" ht="15" customHeight="1">
-      <c r="A94" s="29"/>
-      <c r="B94" s="29"/>
-      <c r="C94" s="29"/>
-      <c r="D94" s="35"/>
-      <c r="E94" s="35"/>
-      <c r="F94" s="35"/>
+      <c r="A94" s="28"/>
+      <c r="B94" s="28"/>
+      <c r="C94" s="28"/>
+      <c r="D94" s="28"/>
+      <c r="E94" s="28"/>
+      <c r="F94" s="28"/>
     </row>
     <row r="95" ht="15" customHeight="1">
-      <c r="A95" s="29"/>
-      <c r="B95" s="29"/>
-      <c r="C95" s="29"/>
-      <c r="D95" s="35"/>
-      <c r="E95" s="35"/>
-      <c r="F95" s="35"/>
+      <c r="A95" s="28"/>
+      <c r="B95" s="28"/>
+      <c r="C95" s="28"/>
+      <c r="D95" s="28"/>
+      <c r="E95" s="28"/>
+      <c r="F95" s="28"/>
     </row>
     <row r="96" ht="15" customHeight="1">
-      <c r="A96" s="29"/>
-      <c r="B96" s="29"/>
-      <c r="C96" s="29"/>
-      <c r="D96" s="35"/>
-      <c r="E96" s="35"/>
-      <c r="F96" s="35"/>
+      <c r="A96" s="28"/>
+      <c r="B96" s="28"/>
+      <c r="C96" s="28"/>
+      <c r="D96" s="28"/>
+      <c r="E96" s="28"/>
+      <c r="F96" s="28"/>
     </row>
     <row r="97" ht="15" customHeight="1">
-      <c r="A97" s="29"/>
-      <c r="B97" s="29"/>
-      <c r="C97" s="29"/>
-      <c r="D97" s="35"/>
-      <c r="E97" s="35"/>
-      <c r="F97" s="35"/>
+      <c r="A97" s="28"/>
+      <c r="B97" s="28"/>
+      <c r="C97" s="28"/>
+      <c r="D97" s="28"/>
+      <c r="E97" s="28"/>
+      <c r="F97" s="28"/>
     </row>
     <row r="98" ht="15" customHeight="1">
-      <c r="A98" s="29"/>
-      <c r="B98" s="29"/>
-      <c r="C98" s="29"/>
-      <c r="D98" s="35"/>
-      <c r="E98" s="35"/>
-      <c r="F98" s="35"/>
+      <c r="A98" s="28"/>
+      <c r="B98" s="28"/>
+      <c r="C98" s="28"/>
+      <c r="D98" s="28"/>
+      <c r="E98" s="28"/>
+      <c r="F98" s="28"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -17500,13 +17101,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8333" defaultRowHeight="13" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="10.8516" style="42" customWidth="1"/>
-    <col min="2" max="2" width="10.8516" style="42" customWidth="1"/>
-    <col min="3" max="3" width="10.8516" style="42" customWidth="1"/>
-    <col min="4" max="4" width="10.8516" style="42" customWidth="1"/>
-    <col min="5" max="5" width="10.8516" style="42" customWidth="1"/>
-    <col min="6" max="6" width="10.8516" style="42" customWidth="1"/>
-    <col min="7" max="256" width="10.8516" style="42" customWidth="1"/>
+    <col min="1" max="1" width="10.8516" style="37" customWidth="1"/>
+    <col min="2" max="2" width="10.8516" style="37" customWidth="1"/>
+    <col min="3" max="3" width="10.8516" style="37" customWidth="1"/>
+    <col min="4" max="4" width="10.8516" style="37" customWidth="1"/>
+    <col min="5" max="5" width="10.8516" style="37" customWidth="1"/>
+    <col min="6" max="6" width="10.8516" style="37" customWidth="1"/>
+    <col min="7" max="256" width="10.8516" style="37" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" customHeight="1">
@@ -17519,13 +17120,13 @@
       <c r="C1" t="s" s="2">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="41">
+      <c r="D1" t="s" s="36">
         <v>3</v>
       </c>
       <c r="E1" t="s" s="19">
         <v>18</v>
       </c>
-      <c r="F1" t="s" s="41">
+      <c r="F1" t="s" s="36">
         <v>4</v>
       </c>
     </row>
@@ -18413,10 +18014,10 @@
       <c r="A46" s="14">
         <v>1</v>
       </c>
-      <c r="B46" t="s" s="43">
-        <v>10</v>
-      </c>
-      <c r="C46" t="s" s="43">
+      <c r="B46" t="s" s="38">
+        <v>10</v>
+      </c>
+      <c r="C46" t="s" s="38">
         <v>6</v>
       </c>
       <c r="D46" s="22">
@@ -18433,10 +18034,10 @@
       <c r="A47" s="4">
         <v>2</v>
       </c>
-      <c r="B47" t="s" s="44">
-        <v>10</v>
-      </c>
-      <c r="C47" t="s" s="44">
+      <c r="B47" t="s" s="39">
+        <v>10</v>
+      </c>
+      <c r="C47" t="s" s="39">
         <v>6</v>
       </c>
       <c r="D47" t="s" s="5">
@@ -18453,10 +18054,10 @@
       <c r="A48" s="4">
         <v>3</v>
       </c>
-      <c r="B48" t="s" s="44">
-        <v>10</v>
-      </c>
-      <c r="C48" t="s" s="44">
+      <c r="B48" t="s" s="39">
+        <v>10</v>
+      </c>
+      <c r="C48" t="s" s="39">
         <v>6</v>
       </c>
       <c r="D48" t="s" s="5">
@@ -18473,10 +18074,10 @@
       <c r="A49" s="4">
         <v>3</v>
       </c>
-      <c r="B49" t="s" s="44">
-        <v>10</v>
-      </c>
-      <c r="C49" t="s" s="44">
+      <c r="B49" t="s" s="39">
+        <v>10</v>
+      </c>
+      <c r="C49" t="s" s="39">
         <v>7</v>
       </c>
       <c r="D49" s="9">
@@ -18493,10 +18094,10 @@
       <c r="A50" s="4">
         <v>4</v>
       </c>
-      <c r="B50" t="s" s="44">
-        <v>10</v>
-      </c>
-      <c r="C50" t="s" s="44">
+      <c r="B50" t="s" s="39">
+        <v>10</v>
+      </c>
+      <c r="C50" t="s" s="39">
         <v>6</v>
       </c>
       <c r="D50" s="9">
@@ -18513,10 +18114,10 @@
       <c r="A51" s="4">
         <v>4</v>
       </c>
-      <c r="B51" t="s" s="44">
-        <v>10</v>
-      </c>
-      <c r="C51" t="s" s="44">
+      <c r="B51" t="s" s="39">
+        <v>10</v>
+      </c>
+      <c r="C51" t="s" s="39">
         <v>7</v>
       </c>
       <c r="D51" s="9">
@@ -18533,10 +18134,10 @@
       <c r="A52" s="4">
         <v>5</v>
       </c>
-      <c r="B52" t="s" s="44">
-        <v>10</v>
-      </c>
-      <c r="C52" t="s" s="44">
+      <c r="B52" t="s" s="39">
+        <v>10</v>
+      </c>
+      <c r="C52" t="s" s="39">
         <v>7</v>
       </c>
       <c r="D52" s="9">
@@ -18553,10 +18154,10 @@
       <c r="A53" s="4">
         <v>5</v>
       </c>
-      <c r="B53" t="s" s="44">
-        <v>10</v>
-      </c>
-      <c r="C53" t="s" s="44">
+      <c r="B53" t="s" s="39">
+        <v>10</v>
+      </c>
+      <c r="C53" t="s" s="39">
         <v>8</v>
       </c>
       <c r="D53" s="9">
@@ -18573,10 +18174,10 @@
       <c r="A54" s="4">
         <v>5</v>
       </c>
-      <c r="B54" t="s" s="44">
-        <v>10</v>
-      </c>
-      <c r="C54" t="s" s="44">
+      <c r="B54" t="s" s="39">
+        <v>10</v>
+      </c>
+      <c r="C54" t="s" s="39">
         <v>6</v>
       </c>
       <c r="D54" s="9">
@@ -18593,10 +18194,10 @@
       <c r="A55" s="4">
         <v>6</v>
       </c>
-      <c r="B55" t="s" s="44">
-        <v>10</v>
-      </c>
-      <c r="C55" t="s" s="44">
+      <c r="B55" t="s" s="39">
+        <v>10</v>
+      </c>
+      <c r="C55" t="s" s="39">
         <v>6</v>
       </c>
       <c r="D55" s="9">
@@ -18613,10 +18214,10 @@
       <c r="A56" s="4">
         <v>6</v>
       </c>
-      <c r="B56" t="s" s="44">
-        <v>10</v>
-      </c>
-      <c r="C56" t="s" s="44">
+      <c r="B56" t="s" s="39">
+        <v>10</v>
+      </c>
+      <c r="C56" t="s" s="39">
         <v>7</v>
       </c>
       <c r="D56" s="9">
@@ -18633,10 +18234,10 @@
       <c r="A57" s="4">
         <v>7</v>
       </c>
-      <c r="B57" t="s" s="44">
-        <v>10</v>
-      </c>
-      <c r="C57" t="s" s="44">
+      <c r="B57" t="s" s="39">
+        <v>10</v>
+      </c>
+      <c r="C57" t="s" s="39">
         <v>6</v>
       </c>
       <c r="D57" s="9">
@@ -18653,10 +18254,10 @@
       <c r="A58" s="4">
         <v>7</v>
       </c>
-      <c r="B58" t="s" s="44">
-        <v>10</v>
-      </c>
-      <c r="C58" t="s" s="44">
+      <c r="B58" t="s" s="39">
+        <v>10</v>
+      </c>
+      <c r="C58" t="s" s="39">
         <v>7</v>
       </c>
       <c r="D58" s="9">
@@ -18673,10 +18274,10 @@
       <c r="A59" s="4">
         <v>9</v>
       </c>
-      <c r="B59" t="s" s="44">
-        <v>10</v>
-      </c>
-      <c r="C59" t="s" s="44">
+      <c r="B59" t="s" s="39">
+        <v>10</v>
+      </c>
+      <c r="C59" t="s" s="39">
         <v>6</v>
       </c>
       <c r="D59" s="9">
@@ -18693,10 +18294,10 @@
       <c r="A60" s="4">
         <v>9</v>
       </c>
-      <c r="B60" t="s" s="44">
-        <v>10</v>
-      </c>
-      <c r="C60" t="s" s="44">
+      <c r="B60" t="s" s="39">
+        <v>10</v>
+      </c>
+      <c r="C60" t="s" s="39">
         <v>8</v>
       </c>
       <c r="D60" s="9">
@@ -18713,10 +18314,10 @@
       <c r="A61" s="4">
         <v>9</v>
       </c>
-      <c r="B61" t="s" s="44">
-        <v>10</v>
-      </c>
-      <c r="C61" t="s" s="44">
+      <c r="B61" t="s" s="39">
+        <v>10</v>
+      </c>
+      <c r="C61" t="s" s="39">
         <v>7</v>
       </c>
       <c r="D61" s="9">
@@ -18733,10 +18334,10 @@
       <c r="A62" s="4">
         <v>9</v>
       </c>
-      <c r="B62" t="s" s="44">
-        <v>10</v>
-      </c>
-      <c r="C62" t="s" s="44">
+      <c r="B62" t="s" s="39">
+        <v>10</v>
+      </c>
+      <c r="C62" t="s" s="39">
         <v>12</v>
       </c>
       <c r="D62" s="9">
@@ -18753,10 +18354,10 @@
       <c r="A63" s="4">
         <v>9</v>
       </c>
-      <c r="B63" t="s" s="44">
-        <v>10</v>
-      </c>
-      <c r="C63" t="s" s="44">
+      <c r="B63" t="s" s="39">
+        <v>10</v>
+      </c>
+      <c r="C63" t="s" s="39">
         <v>9</v>
       </c>
       <c r="D63" s="9">
@@ -18773,10 +18374,10 @@
       <c r="A64" s="4">
         <v>10</v>
       </c>
-      <c r="B64" t="s" s="44">
-        <v>10</v>
-      </c>
-      <c r="C64" t="s" s="44">
+      <c r="B64" t="s" s="39">
+        <v>10</v>
+      </c>
+      <c r="C64" t="s" s="39">
         <v>6</v>
       </c>
       <c r="D64" s="9">
@@ -18793,10 +18394,10 @@
       <c r="A65" s="4">
         <v>11</v>
       </c>
-      <c r="B65" t="s" s="44">
-        <v>10</v>
-      </c>
-      <c r="C65" t="s" s="44">
+      <c r="B65" t="s" s="39">
+        <v>10</v>
+      </c>
+      <c r="C65" t="s" s="39">
         <v>8</v>
       </c>
       <c r="D65" s="9">
@@ -18813,10 +18414,10 @@
       <c r="A66" s="4">
         <v>11</v>
       </c>
-      <c r="B66" t="s" s="44">
-        <v>10</v>
-      </c>
-      <c r="C66" t="s" s="44">
+      <c r="B66" t="s" s="39">
+        <v>10</v>
+      </c>
+      <c r="C66" t="s" s="39">
         <v>9</v>
       </c>
       <c r="D66" s="9">
@@ -18833,10 +18434,10 @@
       <c r="A67" s="4">
         <v>11</v>
       </c>
-      <c r="B67" t="s" s="44">
-        <v>10</v>
-      </c>
-      <c r="C67" t="s" s="44">
+      <c r="B67" t="s" s="39">
+        <v>10</v>
+      </c>
+      <c r="C67" t="s" s="39">
         <v>12</v>
       </c>
       <c r="D67" s="9">
@@ -18853,10 +18454,10 @@
       <c r="A68" s="4">
         <v>11</v>
       </c>
-      <c r="B68" t="s" s="44">
-        <v>10</v>
-      </c>
-      <c r="C68" t="s" s="44">
+      <c r="B68" t="s" s="39">
+        <v>10</v>
+      </c>
+      <c r="C68" t="s" s="39">
         <v>6</v>
       </c>
       <c r="D68" s="9">
@@ -18873,10 +18474,10 @@
       <c r="A69" s="4">
         <v>11</v>
       </c>
-      <c r="B69" t="s" s="44">
-        <v>10</v>
-      </c>
-      <c r="C69" t="s" s="44">
+      <c r="B69" t="s" s="39">
+        <v>10</v>
+      </c>
+      <c r="C69" t="s" s="39">
         <v>7</v>
       </c>
       <c r="D69" s="9">
@@ -18893,10 +18494,10 @@
       <c r="A70" s="4">
         <v>11</v>
       </c>
-      <c r="B70" t="s" s="44">
-        <v>10</v>
-      </c>
-      <c r="C70" t="s" s="44">
+      <c r="B70" t="s" s="39">
+        <v>10</v>
+      </c>
+      <c r="C70" t="s" s="39">
         <v>13</v>
       </c>
       <c r="D70" s="9">
@@ -18913,10 +18514,10 @@
       <c r="A71" s="4">
         <v>11</v>
       </c>
-      <c r="B71" t="s" s="44">
-        <v>10</v>
-      </c>
-      <c r="C71" t="s" s="44">
+      <c r="B71" t="s" s="39">
+        <v>10</v>
+      </c>
+      <c r="C71" t="s" s="39">
         <v>14</v>
       </c>
       <c r="D71" s="9">
@@ -18933,10 +18534,10 @@
       <c r="A72" s="4">
         <v>11</v>
       </c>
-      <c r="B72" t="s" s="44">
-        <v>10</v>
-      </c>
-      <c r="C72" t="s" s="44">
+      <c r="B72" t="s" s="39">
+        <v>10</v>
+      </c>
+      <c r="C72" t="s" s="39">
         <v>15</v>
       </c>
       <c r="D72" s="9">
@@ -18953,10 +18554,10 @@
       <c r="A73" s="4">
         <v>11</v>
       </c>
-      <c r="B73" t="s" s="44">
-        <v>10</v>
-      </c>
-      <c r="C73" t="s" s="44">
+      <c r="B73" t="s" s="39">
+        <v>10</v>
+      </c>
+      <c r="C73" t="s" s="39">
         <v>16</v>
       </c>
       <c r="D73" s="9">
@@ -18973,10 +18574,10 @@
       <c r="A74" s="4">
         <v>11</v>
       </c>
-      <c r="B74" t="s" s="44">
-        <v>10</v>
-      </c>
-      <c r="C74" t="s" s="44">
+      <c r="B74" t="s" s="39">
+        <v>10</v>
+      </c>
+      <c r="C74" t="s" s="39">
         <v>17</v>
       </c>
       <c r="D74" s="9">
@@ -18993,10 +18594,10 @@
       <c r="A75" s="4">
         <v>12</v>
       </c>
-      <c r="B75" t="s" s="44">
-        <v>10</v>
-      </c>
-      <c r="C75" t="s" s="44">
+      <c r="B75" t="s" s="39">
+        <v>10</v>
+      </c>
+      <c r="C75" t="s" s="39">
         <v>6</v>
       </c>
       <c r="D75" s="9">
@@ -19013,10 +18614,10 @@
       <c r="A76" s="4">
         <v>12</v>
       </c>
-      <c r="B76" t="s" s="44">
-        <v>10</v>
-      </c>
-      <c r="C76" t="s" s="44">
+      <c r="B76" t="s" s="39">
+        <v>10</v>
+      </c>
+      <c r="C76" t="s" s="39">
         <v>7</v>
       </c>
       <c r="D76" s="9">
@@ -19033,10 +18634,10 @@
       <c r="A77" s="4">
         <v>12</v>
       </c>
-      <c r="B77" t="s" s="44">
-        <v>10</v>
-      </c>
-      <c r="C77" t="s" s="44">
+      <c r="B77" t="s" s="39">
+        <v>10</v>
+      </c>
+      <c r="C77" t="s" s="39">
         <v>8</v>
       </c>
       <c r="D77" s="9">
@@ -19053,10 +18654,10 @@
       <c r="A78" s="4">
         <v>12</v>
       </c>
-      <c r="B78" t="s" s="44">
-        <v>10</v>
-      </c>
-      <c r="C78" t="s" s="44">
+      <c r="B78" t="s" s="39">
+        <v>10</v>
+      </c>
+      <c r="C78" t="s" s="39">
         <v>9</v>
       </c>
       <c r="D78" s="9">
@@ -19073,10 +18674,10 @@
       <c r="A79" s="4">
         <v>13</v>
       </c>
-      <c r="B79" t="s" s="44">
-        <v>10</v>
-      </c>
-      <c r="C79" t="s" s="44">
+      <c r="B79" t="s" s="39">
+        <v>10</v>
+      </c>
+      <c r="C79" t="s" s="39">
         <v>6</v>
       </c>
       <c r="D79" s="9">
@@ -19093,10 +18694,10 @@
       <c r="A80" s="4">
         <v>13</v>
       </c>
-      <c r="B80" t="s" s="44">
-        <v>10</v>
-      </c>
-      <c r="C80" t="s" s="44">
+      <c r="B80" t="s" s="39">
+        <v>10</v>
+      </c>
+      <c r="C80" t="s" s="39">
         <v>7</v>
       </c>
       <c r="D80" s="9">
@@ -19113,10 +18714,10 @@
       <c r="A81" s="4">
         <v>13</v>
       </c>
-      <c r="B81" t="s" s="44">
-        <v>10</v>
-      </c>
-      <c r="C81" t="s" s="44">
+      <c r="B81" t="s" s="39">
+        <v>10</v>
+      </c>
+      <c r="C81" t="s" s="39">
         <v>8</v>
       </c>
       <c r="D81" s="9">
@@ -19133,10 +18734,10 @@
       <c r="A82" s="4">
         <v>13</v>
       </c>
-      <c r="B82" t="s" s="44">
-        <v>10</v>
-      </c>
-      <c r="C82" t="s" s="44">
+      <c r="B82" t="s" s="39">
+        <v>10</v>
+      </c>
+      <c r="C82" t="s" s="39">
         <v>9</v>
       </c>
       <c r="D82" s="9">
@@ -19153,10 +18754,10 @@
       <c r="A83" s="4">
         <v>14</v>
       </c>
-      <c r="B83" t="s" s="44">
-        <v>10</v>
-      </c>
-      <c r="C83" t="s" s="44">
+      <c r="B83" t="s" s="39">
+        <v>10</v>
+      </c>
+      <c r="C83" t="s" s="39">
         <v>6</v>
       </c>
       <c r="D83" s="9">
@@ -19173,10 +18774,10 @@
       <c r="A84" s="4">
         <v>14</v>
       </c>
-      <c r="B84" t="s" s="44">
-        <v>10</v>
-      </c>
-      <c r="C84" t="s" s="44">
+      <c r="B84" t="s" s="39">
+        <v>10</v>
+      </c>
+      <c r="C84" t="s" s="39">
         <v>7</v>
       </c>
       <c r="D84" s="9">
@@ -19193,10 +18794,10 @@
       <c r="A85" s="4">
         <v>14</v>
       </c>
-      <c r="B85" t="s" s="44">
-        <v>10</v>
-      </c>
-      <c r="C85" t="s" s="44">
+      <c r="B85" t="s" s="39">
+        <v>10</v>
+      </c>
+      <c r="C85" t="s" s="39">
         <v>8</v>
       </c>
       <c r="D85" s="9">
@@ -19213,10 +18814,10 @@
       <c r="A86" s="4">
         <v>15</v>
       </c>
-      <c r="B86" t="s" s="44">
-        <v>10</v>
-      </c>
-      <c r="C86" t="s" s="44">
+      <c r="B86" t="s" s="39">
+        <v>10</v>
+      </c>
+      <c r="C86" t="s" s="39">
         <v>6</v>
       </c>
       <c r="D86" s="9">
@@ -19233,10 +18834,10 @@
       <c r="A87" s="4">
         <v>15</v>
       </c>
-      <c r="B87" t="s" s="44">
-        <v>10</v>
-      </c>
-      <c r="C87" t="s" s="44">
+      <c r="B87" t="s" s="39">
+        <v>10</v>
+      </c>
+      <c r="C87" t="s" s="39">
         <v>7</v>
       </c>
       <c r="D87" s="9">
@@ -19253,10 +18854,10 @@
       <c r="A88" s="4">
         <v>16</v>
       </c>
-      <c r="B88" t="s" s="44">
-        <v>10</v>
-      </c>
-      <c r="C88" t="s" s="44">
+      <c r="B88" t="s" s="39">
+        <v>10</v>
+      </c>
+      <c r="C88" t="s" s="39">
         <v>6</v>
       </c>
       <c r="D88" s="9">
@@ -19273,10 +18874,10 @@
       <c r="A89" s="4">
         <v>16</v>
       </c>
-      <c r="B89" t="s" s="44">
-        <v>10</v>
-      </c>
-      <c r="C89" t="s" s="44">
+      <c r="B89" t="s" s="39">
+        <v>10</v>
+      </c>
+      <c r="C89" t="s" s="39">
         <v>7</v>
       </c>
       <c r="D89" s="9">
@@ -19290,12 +18891,12 @@
       </c>
     </row>
     <row r="90" ht="15" customHeight="1">
-      <c r="A90" s="31"/>
-      <c r="B90" s="31"/>
-      <c r="C90" s="31"/>
-      <c r="D90" s="33"/>
-      <c r="E90" s="33"/>
-      <c r="F90" s="33"/>
+      <c r="A90" s="30"/>
+      <c r="B90" s="30"/>
+      <c r="C90" s="30"/>
+      <c r="D90" s="30"/>
+      <c r="E90" s="30"/>
+      <c r="F90" s="30"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -19314,13 +18915,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8333" defaultRowHeight="13" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="10.8516" style="45" customWidth="1"/>
-    <col min="2" max="2" width="10.8516" style="45" customWidth="1"/>
-    <col min="3" max="3" width="10.8516" style="45" customWidth="1"/>
-    <col min="4" max="4" width="10.8516" style="45" customWidth="1"/>
-    <col min="5" max="5" width="10.8516" style="45" customWidth="1"/>
-    <col min="6" max="6" width="10.8516" style="45" customWidth="1"/>
-    <col min="7" max="256" width="10.8516" style="45" customWidth="1"/>
+    <col min="1" max="1" width="10.8516" style="40" customWidth="1"/>
+    <col min="2" max="2" width="10.8516" style="40" customWidth="1"/>
+    <col min="3" max="3" width="10.8516" style="40" customWidth="1"/>
+    <col min="4" max="4" width="10.8516" style="40" customWidth="1"/>
+    <col min="5" max="5" width="10.8516" style="40" customWidth="1"/>
+    <col min="6" max="6" width="10.8516" style="40" customWidth="1"/>
+    <col min="7" max="256" width="10.8516" style="40" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" customHeight="1">
@@ -19333,13 +18934,13 @@
       <c r="C1" t="s" s="2">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="41">
+      <c r="D1" t="s" s="36">
         <v>3</v>
       </c>
       <c r="E1" t="s" s="19">
         <v>18</v>
       </c>
-      <c r="F1" t="s" s="41">
+      <c r="F1" t="s" s="36">
         <v>4</v>
       </c>
     </row>
@@ -20227,10 +19828,10 @@
       <c r="A46" s="14">
         <v>1</v>
       </c>
-      <c r="B46" t="s" s="43">
-        <v>10</v>
-      </c>
-      <c r="C46" t="s" s="43">
+      <c r="B46" t="s" s="38">
+        <v>10</v>
+      </c>
+      <c r="C46" t="s" s="38">
         <v>6</v>
       </c>
       <c r="D46" s="22">
@@ -20247,10 +19848,10 @@
       <c r="A47" s="4">
         <v>2</v>
       </c>
-      <c r="B47" t="s" s="44">
-        <v>10</v>
-      </c>
-      <c r="C47" t="s" s="44">
+      <c r="B47" t="s" s="39">
+        <v>10</v>
+      </c>
+      <c r="C47" t="s" s="39">
         <v>6</v>
       </c>
       <c r="D47" t="s" s="5">
@@ -20267,10 +19868,10 @@
       <c r="A48" s="4">
         <v>3</v>
       </c>
-      <c r="B48" t="s" s="44">
-        <v>10</v>
-      </c>
-      <c r="C48" t="s" s="44">
+      <c r="B48" t="s" s="39">
+        <v>10</v>
+      </c>
+      <c r="C48" t="s" s="39">
         <v>6</v>
       </c>
       <c r="D48" t="s" s="5">
@@ -20287,10 +19888,10 @@
       <c r="A49" s="4">
         <v>3</v>
       </c>
-      <c r="B49" t="s" s="44">
-        <v>10</v>
-      </c>
-      <c r="C49" t="s" s="44">
+      <c r="B49" t="s" s="39">
+        <v>10</v>
+      </c>
+      <c r="C49" t="s" s="39">
         <v>7</v>
       </c>
       <c r="D49" s="9">
@@ -20307,10 +19908,10 @@
       <c r="A50" s="4">
         <v>4</v>
       </c>
-      <c r="B50" t="s" s="44">
-        <v>10</v>
-      </c>
-      <c r="C50" t="s" s="44">
+      <c r="B50" t="s" s="39">
+        <v>10</v>
+      </c>
+      <c r="C50" t="s" s="39">
         <v>6</v>
       </c>
       <c r="D50" s="9">
@@ -20327,10 +19928,10 @@
       <c r="A51" s="4">
         <v>4</v>
       </c>
-      <c r="B51" t="s" s="44">
-        <v>10</v>
-      </c>
-      <c r="C51" t="s" s="44">
+      <c r="B51" t="s" s="39">
+        <v>10</v>
+      </c>
+      <c r="C51" t="s" s="39">
         <v>7</v>
       </c>
       <c r="D51" s="9">
@@ -20347,10 +19948,10 @@
       <c r="A52" s="4">
         <v>5</v>
       </c>
-      <c r="B52" t="s" s="44">
-        <v>10</v>
-      </c>
-      <c r="C52" t="s" s="44">
+      <c r="B52" t="s" s="39">
+        <v>10</v>
+      </c>
+      <c r="C52" t="s" s="39">
         <v>7</v>
       </c>
       <c r="D52" s="9">
@@ -20367,10 +19968,10 @@
       <c r="A53" s="4">
         <v>5</v>
       </c>
-      <c r="B53" t="s" s="44">
-        <v>10</v>
-      </c>
-      <c r="C53" t="s" s="44">
+      <c r="B53" t="s" s="39">
+        <v>10</v>
+      </c>
+      <c r="C53" t="s" s="39">
         <v>8</v>
       </c>
       <c r="D53" s="9">
@@ -20387,10 +19988,10 @@
       <c r="A54" s="4">
         <v>5</v>
       </c>
-      <c r="B54" t="s" s="44">
-        <v>10</v>
-      </c>
-      <c r="C54" t="s" s="44">
+      <c r="B54" t="s" s="39">
+        <v>10</v>
+      </c>
+      <c r="C54" t="s" s="39">
         <v>6</v>
       </c>
       <c r="D54" s="9">
@@ -20407,10 +20008,10 @@
       <c r="A55" s="4">
         <v>6</v>
       </c>
-      <c r="B55" t="s" s="44">
-        <v>10</v>
-      </c>
-      <c r="C55" t="s" s="44">
+      <c r="B55" t="s" s="39">
+        <v>10</v>
+      </c>
+      <c r="C55" t="s" s="39">
         <v>6</v>
       </c>
       <c r="D55" s="9">
@@ -20427,10 +20028,10 @@
       <c r="A56" s="4">
         <v>6</v>
       </c>
-      <c r="B56" t="s" s="44">
-        <v>10</v>
-      </c>
-      <c r="C56" t="s" s="44">
+      <c r="B56" t="s" s="39">
+        <v>10</v>
+      </c>
+      <c r="C56" t="s" s="39">
         <v>7</v>
       </c>
       <c r="D56" s="9">
@@ -20447,10 +20048,10 @@
       <c r="A57" s="4">
         <v>7</v>
       </c>
-      <c r="B57" t="s" s="44">
-        <v>10</v>
-      </c>
-      <c r="C57" t="s" s="44">
+      <c r="B57" t="s" s="39">
+        <v>10</v>
+      </c>
+      <c r="C57" t="s" s="39">
         <v>6</v>
       </c>
       <c r="D57" s="9">
@@ -20467,10 +20068,10 @@
       <c r="A58" s="4">
         <v>7</v>
       </c>
-      <c r="B58" t="s" s="44">
-        <v>10</v>
-      </c>
-      <c r="C58" t="s" s="44">
+      <c r="B58" t="s" s="39">
+        <v>10</v>
+      </c>
+      <c r="C58" t="s" s="39">
         <v>7</v>
       </c>
       <c r="D58" s="9">
@@ -20487,10 +20088,10 @@
       <c r="A59" s="4">
         <v>9</v>
       </c>
-      <c r="B59" t="s" s="44">
-        <v>10</v>
-      </c>
-      <c r="C59" t="s" s="44">
+      <c r="B59" t="s" s="39">
+        <v>10</v>
+      </c>
+      <c r="C59" t="s" s="39">
         <v>6</v>
       </c>
       <c r="D59" s="9">
@@ -20507,10 +20108,10 @@
       <c r="A60" s="4">
         <v>9</v>
       </c>
-      <c r="B60" t="s" s="44">
-        <v>10</v>
-      </c>
-      <c r="C60" t="s" s="44">
+      <c r="B60" t="s" s="39">
+        <v>10</v>
+      </c>
+      <c r="C60" t="s" s="39">
         <v>8</v>
       </c>
       <c r="D60" s="9">
@@ -20527,10 +20128,10 @@
       <c r="A61" s="4">
         <v>9</v>
       </c>
-      <c r="B61" t="s" s="44">
-        <v>10</v>
-      </c>
-      <c r="C61" t="s" s="44">
+      <c r="B61" t="s" s="39">
+        <v>10</v>
+      </c>
+      <c r="C61" t="s" s="39">
         <v>7</v>
       </c>
       <c r="D61" s="9">
@@ -20547,10 +20148,10 @@
       <c r="A62" s="4">
         <v>9</v>
       </c>
-      <c r="B62" t="s" s="44">
-        <v>10</v>
-      </c>
-      <c r="C62" t="s" s="44">
+      <c r="B62" t="s" s="39">
+        <v>10</v>
+      </c>
+      <c r="C62" t="s" s="39">
         <v>12</v>
       </c>
       <c r="D62" s="9">
@@ -20567,10 +20168,10 @@
       <c r="A63" s="4">
         <v>9</v>
       </c>
-      <c r="B63" t="s" s="44">
-        <v>10</v>
-      </c>
-      <c r="C63" t="s" s="44">
+      <c r="B63" t="s" s="39">
+        <v>10</v>
+      </c>
+      <c r="C63" t="s" s="39">
         <v>9</v>
       </c>
       <c r="D63" s="9">
@@ -20587,10 +20188,10 @@
       <c r="A64" s="4">
         <v>10</v>
       </c>
-      <c r="B64" t="s" s="44">
-        <v>10</v>
-      </c>
-      <c r="C64" t="s" s="44">
+      <c r="B64" t="s" s="39">
+        <v>10</v>
+      </c>
+      <c r="C64" t="s" s="39">
         <v>6</v>
       </c>
       <c r="D64" s="9">
@@ -20607,10 +20208,10 @@
       <c r="A65" s="4">
         <v>11</v>
       </c>
-      <c r="B65" t="s" s="44">
-        <v>10</v>
-      </c>
-      <c r="C65" t="s" s="44">
+      <c r="B65" t="s" s="39">
+        <v>10</v>
+      </c>
+      <c r="C65" t="s" s="39">
         <v>8</v>
       </c>
       <c r="D65" s="9">
@@ -20627,10 +20228,10 @@
       <c r="A66" s="4">
         <v>11</v>
       </c>
-      <c r="B66" t="s" s="44">
-        <v>10</v>
-      </c>
-      <c r="C66" t="s" s="44">
+      <c r="B66" t="s" s="39">
+        <v>10</v>
+      </c>
+      <c r="C66" t="s" s="39">
         <v>9</v>
       </c>
       <c r="D66" s="9">
@@ -20647,10 +20248,10 @@
       <c r="A67" s="4">
         <v>11</v>
       </c>
-      <c r="B67" t="s" s="44">
-        <v>10</v>
-      </c>
-      <c r="C67" t="s" s="44">
+      <c r="B67" t="s" s="39">
+        <v>10</v>
+      </c>
+      <c r="C67" t="s" s="39">
         <v>12</v>
       </c>
       <c r="D67" s="9">
@@ -20667,10 +20268,10 @@
       <c r="A68" s="4">
         <v>11</v>
       </c>
-      <c r="B68" t="s" s="44">
-        <v>10</v>
-      </c>
-      <c r="C68" t="s" s="44">
+      <c r="B68" t="s" s="39">
+        <v>10</v>
+      </c>
+      <c r="C68" t="s" s="39">
         <v>6</v>
       </c>
       <c r="D68" s="9">
@@ -20687,10 +20288,10 @@
       <c r="A69" s="4">
         <v>11</v>
       </c>
-      <c r="B69" t="s" s="44">
-        <v>10</v>
-      </c>
-      <c r="C69" t="s" s="44">
+      <c r="B69" t="s" s="39">
+        <v>10</v>
+      </c>
+      <c r="C69" t="s" s="39">
         <v>7</v>
       </c>
       <c r="D69" s="9">
@@ -20707,10 +20308,10 @@
       <c r="A70" s="4">
         <v>11</v>
       </c>
-      <c r="B70" t="s" s="44">
-        <v>10</v>
-      </c>
-      <c r="C70" t="s" s="44">
+      <c r="B70" t="s" s="39">
+        <v>10</v>
+      </c>
+      <c r="C70" t="s" s="39">
         <v>13</v>
       </c>
       <c r="D70" s="9">
@@ -20727,10 +20328,10 @@
       <c r="A71" s="4">
         <v>11</v>
       </c>
-      <c r="B71" t="s" s="44">
-        <v>10</v>
-      </c>
-      <c r="C71" t="s" s="44">
+      <c r="B71" t="s" s="39">
+        <v>10</v>
+      </c>
+      <c r="C71" t="s" s="39">
         <v>14</v>
       </c>
       <c r="D71" s="9">
@@ -20747,10 +20348,10 @@
       <c r="A72" s="4">
         <v>11</v>
       </c>
-      <c r="B72" t="s" s="44">
-        <v>10</v>
-      </c>
-      <c r="C72" t="s" s="44">
+      <c r="B72" t="s" s="39">
+        <v>10</v>
+      </c>
+      <c r="C72" t="s" s="39">
         <v>15</v>
       </c>
       <c r="D72" s="9">
@@ -20767,10 +20368,10 @@
       <c r="A73" s="4">
         <v>11</v>
       </c>
-      <c r="B73" t="s" s="44">
-        <v>10</v>
-      </c>
-      <c r="C73" t="s" s="44">
+      <c r="B73" t="s" s="39">
+        <v>10</v>
+      </c>
+      <c r="C73" t="s" s="39">
         <v>16</v>
       </c>
       <c r="D73" s="9">
@@ -20787,10 +20388,10 @@
       <c r="A74" s="4">
         <v>11</v>
       </c>
-      <c r="B74" t="s" s="44">
-        <v>10</v>
-      </c>
-      <c r="C74" t="s" s="44">
+      <c r="B74" t="s" s="39">
+        <v>10</v>
+      </c>
+      <c r="C74" t="s" s="39">
         <v>17</v>
       </c>
       <c r="D74" s="9">
@@ -20807,10 +20408,10 @@
       <c r="A75" s="4">
         <v>12</v>
       </c>
-      <c r="B75" t="s" s="44">
-        <v>10</v>
-      </c>
-      <c r="C75" t="s" s="44">
+      <c r="B75" t="s" s="39">
+        <v>10</v>
+      </c>
+      <c r="C75" t="s" s="39">
         <v>6</v>
       </c>
       <c r="D75" s="9">
@@ -20827,10 +20428,10 @@
       <c r="A76" s="4">
         <v>12</v>
       </c>
-      <c r="B76" t="s" s="44">
-        <v>10</v>
-      </c>
-      <c r="C76" t="s" s="44">
+      <c r="B76" t="s" s="39">
+        <v>10</v>
+      </c>
+      <c r="C76" t="s" s="39">
         <v>7</v>
       </c>
       <c r="D76" s="9">
@@ -20847,10 +20448,10 @@
       <c r="A77" s="4">
         <v>12</v>
       </c>
-      <c r="B77" t="s" s="44">
-        <v>10</v>
-      </c>
-      <c r="C77" t="s" s="44">
+      <c r="B77" t="s" s="39">
+        <v>10</v>
+      </c>
+      <c r="C77" t="s" s="39">
         <v>8</v>
       </c>
       <c r="D77" s="9">
@@ -20867,10 +20468,10 @@
       <c r="A78" s="4">
         <v>12</v>
       </c>
-      <c r="B78" t="s" s="44">
-        <v>10</v>
-      </c>
-      <c r="C78" t="s" s="44">
+      <c r="B78" t="s" s="39">
+        <v>10</v>
+      </c>
+      <c r="C78" t="s" s="39">
         <v>9</v>
       </c>
       <c r="D78" s="9">
@@ -20887,10 +20488,10 @@
       <c r="A79" s="4">
         <v>13</v>
       </c>
-      <c r="B79" t="s" s="44">
-        <v>10</v>
-      </c>
-      <c r="C79" t="s" s="44">
+      <c r="B79" t="s" s="39">
+        <v>10</v>
+      </c>
+      <c r="C79" t="s" s="39">
         <v>6</v>
       </c>
       <c r="D79" s="9">
@@ -20907,10 +20508,10 @@
       <c r="A80" s="4">
         <v>13</v>
       </c>
-      <c r="B80" t="s" s="44">
-        <v>10</v>
-      </c>
-      <c r="C80" t="s" s="44">
+      <c r="B80" t="s" s="39">
+        <v>10</v>
+      </c>
+      <c r="C80" t="s" s="39">
         <v>7</v>
       </c>
       <c r="D80" s="9">
@@ -20927,10 +20528,10 @@
       <c r="A81" s="4">
         <v>13</v>
       </c>
-      <c r="B81" t="s" s="44">
-        <v>10</v>
-      </c>
-      <c r="C81" t="s" s="44">
+      <c r="B81" t="s" s="39">
+        <v>10</v>
+      </c>
+      <c r="C81" t="s" s="39">
         <v>8</v>
       </c>
       <c r="D81" s="9">
@@ -20947,10 +20548,10 @@
       <c r="A82" s="4">
         <v>13</v>
       </c>
-      <c r="B82" t="s" s="44">
-        <v>10</v>
-      </c>
-      <c r="C82" t="s" s="44">
+      <c r="B82" t="s" s="39">
+        <v>10</v>
+      </c>
+      <c r="C82" t="s" s="39">
         <v>9</v>
       </c>
       <c r="D82" s="9">
@@ -20967,10 +20568,10 @@
       <c r="A83" s="4">
         <v>14</v>
       </c>
-      <c r="B83" t="s" s="44">
-        <v>10</v>
-      </c>
-      <c r="C83" t="s" s="44">
+      <c r="B83" t="s" s="39">
+        <v>10</v>
+      </c>
+      <c r="C83" t="s" s="39">
         <v>6</v>
       </c>
       <c r="D83" s="9">
@@ -20987,10 +20588,10 @@
       <c r="A84" s="4">
         <v>14</v>
       </c>
-      <c r="B84" t="s" s="44">
-        <v>10</v>
-      </c>
-      <c r="C84" t="s" s="44">
+      <c r="B84" t="s" s="39">
+        <v>10</v>
+      </c>
+      <c r="C84" t="s" s="39">
         <v>7</v>
       </c>
       <c r="D84" s="9">
@@ -21007,10 +20608,10 @@
       <c r="A85" s="4">
         <v>14</v>
       </c>
-      <c r="B85" t="s" s="44">
-        <v>10</v>
-      </c>
-      <c r="C85" t="s" s="44">
+      <c r="B85" t="s" s="39">
+        <v>10</v>
+      </c>
+      <c r="C85" t="s" s="39">
         <v>8</v>
       </c>
       <c r="D85" s="9">
@@ -21027,10 +20628,10 @@
       <c r="A86" s="4">
         <v>15</v>
       </c>
-      <c r="B86" t="s" s="44">
-        <v>10</v>
-      </c>
-      <c r="C86" t="s" s="44">
+      <c r="B86" t="s" s="39">
+        <v>10</v>
+      </c>
+      <c r="C86" t="s" s="39">
         <v>6</v>
       </c>
       <c r="D86" s="9">
@@ -21047,10 +20648,10 @@
       <c r="A87" s="4">
         <v>15</v>
       </c>
-      <c r="B87" t="s" s="44">
-        <v>10</v>
-      </c>
-      <c r="C87" t="s" s="44">
+      <c r="B87" t="s" s="39">
+        <v>10</v>
+      </c>
+      <c r="C87" t="s" s="39">
         <v>7</v>
       </c>
       <c r="D87" s="9">
@@ -21067,10 +20668,10 @@
       <c r="A88" s="4">
         <v>16</v>
       </c>
-      <c r="B88" t="s" s="44">
-        <v>10</v>
-      </c>
-      <c r="C88" t="s" s="44">
+      <c r="B88" t="s" s="39">
+        <v>10</v>
+      </c>
+      <c r="C88" t="s" s="39">
         <v>6</v>
       </c>
       <c r="D88" s="9">
@@ -21087,10 +20688,10 @@
       <c r="A89" s="4">
         <v>16</v>
       </c>
-      <c r="B89" t="s" s="44">
-        <v>10</v>
-      </c>
-      <c r="C89" t="s" s="44">
+      <c r="B89" t="s" s="39">
+        <v>10</v>
+      </c>
+      <c r="C89" t="s" s="39">
         <v>7</v>
       </c>
       <c r="D89" s="9">
@@ -21104,44 +20705,44 @@
       </c>
     </row>
     <row r="90" ht="15" customHeight="1">
-      <c r="A90" s="31"/>
-      <c r="B90" s="31"/>
-      <c r="C90" s="31"/>
-      <c r="D90" s="33"/>
-      <c r="E90" s="33"/>
-      <c r="F90" s="33"/>
+      <c r="A90" s="30"/>
+      <c r="B90" s="30"/>
+      <c r="C90" s="30"/>
+      <c r="D90" s="30"/>
+      <c r="E90" s="30"/>
+      <c r="F90" s="30"/>
     </row>
     <row r="91" ht="15" customHeight="1">
-      <c r="A91" s="29"/>
-      <c r="B91" s="29"/>
-      <c r="C91" s="29"/>
-      <c r="D91" s="35"/>
-      <c r="E91" s="35"/>
-      <c r="F91" s="35"/>
+      <c r="A91" s="28"/>
+      <c r="B91" s="28"/>
+      <c r="C91" s="28"/>
+      <c r="D91" s="28"/>
+      <c r="E91" s="28"/>
+      <c r="F91" s="28"/>
     </row>
     <row r="92" ht="15" customHeight="1">
-      <c r="A92" s="29"/>
-      <c r="B92" s="29"/>
-      <c r="C92" s="29"/>
-      <c r="D92" s="35"/>
-      <c r="E92" s="35"/>
-      <c r="F92" s="35"/>
+      <c r="A92" s="28"/>
+      <c r="B92" s="28"/>
+      <c r="C92" s="28"/>
+      <c r="D92" s="28"/>
+      <c r="E92" s="28"/>
+      <c r="F92" s="28"/>
     </row>
     <row r="93" ht="15" customHeight="1">
-      <c r="A93" s="29"/>
-      <c r="B93" s="29"/>
-      <c r="C93" s="29"/>
-      <c r="D93" s="35"/>
-      <c r="E93" s="35"/>
-      <c r="F93" s="35"/>
+      <c r="A93" s="28"/>
+      <c r="B93" s="28"/>
+      <c r="C93" s="28"/>
+      <c r="D93" s="28"/>
+      <c r="E93" s="28"/>
+      <c r="F93" s="28"/>
     </row>
     <row r="94" ht="15" customHeight="1">
-      <c r="A94" s="29"/>
-      <c r="B94" s="29"/>
-      <c r="C94" s="29"/>
-      <c r="D94" s="35"/>
-      <c r="E94" s="35"/>
-      <c r="F94" s="35"/>
+      <c r="A94" s="28"/>
+      <c r="B94" s="28"/>
+      <c r="C94" s="28"/>
+      <c r="D94" s="28"/>
+      <c r="E94" s="28"/>
+      <c r="F94" s="28"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -21160,13 +20761,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8333" defaultRowHeight="13" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="10.8516" style="46" customWidth="1"/>
-    <col min="2" max="2" width="10.8516" style="46" customWidth="1"/>
-    <col min="3" max="3" width="10.8516" style="46" customWidth="1"/>
-    <col min="4" max="4" width="10.8516" style="46" customWidth="1"/>
-    <col min="5" max="5" width="10.8516" style="46" customWidth="1"/>
-    <col min="6" max="6" width="10.6719" style="46" customWidth="1"/>
-    <col min="7" max="256" width="10.8516" style="46" customWidth="1"/>
+    <col min="1" max="1" width="10.8516" style="41" customWidth="1"/>
+    <col min="2" max="2" width="10.8516" style="41" customWidth="1"/>
+    <col min="3" max="3" width="10.8516" style="41" customWidth="1"/>
+    <col min="4" max="4" width="10.8516" style="41" customWidth="1"/>
+    <col min="5" max="5" width="10.8516" style="41" customWidth="1"/>
+    <col min="6" max="6" width="10.6719" style="41" customWidth="1"/>
+    <col min="7" max="256" width="10.8516" style="41" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" customHeight="1">
@@ -21179,13 +20780,13 @@
       <c r="C1" t="s" s="2">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="41">
+      <c r="D1" t="s" s="36">
         <v>3</v>
       </c>
       <c r="E1" t="s" s="19">
         <v>18</v>
       </c>
-      <c r="F1" t="s" s="41">
+      <c r="F1" t="s" s="36">
         <v>4</v>
       </c>
     </row>
@@ -22966,18 +22567,18 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8333" defaultRowHeight="13" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="10.8516" style="47" customWidth="1"/>
-    <col min="2" max="2" width="10.6719" style="47" customWidth="1"/>
-    <col min="3" max="3" width="10.6719" style="47" customWidth="1"/>
-    <col min="4" max="4" width="10.8516" style="47" customWidth="1"/>
-    <col min="5" max="5" width="10.8516" style="47" customWidth="1"/>
-    <col min="6" max="6" width="10.8516" style="47" customWidth="1"/>
-    <col min="7" max="7" width="10.6719" style="47" customWidth="1"/>
-    <col min="8" max="8" width="10.8516" style="47" customWidth="1"/>
-    <col min="9" max="9" width="10.8516" style="47" customWidth="1"/>
-    <col min="10" max="10" width="10.8516" style="47" customWidth="1"/>
-    <col min="11" max="11" width="10.8516" style="47" customWidth="1"/>
-    <col min="12" max="256" width="10.8516" style="47" customWidth="1"/>
+    <col min="1" max="1" width="10.8516" style="42" customWidth="1"/>
+    <col min="2" max="2" width="10.6719" style="42" customWidth="1"/>
+    <col min="3" max="3" width="10.6719" style="42" customWidth="1"/>
+    <col min="4" max="4" width="10.8516" style="42" customWidth="1"/>
+    <col min="5" max="5" width="10.8516" style="42" customWidth="1"/>
+    <col min="6" max="6" width="10.8516" style="42" customWidth="1"/>
+    <col min="7" max="7" width="10.6719" style="42" customWidth="1"/>
+    <col min="8" max="8" width="10.8516" style="42" customWidth="1"/>
+    <col min="9" max="9" width="10.8516" style="42" customWidth="1"/>
+    <col min="10" max="10" width="10.8516" style="42" customWidth="1"/>
+    <col min="11" max="11" width="10.8516" style="42" customWidth="1"/>
+    <col min="12" max="256" width="10.8516" style="42" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" customHeight="1">
@@ -22990,28 +22591,28 @@
       <c r="C1" t="s" s="19">
         <v>2</v>
       </c>
-      <c r="D1" s="48">
+      <c r="D1" s="43">
         <v>40554</v>
       </c>
-      <c r="E1" s="48">
+      <c r="E1" s="43">
         <v>40564</v>
       </c>
-      <c r="F1" s="48">
+      <c r="F1" s="43">
         <v>40602</v>
       </c>
-      <c r="G1" s="48">
+      <c r="G1" s="43">
         <v>40642</v>
       </c>
-      <c r="H1" s="49">
+      <c r="H1" s="44">
         <v>40674</v>
       </c>
-      <c r="I1" s="48">
+      <c r="I1" s="43">
         <v>40701</v>
       </c>
-      <c r="J1" s="48">
+      <c r="J1" s="43">
         <v>40732</v>
       </c>
-      <c r="K1" s="50">
+      <c r="K1" s="45">
         <v>40778</v>
       </c>
     </row>
@@ -26079,7 +25680,7 @@
       <c r="F89" s="9">
         <v>16.5</v>
       </c>
-      <c r="G89" s="38">
+      <c r="G89" s="33">
         <v>22.5</v>
       </c>
       <c r="H89" s="9">
